--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ander\Desktop\langapp\v15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ander\Desktop\langapp\v17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF5A8F1-8E70-4133-964F-29239CD0911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA28D49E-39CF-4C96-B0EB-BD28B6F651FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{7340545C-2BB6-4E8B-827D-6673ABB13FB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7340545C-2BB6-4E8B-827D-6673ABB13FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1900" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="1016">
   <si>
     <t>question_text</t>
   </si>
@@ -2665,6 +2665,426 @@
   </si>
   <si>
     <t>160. The verb "sentire" in gerund form is:</t>
+  </si>
+  <si>
+    <t>21. German question</t>
+  </si>
+  <si>
+    <t>22. German question</t>
+  </si>
+  <si>
+    <t>23. German question</t>
+  </si>
+  <si>
+    <t>24. German question</t>
+  </si>
+  <si>
+    <t>25. German question</t>
+  </si>
+  <si>
+    <t>26. German question</t>
+  </si>
+  <si>
+    <t>27. German question</t>
+  </si>
+  <si>
+    <t>28. German question</t>
+  </si>
+  <si>
+    <t>29. German question</t>
+  </si>
+  <si>
+    <t>30. German question</t>
+  </si>
+  <si>
+    <t>31. German question</t>
+  </si>
+  <si>
+    <t>32. German question</t>
+  </si>
+  <si>
+    <t>33. German question</t>
+  </si>
+  <si>
+    <t>34. German question</t>
+  </si>
+  <si>
+    <t>35. German question</t>
+  </si>
+  <si>
+    <t>36. German question</t>
+  </si>
+  <si>
+    <t>37. German question</t>
+  </si>
+  <si>
+    <t>38. German question</t>
+  </si>
+  <si>
+    <t>39. German question</t>
+  </si>
+  <si>
+    <t>40. German question</t>
+  </si>
+  <si>
+    <t>41. German question</t>
+  </si>
+  <si>
+    <t>42. German question</t>
+  </si>
+  <si>
+    <t>43. German question</t>
+  </si>
+  <si>
+    <t>44. German question</t>
+  </si>
+  <si>
+    <t>45. German question</t>
+  </si>
+  <si>
+    <t>46. German question</t>
+  </si>
+  <si>
+    <t>47. German question</t>
+  </si>
+  <si>
+    <t>48. German question</t>
+  </si>
+  <si>
+    <t>49. German question</t>
+  </si>
+  <si>
+    <t>50. German question</t>
+  </si>
+  <si>
+    <t>51. German question</t>
+  </si>
+  <si>
+    <t>52. German question</t>
+  </si>
+  <si>
+    <t>53. German question</t>
+  </si>
+  <si>
+    <t>54. German question</t>
+  </si>
+  <si>
+    <t>55. German question</t>
+  </si>
+  <si>
+    <t>56. German question</t>
+  </si>
+  <si>
+    <t>57. German question</t>
+  </si>
+  <si>
+    <t>58. German question</t>
+  </si>
+  <si>
+    <t>59. German question</t>
+  </si>
+  <si>
+    <t>60. German question</t>
+  </si>
+  <si>
+    <t>61. German question</t>
+  </si>
+  <si>
+    <t>62. German question</t>
+  </si>
+  <si>
+    <t>63. German question</t>
+  </si>
+  <si>
+    <t>64. German question</t>
+  </si>
+  <si>
+    <t>65. German question</t>
+  </si>
+  <si>
+    <t>66. German question</t>
+  </si>
+  <si>
+    <t>67. German question</t>
+  </si>
+  <si>
+    <t>68. German question</t>
+  </si>
+  <si>
+    <t>69. German question</t>
+  </si>
+  <si>
+    <t>70. German question</t>
+  </si>
+  <si>
+    <t>71. German question</t>
+  </si>
+  <si>
+    <t>72. German question</t>
+  </si>
+  <si>
+    <t>73. German question</t>
+  </si>
+  <si>
+    <t>74. German question</t>
+  </si>
+  <si>
+    <t>75. German question</t>
+  </si>
+  <si>
+    <t>76. German question</t>
+  </si>
+  <si>
+    <t>77. German question</t>
+  </si>
+  <si>
+    <t>78. German question</t>
+  </si>
+  <si>
+    <t>79. German question</t>
+  </si>
+  <si>
+    <t>80. German question</t>
+  </si>
+  <si>
+    <t>81. German question</t>
+  </si>
+  <si>
+    <t>82. German question</t>
+  </si>
+  <si>
+    <t>83. German question</t>
+  </si>
+  <si>
+    <t>84. German question</t>
+  </si>
+  <si>
+    <t>85. German question</t>
+  </si>
+  <si>
+    <t>86. German question</t>
+  </si>
+  <si>
+    <t>87. German question</t>
+  </si>
+  <si>
+    <t>88. German question</t>
+  </si>
+  <si>
+    <t>89. German question</t>
+  </si>
+  <si>
+    <t>90. German question</t>
+  </si>
+  <si>
+    <t>91. German question</t>
+  </si>
+  <si>
+    <t>92. German question</t>
+  </si>
+  <si>
+    <t>93. German question</t>
+  </si>
+  <si>
+    <t>94. German question</t>
+  </si>
+  <si>
+    <t>95. German question</t>
+  </si>
+  <si>
+    <t>96. German question</t>
+  </si>
+  <si>
+    <t>97. German question</t>
+  </si>
+  <si>
+    <t>98. German question</t>
+  </si>
+  <si>
+    <t>99. German question</t>
+  </si>
+  <si>
+    <t>100. German question</t>
+  </si>
+  <si>
+    <t>101. German question</t>
+  </si>
+  <si>
+    <t>102. German question</t>
+  </si>
+  <si>
+    <t>103. German question</t>
+  </si>
+  <si>
+    <t>104. German question</t>
+  </si>
+  <si>
+    <t>105. German question</t>
+  </si>
+  <si>
+    <t>106. German question</t>
+  </si>
+  <si>
+    <t>107. German question</t>
+  </si>
+  <si>
+    <t>108. German question</t>
+  </si>
+  <si>
+    <t>109. German question</t>
+  </si>
+  <si>
+    <t>110. German question</t>
+  </si>
+  <si>
+    <t>111. German question</t>
+  </si>
+  <si>
+    <t>112. German question</t>
+  </si>
+  <si>
+    <t>113. German question</t>
+  </si>
+  <si>
+    <t>114. German question</t>
+  </si>
+  <si>
+    <t>115. German question</t>
+  </si>
+  <si>
+    <t>116. German question</t>
+  </si>
+  <si>
+    <t>117. German question</t>
+  </si>
+  <si>
+    <t>118. German question</t>
+  </si>
+  <si>
+    <t>119. German question</t>
+  </si>
+  <si>
+    <t>120. German question</t>
+  </si>
+  <si>
+    <t>121. German question</t>
+  </si>
+  <si>
+    <t>122. German question</t>
+  </si>
+  <si>
+    <t>123. German question</t>
+  </si>
+  <si>
+    <t>124. German question</t>
+  </si>
+  <si>
+    <t>125. German question</t>
+  </si>
+  <si>
+    <t>126. German question</t>
+  </si>
+  <si>
+    <t>127. German question</t>
+  </si>
+  <si>
+    <t>128. German question</t>
+  </si>
+  <si>
+    <t>129. German question</t>
+  </si>
+  <si>
+    <t>130. German question</t>
+  </si>
+  <si>
+    <t>131. German question</t>
+  </si>
+  <si>
+    <t>132. German question</t>
+  </si>
+  <si>
+    <t>133. German question</t>
+  </si>
+  <si>
+    <t>134. German question</t>
+  </si>
+  <si>
+    <t>135. German question</t>
+  </si>
+  <si>
+    <t>136. German question</t>
+  </si>
+  <si>
+    <t>137. German question</t>
+  </si>
+  <si>
+    <t>138. German question</t>
+  </si>
+  <si>
+    <t>139. German question</t>
+  </si>
+  <si>
+    <t>140. German question</t>
+  </si>
+  <si>
+    <t>141. German question</t>
+  </si>
+  <si>
+    <t>142. German question</t>
+  </si>
+  <si>
+    <t>143. German question</t>
+  </si>
+  <si>
+    <t>144. German question</t>
+  </si>
+  <si>
+    <t>145. German question</t>
+  </si>
+  <si>
+    <t>146. German question</t>
+  </si>
+  <si>
+    <t>147. German question</t>
+  </si>
+  <si>
+    <t>148. German question</t>
+  </si>
+  <si>
+    <t>149. German question</t>
+  </si>
+  <si>
+    <t>150. German question</t>
+  </si>
+  <si>
+    <t>151. German question</t>
+  </si>
+  <si>
+    <t>152. German question</t>
+  </si>
+  <si>
+    <t>153. German question</t>
+  </si>
+  <si>
+    <t>154. German question</t>
+  </si>
+  <si>
+    <t>155. German question</t>
+  </si>
+  <si>
+    <t>156. German question</t>
+  </si>
+  <si>
+    <t>157. German question</t>
+  </si>
+  <si>
+    <t>158. German question</t>
+  </si>
+  <si>
+    <t>159. German question</t>
+  </si>
+  <si>
+    <t>160. German question</t>
   </si>
 </sst>
 </file>
@@ -3023,10 +3443,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36A3347-166D-4930-B9BE-A2A96E4C6F8D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="J243" sqref="J243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9323,6 +9743,3646 @@
         <v>689</v>
       </c>
       <c r="H242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>876</v>
+      </c>
+      <c r="B243" t="s">
+        <v>419</v>
+      </c>
+      <c r="C243" t="s">
+        <v>420</v>
+      </c>
+      <c r="D243" t="s">
+        <v>421</v>
+      </c>
+      <c r="E243" t="s">
+        <v>86</v>
+      </c>
+      <c r="F243" t="s">
+        <v>87</v>
+      </c>
+      <c r="G243" t="s">
+        <v>408</v>
+      </c>
+      <c r="H243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>877</v>
+      </c>
+      <c r="B244" t="s">
+        <v>422</v>
+      </c>
+      <c r="C244" t="s">
+        <v>423</v>
+      </c>
+      <c r="D244" t="s">
+        <v>424</v>
+      </c>
+      <c r="E244" t="s">
+        <v>86</v>
+      </c>
+      <c r="F244" t="s">
+        <v>87</v>
+      </c>
+      <c r="G244" t="s">
+        <v>408</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>878</v>
+      </c>
+      <c r="B245" t="s">
+        <v>425</v>
+      </c>
+      <c r="C245" t="s">
+        <v>426</v>
+      </c>
+      <c r="D245" t="s">
+        <v>427</v>
+      </c>
+      <c r="E245" t="s">
+        <v>86</v>
+      </c>
+      <c r="F245" t="s">
+        <v>87</v>
+      </c>
+      <c r="G245" t="s">
+        <v>408</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>879</v>
+      </c>
+      <c r="B246" t="s">
+        <v>428</v>
+      </c>
+      <c r="C246" t="s">
+        <v>429</v>
+      </c>
+      <c r="D246" t="s">
+        <v>430</v>
+      </c>
+      <c r="E246" t="s">
+        <v>86</v>
+      </c>
+      <c r="F246" t="s">
+        <v>87</v>
+      </c>
+      <c r="G246" t="s">
+        <v>408</v>
+      </c>
+      <c r="H246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>880</v>
+      </c>
+      <c r="B247" t="s">
+        <v>431</v>
+      </c>
+      <c r="C247" t="s">
+        <v>432</v>
+      </c>
+      <c r="D247" t="s">
+        <v>433</v>
+      </c>
+      <c r="E247" t="s">
+        <v>86</v>
+      </c>
+      <c r="F247" t="s">
+        <v>87</v>
+      </c>
+      <c r="G247" t="s">
+        <v>408</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>881</v>
+      </c>
+      <c r="B248" t="s">
+        <v>434</v>
+      </c>
+      <c r="C248" t="s">
+        <v>435</v>
+      </c>
+      <c r="D248" t="s">
+        <v>436</v>
+      </c>
+      <c r="E248" t="s">
+        <v>86</v>
+      </c>
+      <c r="F248" t="s">
+        <v>87</v>
+      </c>
+      <c r="G248" t="s">
+        <v>408</v>
+      </c>
+      <c r="H248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>882</v>
+      </c>
+      <c r="B249" t="s">
+        <v>437</v>
+      </c>
+      <c r="C249" t="s">
+        <v>438</v>
+      </c>
+      <c r="D249" t="s">
+        <v>439</v>
+      </c>
+      <c r="E249" t="s">
+        <v>86</v>
+      </c>
+      <c r="F249" t="s">
+        <v>87</v>
+      </c>
+      <c r="G249" t="s">
+        <v>408</v>
+      </c>
+      <c r="H249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>883</v>
+      </c>
+      <c r="B250" t="s">
+        <v>440</v>
+      </c>
+      <c r="C250" t="s">
+        <v>441</v>
+      </c>
+      <c r="D250" t="s">
+        <v>442</v>
+      </c>
+      <c r="E250" t="s">
+        <v>86</v>
+      </c>
+      <c r="F250" t="s">
+        <v>87</v>
+      </c>
+      <c r="G250" t="s">
+        <v>408</v>
+      </c>
+      <c r="H250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>884</v>
+      </c>
+      <c r="B251" t="s">
+        <v>443</v>
+      </c>
+      <c r="C251" t="s">
+        <v>444</v>
+      </c>
+      <c r="D251" t="s">
+        <v>445</v>
+      </c>
+      <c r="E251" t="s">
+        <v>86</v>
+      </c>
+      <c r="F251" t="s">
+        <v>87</v>
+      </c>
+      <c r="G251" t="s">
+        <v>408</v>
+      </c>
+      <c r="H251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>885</v>
+      </c>
+      <c r="B252" t="s">
+        <v>446</v>
+      </c>
+      <c r="C252" t="s">
+        <v>447</v>
+      </c>
+      <c r="D252" t="s">
+        <v>448</v>
+      </c>
+      <c r="E252" t="s">
+        <v>86</v>
+      </c>
+      <c r="F252" t="s">
+        <v>87</v>
+      </c>
+      <c r="G252" t="s">
+        <v>408</v>
+      </c>
+      <c r="H252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>886</v>
+      </c>
+      <c r="B253" t="s">
+        <v>449</v>
+      </c>
+      <c r="C253" t="s">
+        <v>450</v>
+      </c>
+      <c r="D253" t="s">
+        <v>451</v>
+      </c>
+      <c r="E253" t="s">
+        <v>86</v>
+      </c>
+      <c r="F253" t="s">
+        <v>87</v>
+      </c>
+      <c r="G253" t="s">
+        <v>408</v>
+      </c>
+      <c r="H253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>887</v>
+      </c>
+      <c r="B254" t="s">
+        <v>452</v>
+      </c>
+      <c r="C254" t="s">
+        <v>453</v>
+      </c>
+      <c r="D254" t="s">
+        <v>454</v>
+      </c>
+      <c r="E254" t="s">
+        <v>86</v>
+      </c>
+      <c r="F254" t="s">
+        <v>87</v>
+      </c>
+      <c r="G254" t="s">
+        <v>408</v>
+      </c>
+      <c r="H254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>888</v>
+      </c>
+      <c r="B255" t="s">
+        <v>455</v>
+      </c>
+      <c r="C255" t="s">
+        <v>456</v>
+      </c>
+      <c r="D255" t="s">
+        <v>457</v>
+      </c>
+      <c r="E255" t="s">
+        <v>86</v>
+      </c>
+      <c r="F255" t="s">
+        <v>87</v>
+      </c>
+      <c r="G255" t="s">
+        <v>408</v>
+      </c>
+      <c r="H255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>889</v>
+      </c>
+      <c r="B256" t="s">
+        <v>458</v>
+      </c>
+      <c r="C256" t="s">
+        <v>459</v>
+      </c>
+      <c r="D256" t="s">
+        <v>460</v>
+      </c>
+      <c r="E256" t="s">
+        <v>86</v>
+      </c>
+      <c r="F256" t="s">
+        <v>87</v>
+      </c>
+      <c r="G256" t="s">
+        <v>408</v>
+      </c>
+      <c r="H256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>890</v>
+      </c>
+      <c r="B257" t="s">
+        <v>461</v>
+      </c>
+      <c r="C257" t="s">
+        <v>462</v>
+      </c>
+      <c r="D257" t="s">
+        <v>463</v>
+      </c>
+      <c r="E257" t="s">
+        <v>86</v>
+      </c>
+      <c r="F257" t="s">
+        <v>87</v>
+      </c>
+      <c r="G257" t="s">
+        <v>408</v>
+      </c>
+      <c r="H257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>891</v>
+      </c>
+      <c r="B258" t="s">
+        <v>464</v>
+      </c>
+      <c r="C258" t="s">
+        <v>465</v>
+      </c>
+      <c r="D258" t="s">
+        <v>466</v>
+      </c>
+      <c r="E258" t="s">
+        <v>86</v>
+      </c>
+      <c r="F258" t="s">
+        <v>87</v>
+      </c>
+      <c r="G258" t="s">
+        <v>408</v>
+      </c>
+      <c r="H258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>892</v>
+      </c>
+      <c r="B259" t="s">
+        <v>467</v>
+      </c>
+      <c r="C259" t="s">
+        <v>468</v>
+      </c>
+      <c r="D259" t="s">
+        <v>469</v>
+      </c>
+      <c r="E259" t="s">
+        <v>86</v>
+      </c>
+      <c r="F259" t="s">
+        <v>87</v>
+      </c>
+      <c r="G259" t="s">
+        <v>408</v>
+      </c>
+      <c r="H259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>893</v>
+      </c>
+      <c r="B260" t="s">
+        <v>470</v>
+      </c>
+      <c r="C260" t="s">
+        <v>471</v>
+      </c>
+      <c r="D260" t="s">
+        <v>472</v>
+      </c>
+      <c r="E260" t="s">
+        <v>86</v>
+      </c>
+      <c r="F260" t="s">
+        <v>87</v>
+      </c>
+      <c r="G260" t="s">
+        <v>408</v>
+      </c>
+      <c r="H260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>894</v>
+      </c>
+      <c r="B261" t="s">
+        <v>473</v>
+      </c>
+      <c r="C261" t="s">
+        <v>474</v>
+      </c>
+      <c r="D261" t="s">
+        <v>475</v>
+      </c>
+      <c r="E261" t="s">
+        <v>86</v>
+      </c>
+      <c r="F261" t="s">
+        <v>87</v>
+      </c>
+      <c r="G261" t="s">
+        <v>408</v>
+      </c>
+      <c r="H261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>895</v>
+      </c>
+      <c r="B262" t="s">
+        <v>476</v>
+      </c>
+      <c r="C262" t="s">
+        <v>477</v>
+      </c>
+      <c r="D262" t="s">
+        <v>478</v>
+      </c>
+      <c r="E262" t="s">
+        <v>86</v>
+      </c>
+      <c r="F262" t="s">
+        <v>87</v>
+      </c>
+      <c r="G262" t="s">
+        <v>408</v>
+      </c>
+      <c r="H262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>896</v>
+      </c>
+      <c r="B263" t="s">
+        <v>479</v>
+      </c>
+      <c r="C263" t="s">
+        <v>444</v>
+      </c>
+      <c r="D263" t="s">
+        <v>445</v>
+      </c>
+      <c r="E263" t="s">
+        <v>86</v>
+      </c>
+      <c r="F263" t="s">
+        <v>87</v>
+      </c>
+      <c r="G263" t="s">
+        <v>480</v>
+      </c>
+      <c r="H263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>897</v>
+      </c>
+      <c r="B264" t="s">
+        <v>481</v>
+      </c>
+      <c r="C264" t="s">
+        <v>482</v>
+      </c>
+      <c r="D264" t="s">
+        <v>483</v>
+      </c>
+      <c r="E264" t="s">
+        <v>86</v>
+      </c>
+      <c r="F264" t="s">
+        <v>87</v>
+      </c>
+      <c r="G264" t="s">
+        <v>480</v>
+      </c>
+      <c r="H264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>898</v>
+      </c>
+      <c r="B265" t="s">
+        <v>484</v>
+      </c>
+      <c r="C265" t="s">
+        <v>485</v>
+      </c>
+      <c r="D265" t="s">
+        <v>486</v>
+      </c>
+      <c r="E265" t="s">
+        <v>86</v>
+      </c>
+      <c r="F265" t="s">
+        <v>87</v>
+      </c>
+      <c r="G265" t="s">
+        <v>480</v>
+      </c>
+      <c r="H265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>899</v>
+      </c>
+      <c r="B266" t="s">
+        <v>487</v>
+      </c>
+      <c r="C266" t="s">
+        <v>488</v>
+      </c>
+      <c r="D266" t="s">
+        <v>489</v>
+      </c>
+      <c r="E266" t="s">
+        <v>86</v>
+      </c>
+      <c r="F266" t="s">
+        <v>87</v>
+      </c>
+      <c r="G266" t="s">
+        <v>480</v>
+      </c>
+      <c r="H266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>900</v>
+      </c>
+      <c r="B267" t="s">
+        <v>490</v>
+      </c>
+      <c r="C267" t="s">
+        <v>491</v>
+      </c>
+      <c r="D267" t="s">
+        <v>492</v>
+      </c>
+      <c r="E267" t="s">
+        <v>86</v>
+      </c>
+      <c r="F267" t="s">
+        <v>87</v>
+      </c>
+      <c r="G267" t="s">
+        <v>480</v>
+      </c>
+      <c r="H267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>901</v>
+      </c>
+      <c r="B268" t="s">
+        <v>493</v>
+      </c>
+      <c r="C268" t="s">
+        <v>494</v>
+      </c>
+      <c r="D268" t="s">
+        <v>495</v>
+      </c>
+      <c r="E268" t="s">
+        <v>86</v>
+      </c>
+      <c r="F268" t="s">
+        <v>87</v>
+      </c>
+      <c r="G268" t="s">
+        <v>480</v>
+      </c>
+      <c r="H268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>902</v>
+      </c>
+      <c r="B269" t="s">
+        <v>496</v>
+      </c>
+      <c r="C269" t="s">
+        <v>497</v>
+      </c>
+      <c r="D269" t="s">
+        <v>498</v>
+      </c>
+      <c r="E269" t="s">
+        <v>86</v>
+      </c>
+      <c r="F269" t="s">
+        <v>87</v>
+      </c>
+      <c r="G269" t="s">
+        <v>480</v>
+      </c>
+      <c r="H269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>903</v>
+      </c>
+      <c r="B270" t="s">
+        <v>499</v>
+      </c>
+      <c r="C270" t="s">
+        <v>441</v>
+      </c>
+      <c r="D270" t="s">
+        <v>442</v>
+      </c>
+      <c r="E270" t="s">
+        <v>86</v>
+      </c>
+      <c r="F270" t="s">
+        <v>87</v>
+      </c>
+      <c r="G270" t="s">
+        <v>480</v>
+      </c>
+      <c r="H270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>904</v>
+      </c>
+      <c r="B271" t="s">
+        <v>500</v>
+      </c>
+      <c r="C271" t="s">
+        <v>501</v>
+      </c>
+      <c r="D271" t="s">
+        <v>502</v>
+      </c>
+      <c r="E271" t="s">
+        <v>86</v>
+      </c>
+      <c r="F271" t="s">
+        <v>87</v>
+      </c>
+      <c r="G271" t="s">
+        <v>480</v>
+      </c>
+      <c r="H271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>905</v>
+      </c>
+      <c r="B272" t="s">
+        <v>503</v>
+      </c>
+      <c r="C272" t="s">
+        <v>504</v>
+      </c>
+      <c r="D272" t="s">
+        <v>505</v>
+      </c>
+      <c r="E272" t="s">
+        <v>86</v>
+      </c>
+      <c r="F272" t="s">
+        <v>87</v>
+      </c>
+      <c r="G272" t="s">
+        <v>480</v>
+      </c>
+      <c r="H272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>906</v>
+      </c>
+      <c r="B273" t="s">
+        <v>506</v>
+      </c>
+      <c r="C273" t="s">
+        <v>450</v>
+      </c>
+      <c r="D273" t="s">
+        <v>451</v>
+      </c>
+      <c r="E273" t="s">
+        <v>86</v>
+      </c>
+      <c r="F273" t="s">
+        <v>87</v>
+      </c>
+      <c r="G273" t="s">
+        <v>480</v>
+      </c>
+      <c r="H273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>907</v>
+      </c>
+      <c r="B274" t="s">
+        <v>507</v>
+      </c>
+      <c r="C274" t="s">
+        <v>508</v>
+      </c>
+      <c r="D274" t="s">
+        <v>509</v>
+      </c>
+      <c r="E274" t="s">
+        <v>86</v>
+      </c>
+      <c r="F274" t="s">
+        <v>87</v>
+      </c>
+      <c r="G274" t="s">
+        <v>480</v>
+      </c>
+      <c r="H274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>908</v>
+      </c>
+      <c r="B275" t="s">
+        <v>510</v>
+      </c>
+      <c r="C275" t="s">
+        <v>511</v>
+      </c>
+      <c r="D275" t="s">
+        <v>512</v>
+      </c>
+      <c r="E275" t="s">
+        <v>86</v>
+      </c>
+      <c r="F275" t="s">
+        <v>87</v>
+      </c>
+      <c r="G275" t="s">
+        <v>480</v>
+      </c>
+      <c r="H275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>909</v>
+      </c>
+      <c r="B276" t="s">
+        <v>513</v>
+      </c>
+      <c r="C276" t="s">
+        <v>459</v>
+      </c>
+      <c r="D276" t="s">
+        <v>460</v>
+      </c>
+      <c r="E276" t="s">
+        <v>86</v>
+      </c>
+      <c r="F276" t="s">
+        <v>87</v>
+      </c>
+      <c r="G276" t="s">
+        <v>480</v>
+      </c>
+      <c r="H276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>910</v>
+      </c>
+      <c r="B277" t="s">
+        <v>514</v>
+      </c>
+      <c r="C277" t="s">
+        <v>515</v>
+      </c>
+      <c r="D277" t="s">
+        <v>516</v>
+      </c>
+      <c r="E277" t="s">
+        <v>86</v>
+      </c>
+      <c r="F277" t="s">
+        <v>87</v>
+      </c>
+      <c r="G277" t="s">
+        <v>480</v>
+      </c>
+      <c r="H277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>911</v>
+      </c>
+      <c r="B278" t="s">
+        <v>517</v>
+      </c>
+      <c r="C278" t="s">
+        <v>518</v>
+      </c>
+      <c r="D278" t="s">
+        <v>519</v>
+      </c>
+      <c r="E278" t="s">
+        <v>86</v>
+      </c>
+      <c r="F278" t="s">
+        <v>87</v>
+      </c>
+      <c r="G278" t="s">
+        <v>480</v>
+      </c>
+      <c r="H278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>912</v>
+      </c>
+      <c r="B279" t="s">
+        <v>520</v>
+      </c>
+      <c r="C279" t="s">
+        <v>491</v>
+      </c>
+      <c r="D279" t="s">
+        <v>492</v>
+      </c>
+      <c r="E279" t="s">
+        <v>86</v>
+      </c>
+      <c r="F279" t="s">
+        <v>87</v>
+      </c>
+      <c r="G279" t="s">
+        <v>480</v>
+      </c>
+      <c r="H279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>913</v>
+      </c>
+      <c r="B280" t="s">
+        <v>521</v>
+      </c>
+      <c r="C280" t="s">
+        <v>522</v>
+      </c>
+      <c r="D280" t="s">
+        <v>523</v>
+      </c>
+      <c r="E280" t="s">
+        <v>86</v>
+      </c>
+      <c r="F280" t="s">
+        <v>87</v>
+      </c>
+      <c r="G280" t="s">
+        <v>480</v>
+      </c>
+      <c r="H280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>914</v>
+      </c>
+      <c r="B281" t="s">
+        <v>524</v>
+      </c>
+      <c r="C281" t="s">
+        <v>525</v>
+      </c>
+      <c r="D281" t="s">
+        <v>526</v>
+      </c>
+      <c r="E281" t="s">
+        <v>86</v>
+      </c>
+      <c r="F281" t="s">
+        <v>87</v>
+      </c>
+      <c r="G281" t="s">
+        <v>480</v>
+      </c>
+      <c r="H281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>915</v>
+      </c>
+      <c r="B282" t="s">
+        <v>527</v>
+      </c>
+      <c r="C282" t="s">
+        <v>528</v>
+      </c>
+      <c r="D282" t="s">
+        <v>529</v>
+      </c>
+      <c r="E282" t="s">
+        <v>86</v>
+      </c>
+      <c r="F282" t="s">
+        <v>87</v>
+      </c>
+      <c r="G282" t="s">
+        <v>480</v>
+      </c>
+      <c r="H282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>916</v>
+      </c>
+      <c r="B283" t="s">
+        <v>530</v>
+      </c>
+      <c r="C283" t="s">
+        <v>420</v>
+      </c>
+      <c r="D283" t="s">
+        <v>531</v>
+      </c>
+      <c r="E283" t="s">
+        <v>86</v>
+      </c>
+      <c r="F283" t="s">
+        <v>87</v>
+      </c>
+      <c r="G283" t="s">
+        <v>532</v>
+      </c>
+      <c r="H283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>917</v>
+      </c>
+      <c r="B284" t="s">
+        <v>533</v>
+      </c>
+      <c r="C284" t="s">
+        <v>423</v>
+      </c>
+      <c r="D284" t="s">
+        <v>534</v>
+      </c>
+      <c r="E284" t="s">
+        <v>86</v>
+      </c>
+      <c r="F284" t="s">
+        <v>87</v>
+      </c>
+      <c r="G284" t="s">
+        <v>532</v>
+      </c>
+      <c r="H284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>918</v>
+      </c>
+      <c r="B285" t="s">
+        <v>535</v>
+      </c>
+      <c r="C285" t="s">
+        <v>536</v>
+      </c>
+      <c r="D285" t="s">
+        <v>537</v>
+      </c>
+      <c r="E285" t="s">
+        <v>86</v>
+      </c>
+      <c r="F285" t="s">
+        <v>87</v>
+      </c>
+      <c r="G285" t="s">
+        <v>532</v>
+      </c>
+      <c r="H285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>919</v>
+      </c>
+      <c r="B286" t="s">
+        <v>538</v>
+      </c>
+      <c r="C286" t="s">
+        <v>539</v>
+      </c>
+      <c r="D286" t="s">
+        <v>540</v>
+      </c>
+      <c r="E286" t="s">
+        <v>86</v>
+      </c>
+      <c r="F286" t="s">
+        <v>87</v>
+      </c>
+      <c r="G286" t="s">
+        <v>532</v>
+      </c>
+      <c r="H286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>920</v>
+      </c>
+      <c r="B287" t="s">
+        <v>541</v>
+      </c>
+      <c r="C287" t="s">
+        <v>542</v>
+      </c>
+      <c r="D287" t="s">
+        <v>543</v>
+      </c>
+      <c r="E287" t="s">
+        <v>86</v>
+      </c>
+      <c r="F287" t="s">
+        <v>87</v>
+      </c>
+      <c r="G287" t="s">
+        <v>532</v>
+      </c>
+      <c r="H287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>921</v>
+      </c>
+      <c r="B288" t="s">
+        <v>544</v>
+      </c>
+      <c r="C288" t="s">
+        <v>545</v>
+      </c>
+      <c r="D288" t="s">
+        <v>546</v>
+      </c>
+      <c r="E288" t="s">
+        <v>86</v>
+      </c>
+      <c r="F288" t="s">
+        <v>87</v>
+      </c>
+      <c r="G288" t="s">
+        <v>532</v>
+      </c>
+      <c r="H288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>922</v>
+      </c>
+      <c r="B289" t="s">
+        <v>547</v>
+      </c>
+      <c r="C289" t="s">
+        <v>548</v>
+      </c>
+      <c r="D289" t="s">
+        <v>549</v>
+      </c>
+      <c r="E289" t="s">
+        <v>86</v>
+      </c>
+      <c r="F289" t="s">
+        <v>87</v>
+      </c>
+      <c r="G289" t="s">
+        <v>532</v>
+      </c>
+      <c r="H289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>923</v>
+      </c>
+      <c r="B290" t="s">
+        <v>550</v>
+      </c>
+      <c r="C290" t="s">
+        <v>551</v>
+      </c>
+      <c r="D290" t="s">
+        <v>552</v>
+      </c>
+      <c r="E290" t="s">
+        <v>86</v>
+      </c>
+      <c r="F290" t="s">
+        <v>87</v>
+      </c>
+      <c r="G290" t="s">
+        <v>532</v>
+      </c>
+      <c r="H290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>924</v>
+      </c>
+      <c r="B291" t="s">
+        <v>553</v>
+      </c>
+      <c r="C291" t="s">
+        <v>554</v>
+      </c>
+      <c r="D291" t="s">
+        <v>555</v>
+      </c>
+      <c r="E291" t="s">
+        <v>86</v>
+      </c>
+      <c r="F291" t="s">
+        <v>87</v>
+      </c>
+      <c r="G291" t="s">
+        <v>532</v>
+      </c>
+      <c r="H291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>925</v>
+      </c>
+      <c r="B292" t="s">
+        <v>556</v>
+      </c>
+      <c r="C292" t="s">
+        <v>557</v>
+      </c>
+      <c r="D292" t="s">
+        <v>558</v>
+      </c>
+      <c r="E292" t="s">
+        <v>86</v>
+      </c>
+      <c r="F292" t="s">
+        <v>87</v>
+      </c>
+      <c r="G292" t="s">
+        <v>532</v>
+      </c>
+      <c r="H292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>926</v>
+      </c>
+      <c r="B293" t="s">
+        <v>559</v>
+      </c>
+      <c r="C293" t="s">
+        <v>560</v>
+      </c>
+      <c r="D293" t="s">
+        <v>561</v>
+      </c>
+      <c r="E293" t="s">
+        <v>86</v>
+      </c>
+      <c r="F293" t="s">
+        <v>87</v>
+      </c>
+      <c r="G293" t="s">
+        <v>532</v>
+      </c>
+      <c r="H293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>927</v>
+      </c>
+      <c r="B294" t="s">
+        <v>562</v>
+      </c>
+      <c r="C294" t="s">
+        <v>563</v>
+      </c>
+      <c r="D294" t="s">
+        <v>564</v>
+      </c>
+      <c r="E294" t="s">
+        <v>86</v>
+      </c>
+      <c r="F294" t="s">
+        <v>87</v>
+      </c>
+      <c r="G294" t="s">
+        <v>532</v>
+      </c>
+      <c r="H294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>928</v>
+      </c>
+      <c r="B295" t="s">
+        <v>565</v>
+      </c>
+      <c r="C295" t="s">
+        <v>566</v>
+      </c>
+      <c r="D295" t="s">
+        <v>567</v>
+      </c>
+      <c r="E295" t="s">
+        <v>86</v>
+      </c>
+      <c r="F295" t="s">
+        <v>87</v>
+      </c>
+      <c r="G295" t="s">
+        <v>532</v>
+      </c>
+      <c r="H295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>929</v>
+      </c>
+      <c r="B296" t="s">
+        <v>568</v>
+      </c>
+      <c r="C296" t="s">
+        <v>468</v>
+      </c>
+      <c r="D296" t="s">
+        <v>569</v>
+      </c>
+      <c r="E296" t="s">
+        <v>86</v>
+      </c>
+      <c r="F296" t="s">
+        <v>87</v>
+      </c>
+      <c r="G296" t="s">
+        <v>532</v>
+      </c>
+      <c r="H296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>930</v>
+      </c>
+      <c r="B297" t="s">
+        <v>570</v>
+      </c>
+      <c r="C297" t="s">
+        <v>571</v>
+      </c>
+      <c r="D297" t="s">
+        <v>572</v>
+      </c>
+      <c r="E297" t="s">
+        <v>86</v>
+      </c>
+      <c r="F297" t="s">
+        <v>87</v>
+      </c>
+      <c r="G297" t="s">
+        <v>532</v>
+      </c>
+      <c r="H297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>931</v>
+      </c>
+      <c r="B298" t="s">
+        <v>573</v>
+      </c>
+      <c r="C298" t="s">
+        <v>459</v>
+      </c>
+      <c r="D298" t="s">
+        <v>574</v>
+      </c>
+      <c r="E298" t="s">
+        <v>86</v>
+      </c>
+      <c r="F298" t="s">
+        <v>87</v>
+      </c>
+      <c r="G298" t="s">
+        <v>532</v>
+      </c>
+      <c r="H298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>932</v>
+      </c>
+      <c r="B299" t="s">
+        <v>575</v>
+      </c>
+      <c r="C299" t="s">
+        <v>576</v>
+      </c>
+      <c r="D299" t="s">
+        <v>577</v>
+      </c>
+      <c r="E299" t="s">
+        <v>86</v>
+      </c>
+      <c r="F299" t="s">
+        <v>87</v>
+      </c>
+      <c r="G299" t="s">
+        <v>532</v>
+      </c>
+      <c r="H299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>933</v>
+      </c>
+      <c r="B300" t="s">
+        <v>578</v>
+      </c>
+      <c r="C300" t="s">
+        <v>579</v>
+      </c>
+      <c r="D300" t="s">
+        <v>580</v>
+      </c>
+      <c r="E300" t="s">
+        <v>86</v>
+      </c>
+      <c r="F300" t="s">
+        <v>87</v>
+      </c>
+      <c r="G300" t="s">
+        <v>532</v>
+      </c>
+      <c r="H300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>934</v>
+      </c>
+      <c r="B301" t="s">
+        <v>581</v>
+      </c>
+      <c r="C301" t="s">
+        <v>582</v>
+      </c>
+      <c r="D301" t="s">
+        <v>583</v>
+      </c>
+      <c r="E301" t="s">
+        <v>86</v>
+      </c>
+      <c r="F301" t="s">
+        <v>87</v>
+      </c>
+      <c r="G301" t="s">
+        <v>532</v>
+      </c>
+      <c r="H301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>935</v>
+      </c>
+      <c r="B302" t="s">
+        <v>584</v>
+      </c>
+      <c r="C302" t="s">
+        <v>585</v>
+      </c>
+      <c r="D302" t="s">
+        <v>586</v>
+      </c>
+      <c r="E302" t="s">
+        <v>86</v>
+      </c>
+      <c r="F302" t="s">
+        <v>87</v>
+      </c>
+      <c r="G302" t="s">
+        <v>532</v>
+      </c>
+      <c r="H302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>936</v>
+      </c>
+      <c r="B303" t="s">
+        <v>587</v>
+      </c>
+      <c r="C303" t="s">
+        <v>420</v>
+      </c>
+      <c r="D303" t="s">
+        <v>421</v>
+      </c>
+      <c r="E303" t="s">
+        <v>86</v>
+      </c>
+      <c r="F303" t="s">
+        <v>87</v>
+      </c>
+      <c r="G303" t="s">
+        <v>588</v>
+      </c>
+      <c r="H303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>937</v>
+      </c>
+      <c r="B304" t="s">
+        <v>589</v>
+      </c>
+      <c r="C304" t="s">
+        <v>423</v>
+      </c>
+      <c r="D304" t="s">
+        <v>424</v>
+      </c>
+      <c r="E304" t="s">
+        <v>86</v>
+      </c>
+      <c r="F304" t="s">
+        <v>87</v>
+      </c>
+      <c r="G304" t="s">
+        <v>588</v>
+      </c>
+      <c r="H304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>938</v>
+      </c>
+      <c r="B305" t="s">
+        <v>590</v>
+      </c>
+      <c r="C305" t="s">
+        <v>536</v>
+      </c>
+      <c r="D305" t="s">
+        <v>591</v>
+      </c>
+      <c r="E305" t="s">
+        <v>86</v>
+      </c>
+      <c r="F305" t="s">
+        <v>87</v>
+      </c>
+      <c r="G305" t="s">
+        <v>588</v>
+      </c>
+      <c r="H305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>939</v>
+      </c>
+      <c r="B306" t="s">
+        <v>592</v>
+      </c>
+      <c r="C306" t="s">
+        <v>539</v>
+      </c>
+      <c r="D306" t="s">
+        <v>593</v>
+      </c>
+      <c r="E306" t="s">
+        <v>86</v>
+      </c>
+      <c r="F306" t="s">
+        <v>87</v>
+      </c>
+      <c r="G306" t="s">
+        <v>588</v>
+      </c>
+      <c r="H306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>940</v>
+      </c>
+      <c r="B307" t="s">
+        <v>594</v>
+      </c>
+      <c r="C307" t="s">
+        <v>542</v>
+      </c>
+      <c r="D307" t="s">
+        <v>595</v>
+      </c>
+      <c r="E307" t="s">
+        <v>86</v>
+      </c>
+      <c r="F307" t="s">
+        <v>87</v>
+      </c>
+      <c r="G307" t="s">
+        <v>588</v>
+      </c>
+      <c r="H307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>941</v>
+      </c>
+      <c r="B308" t="s">
+        <v>596</v>
+      </c>
+      <c r="C308" t="s">
+        <v>545</v>
+      </c>
+      <c r="D308" t="s">
+        <v>597</v>
+      </c>
+      <c r="E308" t="s">
+        <v>86</v>
+      </c>
+      <c r="F308" t="s">
+        <v>87</v>
+      </c>
+      <c r="G308" t="s">
+        <v>588</v>
+      </c>
+      <c r="H308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>942</v>
+      </c>
+      <c r="B309" t="s">
+        <v>598</v>
+      </c>
+      <c r="C309" t="s">
+        <v>548</v>
+      </c>
+      <c r="D309" t="s">
+        <v>599</v>
+      </c>
+      <c r="E309" t="s">
+        <v>86</v>
+      </c>
+      <c r="F309" t="s">
+        <v>87</v>
+      </c>
+      <c r="G309" t="s">
+        <v>588</v>
+      </c>
+      <c r="H309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>943</v>
+      </c>
+      <c r="B310" t="s">
+        <v>600</v>
+      </c>
+      <c r="C310" t="s">
+        <v>551</v>
+      </c>
+      <c r="D310" t="s">
+        <v>601</v>
+      </c>
+      <c r="E310" t="s">
+        <v>86</v>
+      </c>
+      <c r="F310" t="s">
+        <v>87</v>
+      </c>
+      <c r="G310" t="s">
+        <v>588</v>
+      </c>
+      <c r="H310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>944</v>
+      </c>
+      <c r="B311" t="s">
+        <v>602</v>
+      </c>
+      <c r="C311" t="s">
+        <v>554</v>
+      </c>
+      <c r="D311" t="s">
+        <v>603</v>
+      </c>
+      <c r="E311" t="s">
+        <v>86</v>
+      </c>
+      <c r="F311" t="s">
+        <v>87</v>
+      </c>
+      <c r="G311" t="s">
+        <v>588</v>
+      </c>
+      <c r="H311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>945</v>
+      </c>
+      <c r="B312" t="s">
+        <v>604</v>
+      </c>
+      <c r="C312" t="s">
+        <v>557</v>
+      </c>
+      <c r="D312" t="s">
+        <v>605</v>
+      </c>
+      <c r="E312" t="s">
+        <v>86</v>
+      </c>
+      <c r="F312" t="s">
+        <v>87</v>
+      </c>
+      <c r="G312" t="s">
+        <v>588</v>
+      </c>
+      <c r="H312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>946</v>
+      </c>
+      <c r="B313" t="s">
+        <v>606</v>
+      </c>
+      <c r="C313" t="s">
+        <v>560</v>
+      </c>
+      <c r="D313" t="s">
+        <v>607</v>
+      </c>
+      <c r="E313" t="s">
+        <v>86</v>
+      </c>
+      <c r="F313" t="s">
+        <v>87</v>
+      </c>
+      <c r="G313" t="s">
+        <v>588</v>
+      </c>
+      <c r="H313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>947</v>
+      </c>
+      <c r="B314" t="s">
+        <v>608</v>
+      </c>
+      <c r="C314" t="s">
+        <v>563</v>
+      </c>
+      <c r="D314" t="s">
+        <v>609</v>
+      </c>
+      <c r="E314" t="s">
+        <v>86</v>
+      </c>
+      <c r="F314" t="s">
+        <v>87</v>
+      </c>
+      <c r="G314" t="s">
+        <v>588</v>
+      </c>
+      <c r="H314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>948</v>
+      </c>
+      <c r="B315" t="s">
+        <v>610</v>
+      </c>
+      <c r="C315" t="s">
+        <v>566</v>
+      </c>
+      <c r="D315" t="s">
+        <v>611</v>
+      </c>
+      <c r="E315" t="s">
+        <v>86</v>
+      </c>
+      <c r="F315" t="s">
+        <v>87</v>
+      </c>
+      <c r="G315" t="s">
+        <v>588</v>
+      </c>
+      <c r="H315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>949</v>
+      </c>
+      <c r="B316" t="s">
+        <v>612</v>
+      </c>
+      <c r="C316" t="s">
+        <v>468</v>
+      </c>
+      <c r="D316" t="s">
+        <v>469</v>
+      </c>
+      <c r="E316" t="s">
+        <v>86</v>
+      </c>
+      <c r="F316" t="s">
+        <v>87</v>
+      </c>
+      <c r="G316" t="s">
+        <v>588</v>
+      </c>
+      <c r="H316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>950</v>
+      </c>
+      <c r="B317" t="s">
+        <v>613</v>
+      </c>
+      <c r="C317" t="s">
+        <v>571</v>
+      </c>
+      <c r="D317" t="s">
+        <v>614</v>
+      </c>
+      <c r="E317" t="s">
+        <v>86</v>
+      </c>
+      <c r="F317" t="s">
+        <v>87</v>
+      </c>
+      <c r="G317" t="s">
+        <v>588</v>
+      </c>
+      <c r="H317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>951</v>
+      </c>
+      <c r="B318" t="s">
+        <v>615</v>
+      </c>
+      <c r="C318" t="s">
+        <v>459</v>
+      </c>
+      <c r="D318" t="s">
+        <v>460</v>
+      </c>
+      <c r="E318" t="s">
+        <v>86</v>
+      </c>
+      <c r="F318" t="s">
+        <v>87</v>
+      </c>
+      <c r="G318" t="s">
+        <v>588</v>
+      </c>
+      <c r="H318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>952</v>
+      </c>
+      <c r="B319" t="s">
+        <v>616</v>
+      </c>
+      <c r="C319" t="s">
+        <v>576</v>
+      </c>
+      <c r="D319" t="s">
+        <v>617</v>
+      </c>
+      <c r="E319" t="s">
+        <v>86</v>
+      </c>
+      <c r="F319" t="s">
+        <v>87</v>
+      </c>
+      <c r="G319" t="s">
+        <v>588</v>
+      </c>
+      <c r="H319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>953</v>
+      </c>
+      <c r="B320" t="s">
+        <v>618</v>
+      </c>
+      <c r="C320" t="s">
+        <v>579</v>
+      </c>
+      <c r="D320" t="s">
+        <v>619</v>
+      </c>
+      <c r="E320" t="s">
+        <v>86</v>
+      </c>
+      <c r="F320" t="s">
+        <v>87</v>
+      </c>
+      <c r="G320" t="s">
+        <v>588</v>
+      </c>
+      <c r="H320">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>954</v>
+      </c>
+      <c r="B321" t="s">
+        <v>620</v>
+      </c>
+      <c r="C321" t="s">
+        <v>582</v>
+      </c>
+      <c r="D321" t="s">
+        <v>621</v>
+      </c>
+      <c r="E321" t="s">
+        <v>86</v>
+      </c>
+      <c r="F321" t="s">
+        <v>87</v>
+      </c>
+      <c r="G321" t="s">
+        <v>588</v>
+      </c>
+      <c r="H321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>955</v>
+      </c>
+      <c r="B322" t="s">
+        <v>622</v>
+      </c>
+      <c r="C322" t="s">
+        <v>585</v>
+      </c>
+      <c r="D322" t="s">
+        <v>623</v>
+      </c>
+      <c r="E322" t="s">
+        <v>86</v>
+      </c>
+      <c r="F322" t="s">
+        <v>87</v>
+      </c>
+      <c r="G322" t="s">
+        <v>588</v>
+      </c>
+      <c r="H322">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>956</v>
+      </c>
+      <c r="B323" t="s">
+        <v>624</v>
+      </c>
+      <c r="C323" t="s">
+        <v>420</v>
+      </c>
+      <c r="D323" t="s">
+        <v>421</v>
+      </c>
+      <c r="E323" t="s">
+        <v>86</v>
+      </c>
+      <c r="F323" t="s">
+        <v>87</v>
+      </c>
+      <c r="G323" t="s">
+        <v>625</v>
+      </c>
+      <c r="H323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>957</v>
+      </c>
+      <c r="B324" t="s">
+        <v>626</v>
+      </c>
+      <c r="C324" t="s">
+        <v>423</v>
+      </c>
+      <c r="D324" t="s">
+        <v>424</v>
+      </c>
+      <c r="E324" t="s">
+        <v>86</v>
+      </c>
+      <c r="F324" t="s">
+        <v>87</v>
+      </c>
+      <c r="G324" t="s">
+        <v>625</v>
+      </c>
+      <c r="H324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>958</v>
+      </c>
+      <c r="B325" t="s">
+        <v>627</v>
+      </c>
+      <c r="C325" t="s">
+        <v>536</v>
+      </c>
+      <c r="D325" t="s">
+        <v>591</v>
+      </c>
+      <c r="E325" t="s">
+        <v>86</v>
+      </c>
+      <c r="F325" t="s">
+        <v>87</v>
+      </c>
+      <c r="G325" t="s">
+        <v>625</v>
+      </c>
+      <c r="H325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>959</v>
+      </c>
+      <c r="B326" t="s">
+        <v>628</v>
+      </c>
+      <c r="C326" t="s">
+        <v>539</v>
+      </c>
+      <c r="D326" t="s">
+        <v>593</v>
+      </c>
+      <c r="E326" t="s">
+        <v>86</v>
+      </c>
+      <c r="F326" t="s">
+        <v>87</v>
+      </c>
+      <c r="G326" t="s">
+        <v>625</v>
+      </c>
+      <c r="H326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>960</v>
+      </c>
+      <c r="B327" t="s">
+        <v>629</v>
+      </c>
+      <c r="C327" t="s">
+        <v>542</v>
+      </c>
+      <c r="D327" t="s">
+        <v>595</v>
+      </c>
+      <c r="E327" t="s">
+        <v>86</v>
+      </c>
+      <c r="F327" t="s">
+        <v>87</v>
+      </c>
+      <c r="G327" t="s">
+        <v>625</v>
+      </c>
+      <c r="H327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>961</v>
+      </c>
+      <c r="B328" t="s">
+        <v>630</v>
+      </c>
+      <c r="C328" t="s">
+        <v>545</v>
+      </c>
+      <c r="D328" t="s">
+        <v>597</v>
+      </c>
+      <c r="E328" t="s">
+        <v>86</v>
+      </c>
+      <c r="F328" t="s">
+        <v>87</v>
+      </c>
+      <c r="G328" t="s">
+        <v>625</v>
+      </c>
+      <c r="H328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>962</v>
+      </c>
+      <c r="B329" t="s">
+        <v>631</v>
+      </c>
+      <c r="C329" t="s">
+        <v>548</v>
+      </c>
+      <c r="D329" t="s">
+        <v>599</v>
+      </c>
+      <c r="E329" t="s">
+        <v>86</v>
+      </c>
+      <c r="F329" t="s">
+        <v>87</v>
+      </c>
+      <c r="G329" t="s">
+        <v>625</v>
+      </c>
+      <c r="H329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>963</v>
+      </c>
+      <c r="B330" t="s">
+        <v>632</v>
+      </c>
+      <c r="C330" t="s">
+        <v>551</v>
+      </c>
+      <c r="D330" t="s">
+        <v>601</v>
+      </c>
+      <c r="E330" t="s">
+        <v>86</v>
+      </c>
+      <c r="F330" t="s">
+        <v>87</v>
+      </c>
+      <c r="G330" t="s">
+        <v>625</v>
+      </c>
+      <c r="H330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>964</v>
+      </c>
+      <c r="B331" t="s">
+        <v>633</v>
+      </c>
+      <c r="C331" t="s">
+        <v>554</v>
+      </c>
+      <c r="D331" t="s">
+        <v>603</v>
+      </c>
+      <c r="E331" t="s">
+        <v>86</v>
+      </c>
+      <c r="F331" t="s">
+        <v>87</v>
+      </c>
+      <c r="G331" t="s">
+        <v>625</v>
+      </c>
+      <c r="H331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>965</v>
+      </c>
+      <c r="B332" t="s">
+        <v>634</v>
+      </c>
+      <c r="C332" t="s">
+        <v>557</v>
+      </c>
+      <c r="D332" t="s">
+        <v>605</v>
+      </c>
+      <c r="E332" t="s">
+        <v>86</v>
+      </c>
+      <c r="F332" t="s">
+        <v>87</v>
+      </c>
+      <c r="G332" t="s">
+        <v>625</v>
+      </c>
+      <c r="H332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>966</v>
+      </c>
+      <c r="B333" t="s">
+        <v>635</v>
+      </c>
+      <c r="C333" t="s">
+        <v>560</v>
+      </c>
+      <c r="D333" t="s">
+        <v>607</v>
+      </c>
+      <c r="E333" t="s">
+        <v>86</v>
+      </c>
+      <c r="F333" t="s">
+        <v>87</v>
+      </c>
+      <c r="G333" t="s">
+        <v>625</v>
+      </c>
+      <c r="H333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>967</v>
+      </c>
+      <c r="B334" t="s">
+        <v>636</v>
+      </c>
+      <c r="C334" t="s">
+        <v>563</v>
+      </c>
+      <c r="D334" t="s">
+        <v>609</v>
+      </c>
+      <c r="E334" t="s">
+        <v>86</v>
+      </c>
+      <c r="F334" t="s">
+        <v>87</v>
+      </c>
+      <c r="G334" t="s">
+        <v>625</v>
+      </c>
+      <c r="H334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>968</v>
+      </c>
+      <c r="B335" t="s">
+        <v>637</v>
+      </c>
+      <c r="C335" t="s">
+        <v>566</v>
+      </c>
+      <c r="D335" t="s">
+        <v>611</v>
+      </c>
+      <c r="E335" t="s">
+        <v>86</v>
+      </c>
+      <c r="F335" t="s">
+        <v>87</v>
+      </c>
+      <c r="G335" t="s">
+        <v>625</v>
+      </c>
+      <c r="H335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>969</v>
+      </c>
+      <c r="B336" t="s">
+        <v>638</v>
+      </c>
+      <c r="C336" t="s">
+        <v>468</v>
+      </c>
+      <c r="D336" t="s">
+        <v>469</v>
+      </c>
+      <c r="E336" t="s">
+        <v>86</v>
+      </c>
+      <c r="F336" t="s">
+        <v>87</v>
+      </c>
+      <c r="G336" t="s">
+        <v>625</v>
+      </c>
+      <c r="H336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>970</v>
+      </c>
+      <c r="B337" t="s">
+        <v>639</v>
+      </c>
+      <c r="C337" t="s">
+        <v>571</v>
+      </c>
+      <c r="D337" t="s">
+        <v>614</v>
+      </c>
+      <c r="E337" t="s">
+        <v>86</v>
+      </c>
+      <c r="F337" t="s">
+        <v>87</v>
+      </c>
+      <c r="G337" t="s">
+        <v>625</v>
+      </c>
+      <c r="H337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>971</v>
+      </c>
+      <c r="B338" t="s">
+        <v>640</v>
+      </c>
+      <c r="C338" t="s">
+        <v>459</v>
+      </c>
+      <c r="D338" t="s">
+        <v>460</v>
+      </c>
+      <c r="E338" t="s">
+        <v>86</v>
+      </c>
+      <c r="F338" t="s">
+        <v>87</v>
+      </c>
+      <c r="G338" t="s">
+        <v>625</v>
+      </c>
+      <c r="H338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>972</v>
+      </c>
+      <c r="B339" t="s">
+        <v>641</v>
+      </c>
+      <c r="C339" t="s">
+        <v>576</v>
+      </c>
+      <c r="D339" t="s">
+        <v>617</v>
+      </c>
+      <c r="E339" t="s">
+        <v>86</v>
+      </c>
+      <c r="F339" t="s">
+        <v>87</v>
+      </c>
+      <c r="G339" t="s">
+        <v>625</v>
+      </c>
+      <c r="H339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>973</v>
+      </c>
+      <c r="B340" t="s">
+        <v>642</v>
+      </c>
+      <c r="C340" t="s">
+        <v>579</v>
+      </c>
+      <c r="D340" t="s">
+        <v>619</v>
+      </c>
+      <c r="E340" t="s">
+        <v>86</v>
+      </c>
+      <c r="F340" t="s">
+        <v>87</v>
+      </c>
+      <c r="G340" t="s">
+        <v>625</v>
+      </c>
+      <c r="H340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>974</v>
+      </c>
+      <c r="B341" t="s">
+        <v>643</v>
+      </c>
+      <c r="C341" t="s">
+        <v>582</v>
+      </c>
+      <c r="D341" t="s">
+        <v>621</v>
+      </c>
+      <c r="E341" t="s">
+        <v>86</v>
+      </c>
+      <c r="F341" t="s">
+        <v>87</v>
+      </c>
+      <c r="G341" t="s">
+        <v>625</v>
+      </c>
+      <c r="H341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>975</v>
+      </c>
+      <c r="B342" t="s">
+        <v>644</v>
+      </c>
+      <c r="C342" t="s">
+        <v>585</v>
+      </c>
+      <c r="D342" t="s">
+        <v>623</v>
+      </c>
+      <c r="E342" t="s">
+        <v>86</v>
+      </c>
+      <c r="F342" t="s">
+        <v>87</v>
+      </c>
+      <c r="G342" t="s">
+        <v>625</v>
+      </c>
+      <c r="H342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>976</v>
+      </c>
+      <c r="B343" t="s">
+        <v>645</v>
+      </c>
+      <c r="C343" t="s">
+        <v>646</v>
+      </c>
+      <c r="D343" t="s">
+        <v>647</v>
+      </c>
+      <c r="E343" t="s">
+        <v>86</v>
+      </c>
+      <c r="F343" t="s">
+        <v>87</v>
+      </c>
+      <c r="G343" t="s">
+        <v>648</v>
+      </c>
+      <c r="H343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>977</v>
+      </c>
+      <c r="B344" t="s">
+        <v>481</v>
+      </c>
+      <c r="C344" t="s">
+        <v>649</v>
+      </c>
+      <c r="D344" t="s">
+        <v>650</v>
+      </c>
+      <c r="E344" t="s">
+        <v>86</v>
+      </c>
+      <c r="F344" t="s">
+        <v>87</v>
+      </c>
+      <c r="G344" t="s">
+        <v>648</v>
+      </c>
+      <c r="H344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>978</v>
+      </c>
+      <c r="B345" t="s">
+        <v>651</v>
+      </c>
+      <c r="C345" t="s">
+        <v>536</v>
+      </c>
+      <c r="D345" t="s">
+        <v>652</v>
+      </c>
+      <c r="E345" t="s">
+        <v>86</v>
+      </c>
+      <c r="F345" t="s">
+        <v>87</v>
+      </c>
+      <c r="G345" t="s">
+        <v>648</v>
+      </c>
+      <c r="H345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>979</v>
+      </c>
+      <c r="B346" t="s">
+        <v>653</v>
+      </c>
+      <c r="C346" t="s">
+        <v>654</v>
+      </c>
+      <c r="D346" t="s">
+        <v>655</v>
+      </c>
+      <c r="E346" t="s">
+        <v>86</v>
+      </c>
+      <c r="F346" t="s">
+        <v>87</v>
+      </c>
+      <c r="G346" t="s">
+        <v>648</v>
+      </c>
+      <c r="H346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>980</v>
+      </c>
+      <c r="B347" t="s">
+        <v>656</v>
+      </c>
+      <c r="C347" t="s">
+        <v>542</v>
+      </c>
+      <c r="D347" t="s">
+        <v>543</v>
+      </c>
+      <c r="E347" t="s">
+        <v>86</v>
+      </c>
+      <c r="F347" t="s">
+        <v>87</v>
+      </c>
+      <c r="G347" t="s">
+        <v>648</v>
+      </c>
+      <c r="H347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>981</v>
+      </c>
+      <c r="B348" t="s">
+        <v>657</v>
+      </c>
+      <c r="C348" t="s">
+        <v>658</v>
+      </c>
+      <c r="D348" t="s">
+        <v>659</v>
+      </c>
+      <c r="E348" t="s">
+        <v>86</v>
+      </c>
+      <c r="F348" t="s">
+        <v>87</v>
+      </c>
+      <c r="G348" t="s">
+        <v>648</v>
+      </c>
+      <c r="H348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>982</v>
+      </c>
+      <c r="B349" t="s">
+        <v>660</v>
+      </c>
+      <c r="C349" t="s">
+        <v>661</v>
+      </c>
+      <c r="D349" t="s">
+        <v>549</v>
+      </c>
+      <c r="E349" t="s">
+        <v>86</v>
+      </c>
+      <c r="F349" t="s">
+        <v>87</v>
+      </c>
+      <c r="G349" t="s">
+        <v>648</v>
+      </c>
+      <c r="H349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>983</v>
+      </c>
+      <c r="B350" t="s">
+        <v>662</v>
+      </c>
+      <c r="C350" t="s">
+        <v>663</v>
+      </c>
+      <c r="D350" t="s">
+        <v>664</v>
+      </c>
+      <c r="E350" t="s">
+        <v>86</v>
+      </c>
+      <c r="F350" t="s">
+        <v>87</v>
+      </c>
+      <c r="G350" t="s">
+        <v>648</v>
+      </c>
+      <c r="H350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>984</v>
+      </c>
+      <c r="B351" t="s">
+        <v>665</v>
+      </c>
+      <c r="C351" t="s">
+        <v>554</v>
+      </c>
+      <c r="D351" t="s">
+        <v>555</v>
+      </c>
+      <c r="E351" t="s">
+        <v>86</v>
+      </c>
+      <c r="F351" t="s">
+        <v>87</v>
+      </c>
+      <c r="G351" t="s">
+        <v>648</v>
+      </c>
+      <c r="H351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>985</v>
+      </c>
+      <c r="B352" t="s">
+        <v>666</v>
+      </c>
+      <c r="C352" t="s">
+        <v>557</v>
+      </c>
+      <c r="D352" t="s">
+        <v>558</v>
+      </c>
+      <c r="E352" t="s">
+        <v>86</v>
+      </c>
+      <c r="F352" t="s">
+        <v>87</v>
+      </c>
+      <c r="G352" t="s">
+        <v>648</v>
+      </c>
+      <c r="H352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>986</v>
+      </c>
+      <c r="B353" t="s">
+        <v>667</v>
+      </c>
+      <c r="C353" t="s">
+        <v>668</v>
+      </c>
+      <c r="D353" t="s">
+        <v>669</v>
+      </c>
+      <c r="E353" t="s">
+        <v>86</v>
+      </c>
+      <c r="F353" t="s">
+        <v>87</v>
+      </c>
+      <c r="G353" t="s">
+        <v>648</v>
+      </c>
+      <c r="H353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>987</v>
+      </c>
+      <c r="B354" t="s">
+        <v>670</v>
+      </c>
+      <c r="C354" t="s">
+        <v>563</v>
+      </c>
+      <c r="D354" t="s">
+        <v>671</v>
+      </c>
+      <c r="E354" t="s">
+        <v>86</v>
+      </c>
+      <c r="F354" t="s">
+        <v>87</v>
+      </c>
+      <c r="G354" t="s">
+        <v>648</v>
+      </c>
+      <c r="H354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>988</v>
+      </c>
+      <c r="B355" t="s">
+        <v>672</v>
+      </c>
+      <c r="C355" t="s">
+        <v>485</v>
+      </c>
+      <c r="D355" t="s">
+        <v>673</v>
+      </c>
+      <c r="E355" t="s">
+        <v>86</v>
+      </c>
+      <c r="F355" t="s">
+        <v>87</v>
+      </c>
+      <c r="G355" t="s">
+        <v>648</v>
+      </c>
+      <c r="H355">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>989</v>
+      </c>
+      <c r="B356" t="s">
+        <v>674</v>
+      </c>
+      <c r="C356" t="s">
+        <v>435</v>
+      </c>
+      <c r="D356" t="s">
+        <v>569</v>
+      </c>
+      <c r="E356" t="s">
+        <v>86</v>
+      </c>
+      <c r="F356" t="s">
+        <v>87</v>
+      </c>
+      <c r="G356" t="s">
+        <v>648</v>
+      </c>
+      <c r="H356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>990</v>
+      </c>
+      <c r="B357" t="s">
+        <v>479</v>
+      </c>
+      <c r="C357" t="s">
+        <v>444</v>
+      </c>
+      <c r="D357" t="s">
+        <v>675</v>
+      </c>
+      <c r="E357" t="s">
+        <v>86</v>
+      </c>
+      <c r="F357" t="s">
+        <v>87</v>
+      </c>
+      <c r="G357" t="s">
+        <v>648</v>
+      </c>
+      <c r="H357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>991</v>
+      </c>
+      <c r="B358" t="s">
+        <v>676</v>
+      </c>
+      <c r="C358" t="s">
+        <v>677</v>
+      </c>
+      <c r="D358" t="s">
+        <v>678</v>
+      </c>
+      <c r="E358" t="s">
+        <v>86</v>
+      </c>
+      <c r="F358" t="s">
+        <v>87</v>
+      </c>
+      <c r="G358" t="s">
+        <v>648</v>
+      </c>
+      <c r="H358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>992</v>
+      </c>
+      <c r="B359" t="s">
+        <v>679</v>
+      </c>
+      <c r="C359" t="s">
+        <v>576</v>
+      </c>
+      <c r="D359" t="s">
+        <v>577</v>
+      </c>
+      <c r="E359" t="s">
+        <v>86</v>
+      </c>
+      <c r="F359" t="s">
+        <v>87</v>
+      </c>
+      <c r="G359" t="s">
+        <v>648</v>
+      </c>
+      <c r="H359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>993</v>
+      </c>
+      <c r="B360" t="s">
+        <v>680</v>
+      </c>
+      <c r="C360" t="s">
+        <v>579</v>
+      </c>
+      <c r="D360" t="s">
+        <v>681</v>
+      </c>
+      <c r="E360" t="s">
+        <v>86</v>
+      </c>
+      <c r="F360" t="s">
+        <v>87</v>
+      </c>
+      <c r="G360" t="s">
+        <v>648</v>
+      </c>
+      <c r="H360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>994</v>
+      </c>
+      <c r="B361" t="s">
+        <v>682</v>
+      </c>
+      <c r="C361" t="s">
+        <v>582</v>
+      </c>
+      <c r="D361" t="s">
+        <v>583</v>
+      </c>
+      <c r="E361" t="s">
+        <v>86</v>
+      </c>
+      <c r="F361" t="s">
+        <v>87</v>
+      </c>
+      <c r="G361" t="s">
+        <v>648</v>
+      </c>
+      <c r="H361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>995</v>
+      </c>
+      <c r="B362" t="s">
+        <v>683</v>
+      </c>
+      <c r="C362" t="s">
+        <v>684</v>
+      </c>
+      <c r="D362" t="s">
+        <v>685</v>
+      </c>
+      <c r="E362" t="s">
+        <v>86</v>
+      </c>
+      <c r="F362" t="s">
+        <v>87</v>
+      </c>
+      <c r="G362" t="s">
+        <v>648</v>
+      </c>
+      <c r="H362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>996</v>
+      </c>
+      <c r="B363" t="s">
+        <v>686</v>
+      </c>
+      <c r="C363" t="s">
+        <v>687</v>
+      </c>
+      <c r="D363" t="s">
+        <v>688</v>
+      </c>
+      <c r="E363" t="s">
+        <v>86</v>
+      </c>
+      <c r="F363" t="s">
+        <v>87</v>
+      </c>
+      <c r="G363" t="s">
+        <v>689</v>
+      </c>
+      <c r="H363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>997</v>
+      </c>
+      <c r="B364" t="s">
+        <v>690</v>
+      </c>
+      <c r="C364" t="s">
+        <v>691</v>
+      </c>
+      <c r="D364" t="s">
+        <v>692</v>
+      </c>
+      <c r="E364" t="s">
+        <v>86</v>
+      </c>
+      <c r="F364" t="s">
+        <v>87</v>
+      </c>
+      <c r="G364" t="s">
+        <v>689</v>
+      </c>
+      <c r="H364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>998</v>
+      </c>
+      <c r="B365" t="s">
+        <v>693</v>
+      </c>
+      <c r="C365" t="s">
+        <v>694</v>
+      </c>
+      <c r="D365" t="s">
+        <v>695</v>
+      </c>
+      <c r="E365" t="s">
+        <v>86</v>
+      </c>
+      <c r="F365" t="s">
+        <v>87</v>
+      </c>
+      <c r="G365" t="s">
+        <v>689</v>
+      </c>
+      <c r="H365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>999</v>
+      </c>
+      <c r="B366" t="s">
+        <v>696</v>
+      </c>
+      <c r="C366" t="s">
+        <v>697</v>
+      </c>
+      <c r="D366" t="s">
+        <v>698</v>
+      </c>
+      <c r="E366" t="s">
+        <v>86</v>
+      </c>
+      <c r="F366" t="s">
+        <v>87</v>
+      </c>
+      <c r="G366" t="s">
+        <v>689</v>
+      </c>
+      <c r="H366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B367" t="s">
+        <v>699</v>
+      </c>
+      <c r="C367" t="s">
+        <v>435</v>
+      </c>
+      <c r="D367" t="s">
+        <v>700</v>
+      </c>
+      <c r="E367" t="s">
+        <v>86</v>
+      </c>
+      <c r="F367" t="s">
+        <v>87</v>
+      </c>
+      <c r="G367" t="s">
+        <v>689</v>
+      </c>
+      <c r="H367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B368" t="s">
+        <v>701</v>
+      </c>
+      <c r="C368" t="s">
+        <v>702</v>
+      </c>
+      <c r="D368" t="s">
+        <v>703</v>
+      </c>
+      <c r="E368" t="s">
+        <v>86</v>
+      </c>
+      <c r="F368" t="s">
+        <v>87</v>
+      </c>
+      <c r="G368" t="s">
+        <v>689</v>
+      </c>
+      <c r="H368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B369" t="s">
+        <v>704</v>
+      </c>
+      <c r="C369" t="s">
+        <v>661</v>
+      </c>
+      <c r="D369" t="s">
+        <v>705</v>
+      </c>
+      <c r="E369" t="s">
+        <v>86</v>
+      </c>
+      <c r="F369" t="s">
+        <v>87</v>
+      </c>
+      <c r="G369" t="s">
+        <v>689</v>
+      </c>
+      <c r="H369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B370" t="s">
+        <v>706</v>
+      </c>
+      <c r="C370" t="s">
+        <v>663</v>
+      </c>
+      <c r="D370" t="s">
+        <v>707</v>
+      </c>
+      <c r="E370" t="s">
+        <v>86</v>
+      </c>
+      <c r="F370" t="s">
+        <v>87</v>
+      </c>
+      <c r="G370" t="s">
+        <v>689</v>
+      </c>
+      <c r="H370">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B371" t="s">
+        <v>708</v>
+      </c>
+      <c r="C371" t="s">
+        <v>709</v>
+      </c>
+      <c r="D371" t="s">
+        <v>710</v>
+      </c>
+      <c r="E371" t="s">
+        <v>86</v>
+      </c>
+      <c r="F371" t="s">
+        <v>87</v>
+      </c>
+      <c r="G371" t="s">
+        <v>689</v>
+      </c>
+      <c r="H371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B372" t="s">
+        <v>711</v>
+      </c>
+      <c r="C372" t="s">
+        <v>557</v>
+      </c>
+      <c r="D372" t="s">
+        <v>712</v>
+      </c>
+      <c r="E372" t="s">
+        <v>86</v>
+      </c>
+      <c r="F372" t="s">
+        <v>87</v>
+      </c>
+      <c r="G372" t="s">
+        <v>689</v>
+      </c>
+      <c r="H372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B373" t="s">
+        <v>713</v>
+      </c>
+      <c r="C373" t="s">
+        <v>714</v>
+      </c>
+      <c r="D373" t="s">
+        <v>715</v>
+      </c>
+      <c r="E373" t="s">
+        <v>86</v>
+      </c>
+      <c r="F373" t="s">
+        <v>87</v>
+      </c>
+      <c r="G373" t="s">
+        <v>689</v>
+      </c>
+      <c r="H373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B374" t="s">
+        <v>716</v>
+      </c>
+      <c r="C374" t="s">
+        <v>563</v>
+      </c>
+      <c r="D374" t="s">
+        <v>717</v>
+      </c>
+      <c r="E374" t="s">
+        <v>86</v>
+      </c>
+      <c r="F374" t="s">
+        <v>87</v>
+      </c>
+      <c r="G374" t="s">
+        <v>689</v>
+      </c>
+      <c r="H374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B375" t="s">
+        <v>718</v>
+      </c>
+      <c r="C375" t="s">
+        <v>719</v>
+      </c>
+      <c r="D375" t="s">
+        <v>720</v>
+      </c>
+      <c r="E375" t="s">
+        <v>86</v>
+      </c>
+      <c r="F375" t="s">
+        <v>87</v>
+      </c>
+      <c r="G375" t="s">
+        <v>689</v>
+      </c>
+      <c r="H375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B376" t="s">
+        <v>721</v>
+      </c>
+      <c r="C376" t="s">
+        <v>528</v>
+      </c>
+      <c r="D376" t="s">
+        <v>722</v>
+      </c>
+      <c r="E376" t="s">
+        <v>86</v>
+      </c>
+      <c r="F376" t="s">
+        <v>87</v>
+      </c>
+      <c r="G376" t="s">
+        <v>689</v>
+      </c>
+      <c r="H376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B377" t="s">
+        <v>723</v>
+      </c>
+      <c r="C377" t="s">
+        <v>459</v>
+      </c>
+      <c r="D377" t="s">
+        <v>724</v>
+      </c>
+      <c r="E377" t="s">
+        <v>86</v>
+      </c>
+      <c r="F377" t="s">
+        <v>87</v>
+      </c>
+      <c r="G377" t="s">
+        <v>689</v>
+      </c>
+      <c r="H377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B378" t="s">
+        <v>725</v>
+      </c>
+      <c r="C378" t="s">
+        <v>726</v>
+      </c>
+      <c r="D378" t="s">
+        <v>727</v>
+      </c>
+      <c r="E378" t="s">
+        <v>86</v>
+      </c>
+      <c r="F378" t="s">
+        <v>87</v>
+      </c>
+      <c r="G378" t="s">
+        <v>689</v>
+      </c>
+      <c r="H378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B379" t="s">
+        <v>728</v>
+      </c>
+      <c r="C379" t="s">
+        <v>444</v>
+      </c>
+      <c r="D379" t="s">
+        <v>729</v>
+      </c>
+      <c r="E379" t="s">
+        <v>86</v>
+      </c>
+      <c r="F379" t="s">
+        <v>87</v>
+      </c>
+      <c r="G379" t="s">
+        <v>689</v>
+      </c>
+      <c r="H379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B380" t="s">
+        <v>716</v>
+      </c>
+      <c r="C380" t="s">
+        <v>563</v>
+      </c>
+      <c r="D380" t="s">
+        <v>717</v>
+      </c>
+      <c r="E380" t="s">
+        <v>86</v>
+      </c>
+      <c r="F380" t="s">
+        <v>87</v>
+      </c>
+      <c r="G380" t="s">
+        <v>689</v>
+      </c>
+      <c r="H380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B381" t="s">
+        <v>730</v>
+      </c>
+      <c r="C381" t="s">
+        <v>731</v>
+      </c>
+      <c r="D381" t="s">
+        <v>732</v>
+      </c>
+      <c r="E381" t="s">
+        <v>86</v>
+      </c>
+      <c r="F381" t="s">
+        <v>87</v>
+      </c>
+      <c r="G381" t="s">
+        <v>689</v>
+      </c>
+      <c r="H381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B382" t="s">
+        <v>733</v>
+      </c>
+      <c r="C382" t="s">
+        <v>734</v>
+      </c>
+      <c r="D382" t="s">
+        <v>735</v>
+      </c>
+      <c r="E382" t="s">
+        <v>86</v>
+      </c>
+      <c r="F382" t="s">
+        <v>87</v>
+      </c>
+      <c r="G382" t="s">
+        <v>689</v>
+      </c>
+      <c r="H382">
         <v>2</v>
       </c>
     </row>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ander\Desktop\langapp\v17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ander\Desktop\langapp\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA28D49E-39CF-4C96-B0EB-BD28B6F651FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34931218-691A-4A44-B74E-1A388364875D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7340545C-2BB6-4E8B-827D-6673ABB13FB9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{7340545C-2BB6-4E8B-827D-6673ABB13FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="1156">
   <si>
     <t>question_text</t>
   </si>
@@ -3085,6 +3085,426 @@
   </si>
   <si>
     <t>160. German question</t>
+  </si>
+  <si>
+    <t>21. French question</t>
+  </si>
+  <si>
+    <t>22. French question</t>
+  </si>
+  <si>
+    <t>23. French question</t>
+  </si>
+  <si>
+    <t>24. French question</t>
+  </si>
+  <si>
+    <t>25. French question</t>
+  </si>
+  <si>
+    <t>26. French question</t>
+  </si>
+  <si>
+    <t>27. French question</t>
+  </si>
+  <si>
+    <t>28. French question</t>
+  </si>
+  <si>
+    <t>29. French question</t>
+  </si>
+  <si>
+    <t>30. French question</t>
+  </si>
+  <si>
+    <t>31. French question</t>
+  </si>
+  <si>
+    <t>32. French question</t>
+  </si>
+  <si>
+    <t>33. French question</t>
+  </si>
+  <si>
+    <t>34. French question</t>
+  </si>
+  <si>
+    <t>35. French question</t>
+  </si>
+  <si>
+    <t>36. French question</t>
+  </si>
+  <si>
+    <t>37. French question</t>
+  </si>
+  <si>
+    <t>38. French question</t>
+  </si>
+  <si>
+    <t>39. French question</t>
+  </si>
+  <si>
+    <t>40. French question</t>
+  </si>
+  <si>
+    <t>41. French question</t>
+  </si>
+  <si>
+    <t>42. French question</t>
+  </si>
+  <si>
+    <t>43. French question</t>
+  </si>
+  <si>
+    <t>44. French question</t>
+  </si>
+  <si>
+    <t>45. French question</t>
+  </si>
+  <si>
+    <t>46. French question</t>
+  </si>
+  <si>
+    <t>47. French question</t>
+  </si>
+  <si>
+    <t>48. French question</t>
+  </si>
+  <si>
+    <t>49. French question</t>
+  </si>
+  <si>
+    <t>50. French question</t>
+  </si>
+  <si>
+    <t>51. French question</t>
+  </si>
+  <si>
+    <t>52. French question</t>
+  </si>
+  <si>
+    <t>53. French question</t>
+  </si>
+  <si>
+    <t>54. French question</t>
+  </si>
+  <si>
+    <t>55. French question</t>
+  </si>
+  <si>
+    <t>56. French question</t>
+  </si>
+  <si>
+    <t>57. French question</t>
+  </si>
+  <si>
+    <t>58. French question</t>
+  </si>
+  <si>
+    <t>59. French question</t>
+  </si>
+  <si>
+    <t>60. French question</t>
+  </si>
+  <si>
+    <t>61. French question</t>
+  </si>
+  <si>
+    <t>62. French question</t>
+  </si>
+  <si>
+    <t>63. French question</t>
+  </si>
+  <si>
+    <t>64. French question</t>
+  </si>
+  <si>
+    <t>65. French question</t>
+  </si>
+  <si>
+    <t>66. French question</t>
+  </si>
+  <si>
+    <t>67. French question</t>
+  </si>
+  <si>
+    <t>68. French question</t>
+  </si>
+  <si>
+    <t>69. French question</t>
+  </si>
+  <si>
+    <t>70. French question</t>
+  </si>
+  <si>
+    <t>71. French question</t>
+  </si>
+  <si>
+    <t>72. French question</t>
+  </si>
+  <si>
+    <t>73. French question</t>
+  </si>
+  <si>
+    <t>74. French question</t>
+  </si>
+  <si>
+    <t>75. French question</t>
+  </si>
+  <si>
+    <t>76. French question</t>
+  </si>
+  <si>
+    <t>77. French question</t>
+  </si>
+  <si>
+    <t>78. French question</t>
+  </si>
+  <si>
+    <t>79. French question</t>
+  </si>
+  <si>
+    <t>80. French question</t>
+  </si>
+  <si>
+    <t>81. French question</t>
+  </si>
+  <si>
+    <t>82. French question</t>
+  </si>
+  <si>
+    <t>83. French question</t>
+  </si>
+  <si>
+    <t>84. French question</t>
+  </si>
+  <si>
+    <t>85. French question</t>
+  </si>
+  <si>
+    <t>86. French question</t>
+  </si>
+  <si>
+    <t>87. French question</t>
+  </si>
+  <si>
+    <t>88. French question</t>
+  </si>
+  <si>
+    <t>89. French question</t>
+  </si>
+  <si>
+    <t>90. French question</t>
+  </si>
+  <si>
+    <t>91. French question</t>
+  </si>
+  <si>
+    <t>92. French question</t>
+  </si>
+  <si>
+    <t>93. French question</t>
+  </si>
+  <si>
+    <t>94. French question</t>
+  </si>
+  <si>
+    <t>95. French question</t>
+  </si>
+  <si>
+    <t>96. French question</t>
+  </si>
+  <si>
+    <t>97. French question</t>
+  </si>
+  <si>
+    <t>98. French question</t>
+  </si>
+  <si>
+    <t>99. French question</t>
+  </si>
+  <si>
+    <t>100. French question</t>
+  </si>
+  <si>
+    <t>101. French question</t>
+  </si>
+  <si>
+    <t>102. French question</t>
+  </si>
+  <si>
+    <t>103. French question</t>
+  </si>
+  <si>
+    <t>104. French question</t>
+  </si>
+  <si>
+    <t>105. French question</t>
+  </si>
+  <si>
+    <t>106. French question</t>
+  </si>
+  <si>
+    <t>107. French question</t>
+  </si>
+  <si>
+    <t>108. French question</t>
+  </si>
+  <si>
+    <t>109. French question</t>
+  </si>
+  <si>
+    <t>110. French question</t>
+  </si>
+  <si>
+    <t>111. French question</t>
+  </si>
+  <si>
+    <t>112. French question</t>
+  </si>
+  <si>
+    <t>113. French question</t>
+  </si>
+  <si>
+    <t>114. French question</t>
+  </si>
+  <si>
+    <t>115. French question</t>
+  </si>
+  <si>
+    <t>116. French question</t>
+  </si>
+  <si>
+    <t>117. French question</t>
+  </si>
+  <si>
+    <t>118. French question</t>
+  </si>
+  <si>
+    <t>119. French question</t>
+  </si>
+  <si>
+    <t>120. French question</t>
+  </si>
+  <si>
+    <t>121. French question</t>
+  </si>
+  <si>
+    <t>122. French question</t>
+  </si>
+  <si>
+    <t>123. French question</t>
+  </si>
+  <si>
+    <t>124. French question</t>
+  </si>
+  <si>
+    <t>125. French question</t>
+  </si>
+  <si>
+    <t>126. French question</t>
+  </si>
+  <si>
+    <t>127. French question</t>
+  </si>
+  <si>
+    <t>128. French question</t>
+  </si>
+  <si>
+    <t>129. French question</t>
+  </si>
+  <si>
+    <t>130. French question</t>
+  </si>
+  <si>
+    <t>131. French question</t>
+  </si>
+  <si>
+    <t>132. French question</t>
+  </si>
+  <si>
+    <t>133. French question</t>
+  </si>
+  <si>
+    <t>134. French question</t>
+  </si>
+  <si>
+    <t>135. French question</t>
+  </si>
+  <si>
+    <t>136. French question</t>
+  </si>
+  <si>
+    <t>137. French question</t>
+  </si>
+  <si>
+    <t>138. French question</t>
+  </si>
+  <si>
+    <t>139. French question</t>
+  </si>
+  <si>
+    <t>140. French question</t>
+  </si>
+  <si>
+    <t>141. French question</t>
+  </si>
+  <si>
+    <t>142. French question</t>
+  </si>
+  <si>
+    <t>143. French question</t>
+  </si>
+  <si>
+    <t>144. French question</t>
+  </si>
+  <si>
+    <t>145. French question</t>
+  </si>
+  <si>
+    <t>146. French question</t>
+  </si>
+  <si>
+    <t>147. French question</t>
+  </si>
+  <si>
+    <t>148. French question</t>
+  </si>
+  <si>
+    <t>149. French question</t>
+  </si>
+  <si>
+    <t>150. French question</t>
+  </si>
+  <si>
+    <t>151. French question</t>
+  </si>
+  <si>
+    <t>152. French question</t>
+  </si>
+  <si>
+    <t>153. French question</t>
+  </si>
+  <si>
+    <t>154. French question</t>
+  </si>
+  <si>
+    <t>155. French question</t>
+  </si>
+  <si>
+    <t>156. French question</t>
+  </si>
+  <si>
+    <t>157. French question</t>
+  </si>
+  <si>
+    <t>158. French question</t>
+  </si>
+  <si>
+    <t>159. French question</t>
+  </si>
+  <si>
+    <t>160. French question</t>
   </si>
 </sst>
 </file>
@@ -3443,10 +3863,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36A3347-166D-4930-B9BE-A2A96E4C6F8D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H382"/>
+  <dimension ref="A1:H522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="J243" sqref="J243"/>
+    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
+      <selection activeCell="A522" sqref="A522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13383,6 +13803,3646 @@
         <v>689</v>
       </c>
       <c r="H382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B383" t="s">
+        <v>419</v>
+      </c>
+      <c r="C383" t="s">
+        <v>420</v>
+      </c>
+      <c r="D383" t="s">
+        <v>421</v>
+      </c>
+      <c r="E383" t="s">
+        <v>86</v>
+      </c>
+      <c r="F383" t="s">
+        <v>166</v>
+      </c>
+      <c r="G383" t="s">
+        <v>408</v>
+      </c>
+      <c r="H383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B384" t="s">
+        <v>422</v>
+      </c>
+      <c r="C384" t="s">
+        <v>423</v>
+      </c>
+      <c r="D384" t="s">
+        <v>424</v>
+      </c>
+      <c r="E384" t="s">
+        <v>86</v>
+      </c>
+      <c r="F384" t="s">
+        <v>166</v>
+      </c>
+      <c r="G384" t="s">
+        <v>408</v>
+      </c>
+      <c r="H384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B385" t="s">
+        <v>425</v>
+      </c>
+      <c r="C385" t="s">
+        <v>426</v>
+      </c>
+      <c r="D385" t="s">
+        <v>427</v>
+      </c>
+      <c r="E385" t="s">
+        <v>86</v>
+      </c>
+      <c r="F385" t="s">
+        <v>166</v>
+      </c>
+      <c r="G385" t="s">
+        <v>408</v>
+      </c>
+      <c r="H385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B386" t="s">
+        <v>428</v>
+      </c>
+      <c r="C386" t="s">
+        <v>429</v>
+      </c>
+      <c r="D386" t="s">
+        <v>430</v>
+      </c>
+      <c r="E386" t="s">
+        <v>86</v>
+      </c>
+      <c r="F386" t="s">
+        <v>166</v>
+      </c>
+      <c r="G386" t="s">
+        <v>408</v>
+      </c>
+      <c r="H386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B387" t="s">
+        <v>431</v>
+      </c>
+      <c r="C387" t="s">
+        <v>432</v>
+      </c>
+      <c r="D387" t="s">
+        <v>433</v>
+      </c>
+      <c r="E387" t="s">
+        <v>86</v>
+      </c>
+      <c r="F387" t="s">
+        <v>166</v>
+      </c>
+      <c r="G387" t="s">
+        <v>408</v>
+      </c>
+      <c r="H387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B388" t="s">
+        <v>434</v>
+      </c>
+      <c r="C388" t="s">
+        <v>435</v>
+      </c>
+      <c r="D388" t="s">
+        <v>436</v>
+      </c>
+      <c r="E388" t="s">
+        <v>86</v>
+      </c>
+      <c r="F388" t="s">
+        <v>166</v>
+      </c>
+      <c r="G388" t="s">
+        <v>408</v>
+      </c>
+      <c r="H388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B389" t="s">
+        <v>437</v>
+      </c>
+      <c r="C389" t="s">
+        <v>438</v>
+      </c>
+      <c r="D389" t="s">
+        <v>439</v>
+      </c>
+      <c r="E389" t="s">
+        <v>86</v>
+      </c>
+      <c r="F389" t="s">
+        <v>166</v>
+      </c>
+      <c r="G389" t="s">
+        <v>408</v>
+      </c>
+      <c r="H389">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B390" t="s">
+        <v>440</v>
+      </c>
+      <c r="C390" t="s">
+        <v>441</v>
+      </c>
+      <c r="D390" t="s">
+        <v>442</v>
+      </c>
+      <c r="E390" t="s">
+        <v>86</v>
+      </c>
+      <c r="F390" t="s">
+        <v>166</v>
+      </c>
+      <c r="G390" t="s">
+        <v>408</v>
+      </c>
+      <c r="H390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B391" t="s">
+        <v>443</v>
+      </c>
+      <c r="C391" t="s">
+        <v>444</v>
+      </c>
+      <c r="D391" t="s">
+        <v>445</v>
+      </c>
+      <c r="E391" t="s">
+        <v>86</v>
+      </c>
+      <c r="F391" t="s">
+        <v>166</v>
+      </c>
+      <c r="G391" t="s">
+        <v>408</v>
+      </c>
+      <c r="H391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B392" t="s">
+        <v>446</v>
+      </c>
+      <c r="C392" t="s">
+        <v>447</v>
+      </c>
+      <c r="D392" t="s">
+        <v>448</v>
+      </c>
+      <c r="E392" t="s">
+        <v>86</v>
+      </c>
+      <c r="F392" t="s">
+        <v>166</v>
+      </c>
+      <c r="G392" t="s">
+        <v>408</v>
+      </c>
+      <c r="H392">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B393" t="s">
+        <v>449</v>
+      </c>
+      <c r="C393" t="s">
+        <v>450</v>
+      </c>
+      <c r="D393" t="s">
+        <v>451</v>
+      </c>
+      <c r="E393" t="s">
+        <v>86</v>
+      </c>
+      <c r="F393" t="s">
+        <v>166</v>
+      </c>
+      <c r="G393" t="s">
+        <v>408</v>
+      </c>
+      <c r="H393">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B394" t="s">
+        <v>452</v>
+      </c>
+      <c r="C394" t="s">
+        <v>453</v>
+      </c>
+      <c r="D394" t="s">
+        <v>454</v>
+      </c>
+      <c r="E394" t="s">
+        <v>86</v>
+      </c>
+      <c r="F394" t="s">
+        <v>166</v>
+      </c>
+      <c r="G394" t="s">
+        <v>408</v>
+      </c>
+      <c r="H394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B395" t="s">
+        <v>455</v>
+      </c>
+      <c r="C395" t="s">
+        <v>456</v>
+      </c>
+      <c r="D395" t="s">
+        <v>457</v>
+      </c>
+      <c r="E395" t="s">
+        <v>86</v>
+      </c>
+      <c r="F395" t="s">
+        <v>166</v>
+      </c>
+      <c r="G395" t="s">
+        <v>408</v>
+      </c>
+      <c r="H395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B396" t="s">
+        <v>458</v>
+      </c>
+      <c r="C396" t="s">
+        <v>459</v>
+      </c>
+      <c r="D396" t="s">
+        <v>460</v>
+      </c>
+      <c r="E396" t="s">
+        <v>86</v>
+      </c>
+      <c r="F396" t="s">
+        <v>166</v>
+      </c>
+      <c r="G396" t="s">
+        <v>408</v>
+      </c>
+      <c r="H396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B397" t="s">
+        <v>461</v>
+      </c>
+      <c r="C397" t="s">
+        <v>462</v>
+      </c>
+      <c r="D397" t="s">
+        <v>463</v>
+      </c>
+      <c r="E397" t="s">
+        <v>86</v>
+      </c>
+      <c r="F397" t="s">
+        <v>166</v>
+      </c>
+      <c r="G397" t="s">
+        <v>408</v>
+      </c>
+      <c r="H397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B398" t="s">
+        <v>464</v>
+      </c>
+      <c r="C398" t="s">
+        <v>465</v>
+      </c>
+      <c r="D398" t="s">
+        <v>466</v>
+      </c>
+      <c r="E398" t="s">
+        <v>86</v>
+      </c>
+      <c r="F398" t="s">
+        <v>166</v>
+      </c>
+      <c r="G398" t="s">
+        <v>408</v>
+      </c>
+      <c r="H398">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B399" t="s">
+        <v>467</v>
+      </c>
+      <c r="C399" t="s">
+        <v>468</v>
+      </c>
+      <c r="D399" t="s">
+        <v>469</v>
+      </c>
+      <c r="E399" t="s">
+        <v>86</v>
+      </c>
+      <c r="F399" t="s">
+        <v>166</v>
+      </c>
+      <c r="G399" t="s">
+        <v>408</v>
+      </c>
+      <c r="H399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B400" t="s">
+        <v>470</v>
+      </c>
+      <c r="C400" t="s">
+        <v>471</v>
+      </c>
+      <c r="D400" t="s">
+        <v>472</v>
+      </c>
+      <c r="E400" t="s">
+        <v>86</v>
+      </c>
+      <c r="F400" t="s">
+        <v>166</v>
+      </c>
+      <c r="G400" t="s">
+        <v>408</v>
+      </c>
+      <c r="H400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B401" t="s">
+        <v>473</v>
+      </c>
+      <c r="C401" t="s">
+        <v>474</v>
+      </c>
+      <c r="D401" t="s">
+        <v>475</v>
+      </c>
+      <c r="E401" t="s">
+        <v>86</v>
+      </c>
+      <c r="F401" t="s">
+        <v>166</v>
+      </c>
+      <c r="G401" t="s">
+        <v>408</v>
+      </c>
+      <c r="H401">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B402" t="s">
+        <v>476</v>
+      </c>
+      <c r="C402" t="s">
+        <v>477</v>
+      </c>
+      <c r="D402" t="s">
+        <v>478</v>
+      </c>
+      <c r="E402" t="s">
+        <v>86</v>
+      </c>
+      <c r="F402" t="s">
+        <v>166</v>
+      </c>
+      <c r="G402" t="s">
+        <v>408</v>
+      </c>
+      <c r="H402">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B403" t="s">
+        <v>479</v>
+      </c>
+      <c r="C403" t="s">
+        <v>444</v>
+      </c>
+      <c r="D403" t="s">
+        <v>445</v>
+      </c>
+      <c r="E403" t="s">
+        <v>86</v>
+      </c>
+      <c r="F403" t="s">
+        <v>166</v>
+      </c>
+      <c r="G403" t="s">
+        <v>480</v>
+      </c>
+      <c r="H403">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B404" t="s">
+        <v>481</v>
+      </c>
+      <c r="C404" t="s">
+        <v>482</v>
+      </c>
+      <c r="D404" t="s">
+        <v>483</v>
+      </c>
+      <c r="E404" t="s">
+        <v>86</v>
+      </c>
+      <c r="F404" t="s">
+        <v>166</v>
+      </c>
+      <c r="G404" t="s">
+        <v>480</v>
+      </c>
+      <c r="H404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B405" t="s">
+        <v>484</v>
+      </c>
+      <c r="C405" t="s">
+        <v>485</v>
+      </c>
+      <c r="D405" t="s">
+        <v>486</v>
+      </c>
+      <c r="E405" t="s">
+        <v>86</v>
+      </c>
+      <c r="F405" t="s">
+        <v>166</v>
+      </c>
+      <c r="G405" t="s">
+        <v>480</v>
+      </c>
+      <c r="H405">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B406" t="s">
+        <v>487</v>
+      </c>
+      <c r="C406" t="s">
+        <v>488</v>
+      </c>
+      <c r="D406" t="s">
+        <v>489</v>
+      </c>
+      <c r="E406" t="s">
+        <v>86</v>
+      </c>
+      <c r="F406" t="s">
+        <v>166</v>
+      </c>
+      <c r="G406" t="s">
+        <v>480</v>
+      </c>
+      <c r="H406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B407" t="s">
+        <v>490</v>
+      </c>
+      <c r="C407" t="s">
+        <v>491</v>
+      </c>
+      <c r="D407" t="s">
+        <v>492</v>
+      </c>
+      <c r="E407" t="s">
+        <v>86</v>
+      </c>
+      <c r="F407" t="s">
+        <v>166</v>
+      </c>
+      <c r="G407" t="s">
+        <v>480</v>
+      </c>
+      <c r="H407">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B408" t="s">
+        <v>493</v>
+      </c>
+      <c r="C408" t="s">
+        <v>494</v>
+      </c>
+      <c r="D408" t="s">
+        <v>495</v>
+      </c>
+      <c r="E408" t="s">
+        <v>86</v>
+      </c>
+      <c r="F408" t="s">
+        <v>166</v>
+      </c>
+      <c r="G408" t="s">
+        <v>480</v>
+      </c>
+      <c r="H408">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B409" t="s">
+        <v>496</v>
+      </c>
+      <c r="C409" t="s">
+        <v>497</v>
+      </c>
+      <c r="D409" t="s">
+        <v>498</v>
+      </c>
+      <c r="E409" t="s">
+        <v>86</v>
+      </c>
+      <c r="F409" t="s">
+        <v>166</v>
+      </c>
+      <c r="G409" t="s">
+        <v>480</v>
+      </c>
+      <c r="H409">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B410" t="s">
+        <v>499</v>
+      </c>
+      <c r="C410" t="s">
+        <v>441</v>
+      </c>
+      <c r="D410" t="s">
+        <v>442</v>
+      </c>
+      <c r="E410" t="s">
+        <v>86</v>
+      </c>
+      <c r="F410" t="s">
+        <v>166</v>
+      </c>
+      <c r="G410" t="s">
+        <v>480</v>
+      </c>
+      <c r="H410">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B411" t="s">
+        <v>500</v>
+      </c>
+      <c r="C411" t="s">
+        <v>501</v>
+      </c>
+      <c r="D411" t="s">
+        <v>502</v>
+      </c>
+      <c r="E411" t="s">
+        <v>86</v>
+      </c>
+      <c r="F411" t="s">
+        <v>166</v>
+      </c>
+      <c r="G411" t="s">
+        <v>480</v>
+      </c>
+      <c r="H411">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B412" t="s">
+        <v>503</v>
+      </c>
+      <c r="C412" t="s">
+        <v>504</v>
+      </c>
+      <c r="D412" t="s">
+        <v>505</v>
+      </c>
+      <c r="E412" t="s">
+        <v>86</v>
+      </c>
+      <c r="F412" t="s">
+        <v>166</v>
+      </c>
+      <c r="G412" t="s">
+        <v>480</v>
+      </c>
+      <c r="H412">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B413" t="s">
+        <v>506</v>
+      </c>
+      <c r="C413" t="s">
+        <v>450</v>
+      </c>
+      <c r="D413" t="s">
+        <v>451</v>
+      </c>
+      <c r="E413" t="s">
+        <v>86</v>
+      </c>
+      <c r="F413" t="s">
+        <v>166</v>
+      </c>
+      <c r="G413" t="s">
+        <v>480</v>
+      </c>
+      <c r="H413">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B414" t="s">
+        <v>507</v>
+      </c>
+      <c r="C414" t="s">
+        <v>508</v>
+      </c>
+      <c r="D414" t="s">
+        <v>509</v>
+      </c>
+      <c r="E414" t="s">
+        <v>86</v>
+      </c>
+      <c r="F414" t="s">
+        <v>166</v>
+      </c>
+      <c r="G414" t="s">
+        <v>480</v>
+      </c>
+      <c r="H414">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B415" t="s">
+        <v>510</v>
+      </c>
+      <c r="C415" t="s">
+        <v>511</v>
+      </c>
+      <c r="D415" t="s">
+        <v>512</v>
+      </c>
+      <c r="E415" t="s">
+        <v>86</v>
+      </c>
+      <c r="F415" t="s">
+        <v>166</v>
+      </c>
+      <c r="G415" t="s">
+        <v>480</v>
+      </c>
+      <c r="H415">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B416" t="s">
+        <v>513</v>
+      </c>
+      <c r="C416" t="s">
+        <v>459</v>
+      </c>
+      <c r="D416" t="s">
+        <v>460</v>
+      </c>
+      <c r="E416" t="s">
+        <v>86</v>
+      </c>
+      <c r="F416" t="s">
+        <v>166</v>
+      </c>
+      <c r="G416" t="s">
+        <v>480</v>
+      </c>
+      <c r="H416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B417" t="s">
+        <v>514</v>
+      </c>
+      <c r="C417" t="s">
+        <v>515</v>
+      </c>
+      <c r="D417" t="s">
+        <v>516</v>
+      </c>
+      <c r="E417" t="s">
+        <v>86</v>
+      </c>
+      <c r="F417" t="s">
+        <v>166</v>
+      </c>
+      <c r="G417" t="s">
+        <v>480</v>
+      </c>
+      <c r="H417">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B418" t="s">
+        <v>517</v>
+      </c>
+      <c r="C418" t="s">
+        <v>518</v>
+      </c>
+      <c r="D418" t="s">
+        <v>519</v>
+      </c>
+      <c r="E418" t="s">
+        <v>86</v>
+      </c>
+      <c r="F418" t="s">
+        <v>166</v>
+      </c>
+      <c r="G418" t="s">
+        <v>480</v>
+      </c>
+      <c r="H418">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B419" t="s">
+        <v>520</v>
+      </c>
+      <c r="C419" t="s">
+        <v>491</v>
+      </c>
+      <c r="D419" t="s">
+        <v>492</v>
+      </c>
+      <c r="E419" t="s">
+        <v>86</v>
+      </c>
+      <c r="F419" t="s">
+        <v>166</v>
+      </c>
+      <c r="G419" t="s">
+        <v>480</v>
+      </c>
+      <c r="H419">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B420" t="s">
+        <v>521</v>
+      </c>
+      <c r="C420" t="s">
+        <v>522</v>
+      </c>
+      <c r="D420" t="s">
+        <v>523</v>
+      </c>
+      <c r="E420" t="s">
+        <v>86</v>
+      </c>
+      <c r="F420" t="s">
+        <v>166</v>
+      </c>
+      <c r="G420" t="s">
+        <v>480</v>
+      </c>
+      <c r="H420">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B421" t="s">
+        <v>524</v>
+      </c>
+      <c r="C421" t="s">
+        <v>525</v>
+      </c>
+      <c r="D421" t="s">
+        <v>526</v>
+      </c>
+      <c r="E421" t="s">
+        <v>86</v>
+      </c>
+      <c r="F421" t="s">
+        <v>166</v>
+      </c>
+      <c r="G421" t="s">
+        <v>480</v>
+      </c>
+      <c r="H421">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B422" t="s">
+        <v>527</v>
+      </c>
+      <c r="C422" t="s">
+        <v>528</v>
+      </c>
+      <c r="D422" t="s">
+        <v>529</v>
+      </c>
+      <c r="E422" t="s">
+        <v>86</v>
+      </c>
+      <c r="F422" t="s">
+        <v>166</v>
+      </c>
+      <c r="G422" t="s">
+        <v>480</v>
+      </c>
+      <c r="H422">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B423" t="s">
+        <v>530</v>
+      </c>
+      <c r="C423" t="s">
+        <v>420</v>
+      </c>
+      <c r="D423" t="s">
+        <v>531</v>
+      </c>
+      <c r="E423" t="s">
+        <v>86</v>
+      </c>
+      <c r="F423" t="s">
+        <v>166</v>
+      </c>
+      <c r="G423" t="s">
+        <v>532</v>
+      </c>
+      <c r="H423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B424" t="s">
+        <v>533</v>
+      </c>
+      <c r="C424" t="s">
+        <v>423</v>
+      </c>
+      <c r="D424" t="s">
+        <v>534</v>
+      </c>
+      <c r="E424" t="s">
+        <v>86</v>
+      </c>
+      <c r="F424" t="s">
+        <v>166</v>
+      </c>
+      <c r="G424" t="s">
+        <v>532</v>
+      </c>
+      <c r="H424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B425" t="s">
+        <v>535</v>
+      </c>
+      <c r="C425" t="s">
+        <v>536</v>
+      </c>
+      <c r="D425" t="s">
+        <v>537</v>
+      </c>
+      <c r="E425" t="s">
+        <v>86</v>
+      </c>
+      <c r="F425" t="s">
+        <v>166</v>
+      </c>
+      <c r="G425" t="s">
+        <v>532</v>
+      </c>
+      <c r="H425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B426" t="s">
+        <v>538</v>
+      </c>
+      <c r="C426" t="s">
+        <v>539</v>
+      </c>
+      <c r="D426" t="s">
+        <v>540</v>
+      </c>
+      <c r="E426" t="s">
+        <v>86</v>
+      </c>
+      <c r="F426" t="s">
+        <v>166</v>
+      </c>
+      <c r="G426" t="s">
+        <v>532</v>
+      </c>
+      <c r="H426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B427" t="s">
+        <v>541</v>
+      </c>
+      <c r="C427" t="s">
+        <v>542</v>
+      </c>
+      <c r="D427" t="s">
+        <v>543</v>
+      </c>
+      <c r="E427" t="s">
+        <v>86</v>
+      </c>
+      <c r="F427" t="s">
+        <v>166</v>
+      </c>
+      <c r="G427" t="s">
+        <v>532</v>
+      </c>
+      <c r="H427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B428" t="s">
+        <v>544</v>
+      </c>
+      <c r="C428" t="s">
+        <v>545</v>
+      </c>
+      <c r="D428" t="s">
+        <v>546</v>
+      </c>
+      <c r="E428" t="s">
+        <v>86</v>
+      </c>
+      <c r="F428" t="s">
+        <v>166</v>
+      </c>
+      <c r="G428" t="s">
+        <v>532</v>
+      </c>
+      <c r="H428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B429" t="s">
+        <v>547</v>
+      </c>
+      <c r="C429" t="s">
+        <v>548</v>
+      </c>
+      <c r="D429" t="s">
+        <v>549</v>
+      </c>
+      <c r="E429" t="s">
+        <v>86</v>
+      </c>
+      <c r="F429" t="s">
+        <v>166</v>
+      </c>
+      <c r="G429" t="s">
+        <v>532</v>
+      </c>
+      <c r="H429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B430" t="s">
+        <v>550</v>
+      </c>
+      <c r="C430" t="s">
+        <v>551</v>
+      </c>
+      <c r="D430" t="s">
+        <v>552</v>
+      </c>
+      <c r="E430" t="s">
+        <v>86</v>
+      </c>
+      <c r="F430" t="s">
+        <v>166</v>
+      </c>
+      <c r="G430" t="s">
+        <v>532</v>
+      </c>
+      <c r="H430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B431" t="s">
+        <v>553</v>
+      </c>
+      <c r="C431" t="s">
+        <v>554</v>
+      </c>
+      <c r="D431" t="s">
+        <v>555</v>
+      </c>
+      <c r="E431" t="s">
+        <v>86</v>
+      </c>
+      <c r="F431" t="s">
+        <v>166</v>
+      </c>
+      <c r="G431" t="s">
+        <v>532</v>
+      </c>
+      <c r="H431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B432" t="s">
+        <v>556</v>
+      </c>
+      <c r="C432" t="s">
+        <v>557</v>
+      </c>
+      <c r="D432" t="s">
+        <v>558</v>
+      </c>
+      <c r="E432" t="s">
+        <v>86</v>
+      </c>
+      <c r="F432" t="s">
+        <v>166</v>
+      </c>
+      <c r="G432" t="s">
+        <v>532</v>
+      </c>
+      <c r="H432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B433" t="s">
+        <v>559</v>
+      </c>
+      <c r="C433" t="s">
+        <v>560</v>
+      </c>
+      <c r="D433" t="s">
+        <v>561</v>
+      </c>
+      <c r="E433" t="s">
+        <v>86</v>
+      </c>
+      <c r="F433" t="s">
+        <v>166</v>
+      </c>
+      <c r="G433" t="s">
+        <v>532</v>
+      </c>
+      <c r="H433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B434" t="s">
+        <v>562</v>
+      </c>
+      <c r="C434" t="s">
+        <v>563</v>
+      </c>
+      <c r="D434" t="s">
+        <v>564</v>
+      </c>
+      <c r="E434" t="s">
+        <v>86</v>
+      </c>
+      <c r="F434" t="s">
+        <v>166</v>
+      </c>
+      <c r="G434" t="s">
+        <v>532</v>
+      </c>
+      <c r="H434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B435" t="s">
+        <v>565</v>
+      </c>
+      <c r="C435" t="s">
+        <v>566</v>
+      </c>
+      <c r="D435" t="s">
+        <v>567</v>
+      </c>
+      <c r="E435" t="s">
+        <v>86</v>
+      </c>
+      <c r="F435" t="s">
+        <v>166</v>
+      </c>
+      <c r="G435" t="s">
+        <v>532</v>
+      </c>
+      <c r="H435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B436" t="s">
+        <v>568</v>
+      </c>
+      <c r="C436" t="s">
+        <v>468</v>
+      </c>
+      <c r="D436" t="s">
+        <v>569</v>
+      </c>
+      <c r="E436" t="s">
+        <v>86</v>
+      </c>
+      <c r="F436" t="s">
+        <v>166</v>
+      </c>
+      <c r="G436" t="s">
+        <v>532</v>
+      </c>
+      <c r="H436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B437" t="s">
+        <v>570</v>
+      </c>
+      <c r="C437" t="s">
+        <v>571</v>
+      </c>
+      <c r="D437" t="s">
+        <v>572</v>
+      </c>
+      <c r="E437" t="s">
+        <v>86</v>
+      </c>
+      <c r="F437" t="s">
+        <v>166</v>
+      </c>
+      <c r="G437" t="s">
+        <v>532</v>
+      </c>
+      <c r="H437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B438" t="s">
+        <v>573</v>
+      </c>
+      <c r="C438" t="s">
+        <v>459</v>
+      </c>
+      <c r="D438" t="s">
+        <v>574</v>
+      </c>
+      <c r="E438" t="s">
+        <v>86</v>
+      </c>
+      <c r="F438" t="s">
+        <v>166</v>
+      </c>
+      <c r="G438" t="s">
+        <v>532</v>
+      </c>
+      <c r="H438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B439" t="s">
+        <v>575</v>
+      </c>
+      <c r="C439" t="s">
+        <v>576</v>
+      </c>
+      <c r="D439" t="s">
+        <v>577</v>
+      </c>
+      <c r="E439" t="s">
+        <v>86</v>
+      </c>
+      <c r="F439" t="s">
+        <v>166</v>
+      </c>
+      <c r="G439" t="s">
+        <v>532</v>
+      </c>
+      <c r="H439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B440" t="s">
+        <v>578</v>
+      </c>
+      <c r="C440" t="s">
+        <v>579</v>
+      </c>
+      <c r="D440" t="s">
+        <v>580</v>
+      </c>
+      <c r="E440" t="s">
+        <v>86</v>
+      </c>
+      <c r="F440" t="s">
+        <v>166</v>
+      </c>
+      <c r="G440" t="s">
+        <v>532</v>
+      </c>
+      <c r="H440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B441" t="s">
+        <v>581</v>
+      </c>
+      <c r="C441" t="s">
+        <v>582</v>
+      </c>
+      <c r="D441" t="s">
+        <v>583</v>
+      </c>
+      <c r="E441" t="s">
+        <v>86</v>
+      </c>
+      <c r="F441" t="s">
+        <v>166</v>
+      </c>
+      <c r="G441" t="s">
+        <v>532</v>
+      </c>
+      <c r="H441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B442" t="s">
+        <v>584</v>
+      </c>
+      <c r="C442" t="s">
+        <v>585</v>
+      </c>
+      <c r="D442" t="s">
+        <v>586</v>
+      </c>
+      <c r="E442" t="s">
+        <v>86</v>
+      </c>
+      <c r="F442" t="s">
+        <v>166</v>
+      </c>
+      <c r="G442" t="s">
+        <v>532</v>
+      </c>
+      <c r="H442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B443" t="s">
+        <v>587</v>
+      </c>
+      <c r="C443" t="s">
+        <v>420</v>
+      </c>
+      <c r="D443" t="s">
+        <v>421</v>
+      </c>
+      <c r="E443" t="s">
+        <v>86</v>
+      </c>
+      <c r="F443" t="s">
+        <v>166</v>
+      </c>
+      <c r="G443" t="s">
+        <v>588</v>
+      </c>
+      <c r="H443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B444" t="s">
+        <v>589</v>
+      </c>
+      <c r="C444" t="s">
+        <v>423</v>
+      </c>
+      <c r="D444" t="s">
+        <v>424</v>
+      </c>
+      <c r="E444" t="s">
+        <v>86</v>
+      </c>
+      <c r="F444" t="s">
+        <v>166</v>
+      </c>
+      <c r="G444" t="s">
+        <v>588</v>
+      </c>
+      <c r="H444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B445" t="s">
+        <v>590</v>
+      </c>
+      <c r="C445" t="s">
+        <v>536</v>
+      </c>
+      <c r="D445" t="s">
+        <v>591</v>
+      </c>
+      <c r="E445" t="s">
+        <v>86</v>
+      </c>
+      <c r="F445" t="s">
+        <v>166</v>
+      </c>
+      <c r="G445" t="s">
+        <v>588</v>
+      </c>
+      <c r="H445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B446" t="s">
+        <v>592</v>
+      </c>
+      <c r="C446" t="s">
+        <v>539</v>
+      </c>
+      <c r="D446" t="s">
+        <v>593</v>
+      </c>
+      <c r="E446" t="s">
+        <v>86</v>
+      </c>
+      <c r="F446" t="s">
+        <v>166</v>
+      </c>
+      <c r="G446" t="s">
+        <v>588</v>
+      </c>
+      <c r="H446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B447" t="s">
+        <v>594</v>
+      </c>
+      <c r="C447" t="s">
+        <v>542</v>
+      </c>
+      <c r="D447" t="s">
+        <v>595</v>
+      </c>
+      <c r="E447" t="s">
+        <v>86</v>
+      </c>
+      <c r="F447" t="s">
+        <v>166</v>
+      </c>
+      <c r="G447" t="s">
+        <v>588</v>
+      </c>
+      <c r="H447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B448" t="s">
+        <v>596</v>
+      </c>
+      <c r="C448" t="s">
+        <v>545</v>
+      </c>
+      <c r="D448" t="s">
+        <v>597</v>
+      </c>
+      <c r="E448" t="s">
+        <v>86</v>
+      </c>
+      <c r="F448" t="s">
+        <v>166</v>
+      </c>
+      <c r="G448" t="s">
+        <v>588</v>
+      </c>
+      <c r="H448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B449" t="s">
+        <v>598</v>
+      </c>
+      <c r="C449" t="s">
+        <v>548</v>
+      </c>
+      <c r="D449" t="s">
+        <v>599</v>
+      </c>
+      <c r="E449" t="s">
+        <v>86</v>
+      </c>
+      <c r="F449" t="s">
+        <v>166</v>
+      </c>
+      <c r="G449" t="s">
+        <v>588</v>
+      </c>
+      <c r="H449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B450" t="s">
+        <v>600</v>
+      </c>
+      <c r="C450" t="s">
+        <v>551</v>
+      </c>
+      <c r="D450" t="s">
+        <v>601</v>
+      </c>
+      <c r="E450" t="s">
+        <v>86</v>
+      </c>
+      <c r="F450" t="s">
+        <v>166</v>
+      </c>
+      <c r="G450" t="s">
+        <v>588</v>
+      </c>
+      <c r="H450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B451" t="s">
+        <v>602</v>
+      </c>
+      <c r="C451" t="s">
+        <v>554</v>
+      </c>
+      <c r="D451" t="s">
+        <v>603</v>
+      </c>
+      <c r="E451" t="s">
+        <v>86</v>
+      </c>
+      <c r="F451" t="s">
+        <v>166</v>
+      </c>
+      <c r="G451" t="s">
+        <v>588</v>
+      </c>
+      <c r="H451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B452" t="s">
+        <v>604</v>
+      </c>
+      <c r="C452" t="s">
+        <v>557</v>
+      </c>
+      <c r="D452" t="s">
+        <v>605</v>
+      </c>
+      <c r="E452" t="s">
+        <v>86</v>
+      </c>
+      <c r="F452" t="s">
+        <v>166</v>
+      </c>
+      <c r="G452" t="s">
+        <v>588</v>
+      </c>
+      <c r="H452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B453" t="s">
+        <v>606</v>
+      </c>
+      <c r="C453" t="s">
+        <v>560</v>
+      </c>
+      <c r="D453" t="s">
+        <v>607</v>
+      </c>
+      <c r="E453" t="s">
+        <v>86</v>
+      </c>
+      <c r="F453" t="s">
+        <v>166</v>
+      </c>
+      <c r="G453" t="s">
+        <v>588</v>
+      </c>
+      <c r="H453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B454" t="s">
+        <v>608</v>
+      </c>
+      <c r="C454" t="s">
+        <v>563</v>
+      </c>
+      <c r="D454" t="s">
+        <v>609</v>
+      </c>
+      <c r="E454" t="s">
+        <v>86</v>
+      </c>
+      <c r="F454" t="s">
+        <v>166</v>
+      </c>
+      <c r="G454" t="s">
+        <v>588</v>
+      </c>
+      <c r="H454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B455" t="s">
+        <v>610</v>
+      </c>
+      <c r="C455" t="s">
+        <v>566</v>
+      </c>
+      <c r="D455" t="s">
+        <v>611</v>
+      </c>
+      <c r="E455" t="s">
+        <v>86</v>
+      </c>
+      <c r="F455" t="s">
+        <v>166</v>
+      </c>
+      <c r="G455" t="s">
+        <v>588</v>
+      </c>
+      <c r="H455">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B456" t="s">
+        <v>612</v>
+      </c>
+      <c r="C456" t="s">
+        <v>468</v>
+      </c>
+      <c r="D456" t="s">
+        <v>469</v>
+      </c>
+      <c r="E456" t="s">
+        <v>86</v>
+      </c>
+      <c r="F456" t="s">
+        <v>166</v>
+      </c>
+      <c r="G456" t="s">
+        <v>588</v>
+      </c>
+      <c r="H456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B457" t="s">
+        <v>613</v>
+      </c>
+      <c r="C457" t="s">
+        <v>571</v>
+      </c>
+      <c r="D457" t="s">
+        <v>614</v>
+      </c>
+      <c r="E457" t="s">
+        <v>86</v>
+      </c>
+      <c r="F457" t="s">
+        <v>166</v>
+      </c>
+      <c r="G457" t="s">
+        <v>588</v>
+      </c>
+      <c r="H457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B458" t="s">
+        <v>615</v>
+      </c>
+      <c r="C458" t="s">
+        <v>459</v>
+      </c>
+      <c r="D458" t="s">
+        <v>460</v>
+      </c>
+      <c r="E458" t="s">
+        <v>86</v>
+      </c>
+      <c r="F458" t="s">
+        <v>166</v>
+      </c>
+      <c r="G458" t="s">
+        <v>588</v>
+      </c>
+      <c r="H458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B459" t="s">
+        <v>616</v>
+      </c>
+      <c r="C459" t="s">
+        <v>576</v>
+      </c>
+      <c r="D459" t="s">
+        <v>617</v>
+      </c>
+      <c r="E459" t="s">
+        <v>86</v>
+      </c>
+      <c r="F459" t="s">
+        <v>166</v>
+      </c>
+      <c r="G459" t="s">
+        <v>588</v>
+      </c>
+      <c r="H459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B460" t="s">
+        <v>618</v>
+      </c>
+      <c r="C460" t="s">
+        <v>579</v>
+      </c>
+      <c r="D460" t="s">
+        <v>619</v>
+      </c>
+      <c r="E460" t="s">
+        <v>86</v>
+      </c>
+      <c r="F460" t="s">
+        <v>166</v>
+      </c>
+      <c r="G460" t="s">
+        <v>588</v>
+      </c>
+      <c r="H460">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B461" t="s">
+        <v>620</v>
+      </c>
+      <c r="C461" t="s">
+        <v>582</v>
+      </c>
+      <c r="D461" t="s">
+        <v>621</v>
+      </c>
+      <c r="E461" t="s">
+        <v>86</v>
+      </c>
+      <c r="F461" t="s">
+        <v>166</v>
+      </c>
+      <c r="G461" t="s">
+        <v>588</v>
+      </c>
+      <c r="H461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B462" t="s">
+        <v>622</v>
+      </c>
+      <c r="C462" t="s">
+        <v>585</v>
+      </c>
+      <c r="D462" t="s">
+        <v>623</v>
+      </c>
+      <c r="E462" t="s">
+        <v>86</v>
+      </c>
+      <c r="F462" t="s">
+        <v>166</v>
+      </c>
+      <c r="G462" t="s">
+        <v>588</v>
+      </c>
+      <c r="H462">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B463" t="s">
+        <v>624</v>
+      </c>
+      <c r="C463" t="s">
+        <v>420</v>
+      </c>
+      <c r="D463" t="s">
+        <v>421</v>
+      </c>
+      <c r="E463" t="s">
+        <v>86</v>
+      </c>
+      <c r="F463" t="s">
+        <v>166</v>
+      </c>
+      <c r="G463" t="s">
+        <v>625</v>
+      </c>
+      <c r="H463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B464" t="s">
+        <v>626</v>
+      </c>
+      <c r="C464" t="s">
+        <v>423</v>
+      </c>
+      <c r="D464" t="s">
+        <v>424</v>
+      </c>
+      <c r="E464" t="s">
+        <v>86</v>
+      </c>
+      <c r="F464" t="s">
+        <v>166</v>
+      </c>
+      <c r="G464" t="s">
+        <v>625</v>
+      </c>
+      <c r="H464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B465" t="s">
+        <v>627</v>
+      </c>
+      <c r="C465" t="s">
+        <v>536</v>
+      </c>
+      <c r="D465" t="s">
+        <v>591</v>
+      </c>
+      <c r="E465" t="s">
+        <v>86</v>
+      </c>
+      <c r="F465" t="s">
+        <v>166</v>
+      </c>
+      <c r="G465" t="s">
+        <v>625</v>
+      </c>
+      <c r="H465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B466" t="s">
+        <v>628</v>
+      </c>
+      <c r="C466" t="s">
+        <v>539</v>
+      </c>
+      <c r="D466" t="s">
+        <v>593</v>
+      </c>
+      <c r="E466" t="s">
+        <v>86</v>
+      </c>
+      <c r="F466" t="s">
+        <v>166</v>
+      </c>
+      <c r="G466" t="s">
+        <v>625</v>
+      </c>
+      <c r="H466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B467" t="s">
+        <v>629</v>
+      </c>
+      <c r="C467" t="s">
+        <v>542</v>
+      </c>
+      <c r="D467" t="s">
+        <v>595</v>
+      </c>
+      <c r="E467" t="s">
+        <v>86</v>
+      </c>
+      <c r="F467" t="s">
+        <v>166</v>
+      </c>
+      <c r="G467" t="s">
+        <v>625</v>
+      </c>
+      <c r="H467">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B468" t="s">
+        <v>630</v>
+      </c>
+      <c r="C468" t="s">
+        <v>545</v>
+      </c>
+      <c r="D468" t="s">
+        <v>597</v>
+      </c>
+      <c r="E468" t="s">
+        <v>86</v>
+      </c>
+      <c r="F468" t="s">
+        <v>166</v>
+      </c>
+      <c r="G468" t="s">
+        <v>625</v>
+      </c>
+      <c r="H468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B469" t="s">
+        <v>631</v>
+      </c>
+      <c r="C469" t="s">
+        <v>548</v>
+      </c>
+      <c r="D469" t="s">
+        <v>599</v>
+      </c>
+      <c r="E469" t="s">
+        <v>86</v>
+      </c>
+      <c r="F469" t="s">
+        <v>166</v>
+      </c>
+      <c r="G469" t="s">
+        <v>625</v>
+      </c>
+      <c r="H469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B470" t="s">
+        <v>632</v>
+      </c>
+      <c r="C470" t="s">
+        <v>551</v>
+      </c>
+      <c r="D470" t="s">
+        <v>601</v>
+      </c>
+      <c r="E470" t="s">
+        <v>86</v>
+      </c>
+      <c r="F470" t="s">
+        <v>166</v>
+      </c>
+      <c r="G470" t="s">
+        <v>625</v>
+      </c>
+      <c r="H470">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B471" t="s">
+        <v>633</v>
+      </c>
+      <c r="C471" t="s">
+        <v>554</v>
+      </c>
+      <c r="D471" t="s">
+        <v>603</v>
+      </c>
+      <c r="E471" t="s">
+        <v>86</v>
+      </c>
+      <c r="F471" t="s">
+        <v>166</v>
+      </c>
+      <c r="G471" t="s">
+        <v>625</v>
+      </c>
+      <c r="H471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B472" t="s">
+        <v>634</v>
+      </c>
+      <c r="C472" t="s">
+        <v>557</v>
+      </c>
+      <c r="D472" t="s">
+        <v>605</v>
+      </c>
+      <c r="E472" t="s">
+        <v>86</v>
+      </c>
+      <c r="F472" t="s">
+        <v>166</v>
+      </c>
+      <c r="G472" t="s">
+        <v>625</v>
+      </c>
+      <c r="H472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B473" t="s">
+        <v>635</v>
+      </c>
+      <c r="C473" t="s">
+        <v>560</v>
+      </c>
+      <c r="D473" t="s">
+        <v>607</v>
+      </c>
+      <c r="E473" t="s">
+        <v>86</v>
+      </c>
+      <c r="F473" t="s">
+        <v>166</v>
+      </c>
+      <c r="G473" t="s">
+        <v>625</v>
+      </c>
+      <c r="H473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B474" t="s">
+        <v>636</v>
+      </c>
+      <c r="C474" t="s">
+        <v>563</v>
+      </c>
+      <c r="D474" t="s">
+        <v>609</v>
+      </c>
+      <c r="E474" t="s">
+        <v>86</v>
+      </c>
+      <c r="F474" t="s">
+        <v>166</v>
+      </c>
+      <c r="G474" t="s">
+        <v>625</v>
+      </c>
+      <c r="H474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B475" t="s">
+        <v>637</v>
+      </c>
+      <c r="C475" t="s">
+        <v>566</v>
+      </c>
+      <c r="D475" t="s">
+        <v>611</v>
+      </c>
+      <c r="E475" t="s">
+        <v>86</v>
+      </c>
+      <c r="F475" t="s">
+        <v>166</v>
+      </c>
+      <c r="G475" t="s">
+        <v>625</v>
+      </c>
+      <c r="H475">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B476" t="s">
+        <v>638</v>
+      </c>
+      <c r="C476" t="s">
+        <v>468</v>
+      </c>
+      <c r="D476" t="s">
+        <v>469</v>
+      </c>
+      <c r="E476" t="s">
+        <v>86</v>
+      </c>
+      <c r="F476" t="s">
+        <v>166</v>
+      </c>
+      <c r="G476" t="s">
+        <v>625</v>
+      </c>
+      <c r="H476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B477" t="s">
+        <v>639</v>
+      </c>
+      <c r="C477" t="s">
+        <v>571</v>
+      </c>
+      <c r="D477" t="s">
+        <v>614</v>
+      </c>
+      <c r="E477" t="s">
+        <v>86</v>
+      </c>
+      <c r="F477" t="s">
+        <v>166</v>
+      </c>
+      <c r="G477" t="s">
+        <v>625</v>
+      </c>
+      <c r="H477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B478" t="s">
+        <v>640</v>
+      </c>
+      <c r="C478" t="s">
+        <v>459</v>
+      </c>
+      <c r="D478" t="s">
+        <v>460</v>
+      </c>
+      <c r="E478" t="s">
+        <v>86</v>
+      </c>
+      <c r="F478" t="s">
+        <v>166</v>
+      </c>
+      <c r="G478" t="s">
+        <v>625</v>
+      </c>
+      <c r="H478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B479" t="s">
+        <v>641</v>
+      </c>
+      <c r="C479" t="s">
+        <v>576</v>
+      </c>
+      <c r="D479" t="s">
+        <v>617</v>
+      </c>
+      <c r="E479" t="s">
+        <v>86</v>
+      </c>
+      <c r="F479" t="s">
+        <v>166</v>
+      </c>
+      <c r="G479" t="s">
+        <v>625</v>
+      </c>
+      <c r="H479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B480" t="s">
+        <v>642</v>
+      </c>
+      <c r="C480" t="s">
+        <v>579</v>
+      </c>
+      <c r="D480" t="s">
+        <v>619</v>
+      </c>
+      <c r="E480" t="s">
+        <v>86</v>
+      </c>
+      <c r="F480" t="s">
+        <v>166</v>
+      </c>
+      <c r="G480" t="s">
+        <v>625</v>
+      </c>
+      <c r="H480">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B481" t="s">
+        <v>643</v>
+      </c>
+      <c r="C481" t="s">
+        <v>582</v>
+      </c>
+      <c r="D481" t="s">
+        <v>621</v>
+      </c>
+      <c r="E481" t="s">
+        <v>86</v>
+      </c>
+      <c r="F481" t="s">
+        <v>166</v>
+      </c>
+      <c r="G481" t="s">
+        <v>625</v>
+      </c>
+      <c r="H481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B482" t="s">
+        <v>644</v>
+      </c>
+      <c r="C482" t="s">
+        <v>585</v>
+      </c>
+      <c r="D482" t="s">
+        <v>623</v>
+      </c>
+      <c r="E482" t="s">
+        <v>86</v>
+      </c>
+      <c r="F482" t="s">
+        <v>166</v>
+      </c>
+      <c r="G482" t="s">
+        <v>625</v>
+      </c>
+      <c r="H482">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B483" t="s">
+        <v>645</v>
+      </c>
+      <c r="C483" t="s">
+        <v>646</v>
+      </c>
+      <c r="D483" t="s">
+        <v>647</v>
+      </c>
+      <c r="E483" t="s">
+        <v>86</v>
+      </c>
+      <c r="F483" t="s">
+        <v>166</v>
+      </c>
+      <c r="G483" t="s">
+        <v>648</v>
+      </c>
+      <c r="H483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B484" t="s">
+        <v>481</v>
+      </c>
+      <c r="C484" t="s">
+        <v>649</v>
+      </c>
+      <c r="D484" t="s">
+        <v>650</v>
+      </c>
+      <c r="E484" t="s">
+        <v>86</v>
+      </c>
+      <c r="F484" t="s">
+        <v>166</v>
+      </c>
+      <c r="G484" t="s">
+        <v>648</v>
+      </c>
+      <c r="H484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B485" t="s">
+        <v>651</v>
+      </c>
+      <c r="C485" t="s">
+        <v>536</v>
+      </c>
+      <c r="D485" t="s">
+        <v>652</v>
+      </c>
+      <c r="E485" t="s">
+        <v>86</v>
+      </c>
+      <c r="F485" t="s">
+        <v>166</v>
+      </c>
+      <c r="G485" t="s">
+        <v>648</v>
+      </c>
+      <c r="H485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B486" t="s">
+        <v>653</v>
+      </c>
+      <c r="C486" t="s">
+        <v>654</v>
+      </c>
+      <c r="D486" t="s">
+        <v>655</v>
+      </c>
+      <c r="E486" t="s">
+        <v>86</v>
+      </c>
+      <c r="F486" t="s">
+        <v>166</v>
+      </c>
+      <c r="G486" t="s">
+        <v>648</v>
+      </c>
+      <c r="H486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B487" t="s">
+        <v>656</v>
+      </c>
+      <c r="C487" t="s">
+        <v>542</v>
+      </c>
+      <c r="D487" t="s">
+        <v>543</v>
+      </c>
+      <c r="E487" t="s">
+        <v>86</v>
+      </c>
+      <c r="F487" t="s">
+        <v>166</v>
+      </c>
+      <c r="G487" t="s">
+        <v>648</v>
+      </c>
+      <c r="H487">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B488" t="s">
+        <v>657</v>
+      </c>
+      <c r="C488" t="s">
+        <v>658</v>
+      </c>
+      <c r="D488" t="s">
+        <v>659</v>
+      </c>
+      <c r="E488" t="s">
+        <v>86</v>
+      </c>
+      <c r="F488" t="s">
+        <v>166</v>
+      </c>
+      <c r="G488" t="s">
+        <v>648</v>
+      </c>
+      <c r="H488">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B489" t="s">
+        <v>660</v>
+      </c>
+      <c r="C489" t="s">
+        <v>661</v>
+      </c>
+      <c r="D489" t="s">
+        <v>549</v>
+      </c>
+      <c r="E489" t="s">
+        <v>86</v>
+      </c>
+      <c r="F489" t="s">
+        <v>166</v>
+      </c>
+      <c r="G489" t="s">
+        <v>648</v>
+      </c>
+      <c r="H489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B490" t="s">
+        <v>662</v>
+      </c>
+      <c r="C490" t="s">
+        <v>663</v>
+      </c>
+      <c r="D490" t="s">
+        <v>664</v>
+      </c>
+      <c r="E490" t="s">
+        <v>86</v>
+      </c>
+      <c r="F490" t="s">
+        <v>166</v>
+      </c>
+      <c r="G490" t="s">
+        <v>648</v>
+      </c>
+      <c r="H490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B491" t="s">
+        <v>665</v>
+      </c>
+      <c r="C491" t="s">
+        <v>554</v>
+      </c>
+      <c r="D491" t="s">
+        <v>555</v>
+      </c>
+      <c r="E491" t="s">
+        <v>86</v>
+      </c>
+      <c r="F491" t="s">
+        <v>166</v>
+      </c>
+      <c r="G491" t="s">
+        <v>648</v>
+      </c>
+      <c r="H491">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B492" t="s">
+        <v>666</v>
+      </c>
+      <c r="C492" t="s">
+        <v>557</v>
+      </c>
+      <c r="D492" t="s">
+        <v>558</v>
+      </c>
+      <c r="E492" t="s">
+        <v>86</v>
+      </c>
+      <c r="F492" t="s">
+        <v>166</v>
+      </c>
+      <c r="G492" t="s">
+        <v>648</v>
+      </c>
+      <c r="H492">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B493" t="s">
+        <v>667</v>
+      </c>
+      <c r="C493" t="s">
+        <v>668</v>
+      </c>
+      <c r="D493" t="s">
+        <v>669</v>
+      </c>
+      <c r="E493" t="s">
+        <v>86</v>
+      </c>
+      <c r="F493" t="s">
+        <v>166</v>
+      </c>
+      <c r="G493" t="s">
+        <v>648</v>
+      </c>
+      <c r="H493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B494" t="s">
+        <v>670</v>
+      </c>
+      <c r="C494" t="s">
+        <v>563</v>
+      </c>
+      <c r="D494" t="s">
+        <v>671</v>
+      </c>
+      <c r="E494" t="s">
+        <v>86</v>
+      </c>
+      <c r="F494" t="s">
+        <v>166</v>
+      </c>
+      <c r="G494" t="s">
+        <v>648</v>
+      </c>
+      <c r="H494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B495" t="s">
+        <v>672</v>
+      </c>
+      <c r="C495" t="s">
+        <v>485</v>
+      </c>
+      <c r="D495" t="s">
+        <v>673</v>
+      </c>
+      <c r="E495" t="s">
+        <v>86</v>
+      </c>
+      <c r="F495" t="s">
+        <v>166</v>
+      </c>
+      <c r="G495" t="s">
+        <v>648</v>
+      </c>
+      <c r="H495">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B496" t="s">
+        <v>674</v>
+      </c>
+      <c r="C496" t="s">
+        <v>435</v>
+      </c>
+      <c r="D496" t="s">
+        <v>569</v>
+      </c>
+      <c r="E496" t="s">
+        <v>86</v>
+      </c>
+      <c r="F496" t="s">
+        <v>166</v>
+      </c>
+      <c r="G496" t="s">
+        <v>648</v>
+      </c>
+      <c r="H496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B497" t="s">
+        <v>479</v>
+      </c>
+      <c r="C497" t="s">
+        <v>444</v>
+      </c>
+      <c r="D497" t="s">
+        <v>675</v>
+      </c>
+      <c r="E497" t="s">
+        <v>86</v>
+      </c>
+      <c r="F497" t="s">
+        <v>166</v>
+      </c>
+      <c r="G497" t="s">
+        <v>648</v>
+      </c>
+      <c r="H497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B498" t="s">
+        <v>676</v>
+      </c>
+      <c r="C498" t="s">
+        <v>677</v>
+      </c>
+      <c r="D498" t="s">
+        <v>678</v>
+      </c>
+      <c r="E498" t="s">
+        <v>86</v>
+      </c>
+      <c r="F498" t="s">
+        <v>166</v>
+      </c>
+      <c r="G498" t="s">
+        <v>648</v>
+      </c>
+      <c r="H498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B499" t="s">
+        <v>679</v>
+      </c>
+      <c r="C499" t="s">
+        <v>576</v>
+      </c>
+      <c r="D499" t="s">
+        <v>577</v>
+      </c>
+      <c r="E499" t="s">
+        <v>86</v>
+      </c>
+      <c r="F499" t="s">
+        <v>166</v>
+      </c>
+      <c r="G499" t="s">
+        <v>648</v>
+      </c>
+      <c r="H499">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B500" t="s">
+        <v>680</v>
+      </c>
+      <c r="C500" t="s">
+        <v>579</v>
+      </c>
+      <c r="D500" t="s">
+        <v>681</v>
+      </c>
+      <c r="E500" t="s">
+        <v>86</v>
+      </c>
+      <c r="F500" t="s">
+        <v>166</v>
+      </c>
+      <c r="G500" t="s">
+        <v>648</v>
+      </c>
+      <c r="H500">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B501" t="s">
+        <v>682</v>
+      </c>
+      <c r="C501" t="s">
+        <v>582</v>
+      </c>
+      <c r="D501" t="s">
+        <v>583</v>
+      </c>
+      <c r="E501" t="s">
+        <v>86</v>
+      </c>
+      <c r="F501" t="s">
+        <v>166</v>
+      </c>
+      <c r="G501" t="s">
+        <v>648</v>
+      </c>
+      <c r="H501">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B502" t="s">
+        <v>683</v>
+      </c>
+      <c r="C502" t="s">
+        <v>684</v>
+      </c>
+      <c r="D502" t="s">
+        <v>685</v>
+      </c>
+      <c r="E502" t="s">
+        <v>86</v>
+      </c>
+      <c r="F502" t="s">
+        <v>166</v>
+      </c>
+      <c r="G502" t="s">
+        <v>648</v>
+      </c>
+      <c r="H502">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B503" t="s">
+        <v>686</v>
+      </c>
+      <c r="C503" t="s">
+        <v>687</v>
+      </c>
+      <c r="D503" t="s">
+        <v>688</v>
+      </c>
+      <c r="E503" t="s">
+        <v>86</v>
+      </c>
+      <c r="F503" t="s">
+        <v>166</v>
+      </c>
+      <c r="G503" t="s">
+        <v>689</v>
+      </c>
+      <c r="H503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B504" t="s">
+        <v>690</v>
+      </c>
+      <c r="C504" t="s">
+        <v>691</v>
+      </c>
+      <c r="D504" t="s">
+        <v>692</v>
+      </c>
+      <c r="E504" t="s">
+        <v>86</v>
+      </c>
+      <c r="F504" t="s">
+        <v>166</v>
+      </c>
+      <c r="G504" t="s">
+        <v>689</v>
+      </c>
+      <c r="H504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B505" t="s">
+        <v>693</v>
+      </c>
+      <c r="C505" t="s">
+        <v>694</v>
+      </c>
+      <c r="D505" t="s">
+        <v>695</v>
+      </c>
+      <c r="E505" t="s">
+        <v>86</v>
+      </c>
+      <c r="F505" t="s">
+        <v>166</v>
+      </c>
+      <c r="G505" t="s">
+        <v>689</v>
+      </c>
+      <c r="H505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B506" t="s">
+        <v>696</v>
+      </c>
+      <c r="C506" t="s">
+        <v>697</v>
+      </c>
+      <c r="D506" t="s">
+        <v>698</v>
+      </c>
+      <c r="E506" t="s">
+        <v>86</v>
+      </c>
+      <c r="F506" t="s">
+        <v>166</v>
+      </c>
+      <c r="G506" t="s">
+        <v>689</v>
+      </c>
+      <c r="H506">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B507" t="s">
+        <v>699</v>
+      </c>
+      <c r="C507" t="s">
+        <v>435</v>
+      </c>
+      <c r="D507" t="s">
+        <v>700</v>
+      </c>
+      <c r="E507" t="s">
+        <v>86</v>
+      </c>
+      <c r="F507" t="s">
+        <v>166</v>
+      </c>
+      <c r="G507" t="s">
+        <v>689</v>
+      </c>
+      <c r="H507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B508" t="s">
+        <v>701</v>
+      </c>
+      <c r="C508" t="s">
+        <v>702</v>
+      </c>
+      <c r="D508" t="s">
+        <v>703</v>
+      </c>
+      <c r="E508" t="s">
+        <v>86</v>
+      </c>
+      <c r="F508" t="s">
+        <v>166</v>
+      </c>
+      <c r="G508" t="s">
+        <v>689</v>
+      </c>
+      <c r="H508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B509" t="s">
+        <v>704</v>
+      </c>
+      <c r="C509" t="s">
+        <v>661</v>
+      </c>
+      <c r="D509" t="s">
+        <v>705</v>
+      </c>
+      <c r="E509" t="s">
+        <v>86</v>
+      </c>
+      <c r="F509" t="s">
+        <v>166</v>
+      </c>
+      <c r="G509" t="s">
+        <v>689</v>
+      </c>
+      <c r="H509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B510" t="s">
+        <v>706</v>
+      </c>
+      <c r="C510" t="s">
+        <v>663</v>
+      </c>
+      <c r="D510" t="s">
+        <v>707</v>
+      </c>
+      <c r="E510" t="s">
+        <v>86</v>
+      </c>
+      <c r="F510" t="s">
+        <v>166</v>
+      </c>
+      <c r="G510" t="s">
+        <v>689</v>
+      </c>
+      <c r="H510">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B511" t="s">
+        <v>708</v>
+      </c>
+      <c r="C511" t="s">
+        <v>709</v>
+      </c>
+      <c r="D511" t="s">
+        <v>710</v>
+      </c>
+      <c r="E511" t="s">
+        <v>86</v>
+      </c>
+      <c r="F511" t="s">
+        <v>166</v>
+      </c>
+      <c r="G511" t="s">
+        <v>689</v>
+      </c>
+      <c r="H511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B512" t="s">
+        <v>711</v>
+      </c>
+      <c r="C512" t="s">
+        <v>557</v>
+      </c>
+      <c r="D512" t="s">
+        <v>712</v>
+      </c>
+      <c r="E512" t="s">
+        <v>86</v>
+      </c>
+      <c r="F512" t="s">
+        <v>166</v>
+      </c>
+      <c r="G512" t="s">
+        <v>689</v>
+      </c>
+      <c r="H512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B513" t="s">
+        <v>713</v>
+      </c>
+      <c r="C513" t="s">
+        <v>714</v>
+      </c>
+      <c r="D513" t="s">
+        <v>715</v>
+      </c>
+      <c r="E513" t="s">
+        <v>86</v>
+      </c>
+      <c r="F513" t="s">
+        <v>166</v>
+      </c>
+      <c r="G513" t="s">
+        <v>689</v>
+      </c>
+      <c r="H513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B514" t="s">
+        <v>716</v>
+      </c>
+      <c r="C514" t="s">
+        <v>563</v>
+      </c>
+      <c r="D514" t="s">
+        <v>717</v>
+      </c>
+      <c r="E514" t="s">
+        <v>86</v>
+      </c>
+      <c r="F514" t="s">
+        <v>166</v>
+      </c>
+      <c r="G514" t="s">
+        <v>689</v>
+      </c>
+      <c r="H514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B515" t="s">
+        <v>718</v>
+      </c>
+      <c r="C515" t="s">
+        <v>719</v>
+      </c>
+      <c r="D515" t="s">
+        <v>720</v>
+      </c>
+      <c r="E515" t="s">
+        <v>86</v>
+      </c>
+      <c r="F515" t="s">
+        <v>166</v>
+      </c>
+      <c r="G515" t="s">
+        <v>689</v>
+      </c>
+      <c r="H515">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B516" t="s">
+        <v>721</v>
+      </c>
+      <c r="C516" t="s">
+        <v>528</v>
+      </c>
+      <c r="D516" t="s">
+        <v>722</v>
+      </c>
+      <c r="E516" t="s">
+        <v>86</v>
+      </c>
+      <c r="F516" t="s">
+        <v>166</v>
+      </c>
+      <c r="G516" t="s">
+        <v>689</v>
+      </c>
+      <c r="H516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B517" t="s">
+        <v>723</v>
+      </c>
+      <c r="C517" t="s">
+        <v>459</v>
+      </c>
+      <c r="D517" t="s">
+        <v>724</v>
+      </c>
+      <c r="E517" t="s">
+        <v>86</v>
+      </c>
+      <c r="F517" t="s">
+        <v>166</v>
+      </c>
+      <c r="G517" t="s">
+        <v>689</v>
+      </c>
+      <c r="H517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B518" t="s">
+        <v>725</v>
+      </c>
+      <c r="C518" t="s">
+        <v>726</v>
+      </c>
+      <c r="D518" t="s">
+        <v>727</v>
+      </c>
+      <c r="E518" t="s">
+        <v>86</v>
+      </c>
+      <c r="F518" t="s">
+        <v>166</v>
+      </c>
+      <c r="G518" t="s">
+        <v>689</v>
+      </c>
+      <c r="H518">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B519" t="s">
+        <v>728</v>
+      </c>
+      <c r="C519" t="s">
+        <v>444</v>
+      </c>
+      <c r="D519" t="s">
+        <v>729</v>
+      </c>
+      <c r="E519" t="s">
+        <v>86</v>
+      </c>
+      <c r="F519" t="s">
+        <v>166</v>
+      </c>
+      <c r="G519" t="s">
+        <v>689</v>
+      </c>
+      <c r="H519">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B520" t="s">
+        <v>716</v>
+      </c>
+      <c r="C520" t="s">
+        <v>563</v>
+      </c>
+      <c r="D520" t="s">
+        <v>717</v>
+      </c>
+      <c r="E520" t="s">
+        <v>86</v>
+      </c>
+      <c r="F520" t="s">
+        <v>166</v>
+      </c>
+      <c r="G520" t="s">
+        <v>689</v>
+      </c>
+      <c r="H520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B521" t="s">
+        <v>730</v>
+      </c>
+      <c r="C521" t="s">
+        <v>731</v>
+      </c>
+      <c r="D521" t="s">
+        <v>732</v>
+      </c>
+      <c r="E521" t="s">
+        <v>86</v>
+      </c>
+      <c r="F521" t="s">
+        <v>166</v>
+      </c>
+      <c r="G521" t="s">
+        <v>689</v>
+      </c>
+      <c r="H521">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B522" t="s">
+        <v>733</v>
+      </c>
+      <c r="C522" t="s">
+        <v>734</v>
+      </c>
+      <c r="D522" t="s">
+        <v>735</v>
+      </c>
+      <c r="E522" t="s">
+        <v>86</v>
+      </c>
+      <c r="F522" t="s">
+        <v>166</v>
+      </c>
+      <c r="G522" t="s">
+        <v>689</v>
+      </c>
+      <c r="H522">
         <v>2</v>
       </c>
     </row>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ander\Desktop\langapp\v19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34931218-691A-4A44-B74E-1A388364875D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA9D8B1-D489-461D-A51B-8BE553D4072B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{7340545C-2BB6-4E8B-827D-6673ABB13FB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7340545C-2BB6-4E8B-827D-6673ABB13FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5820" uniqueCount="1436">
   <si>
     <t>question_text</t>
   </si>
@@ -3505,6 +3505,846 @@
   </si>
   <si>
     <t>160. French question</t>
+  </si>
+  <si>
+    <t>21. English question</t>
+  </si>
+  <si>
+    <t>22. English question</t>
+  </si>
+  <si>
+    <t>23. English question</t>
+  </si>
+  <si>
+    <t>24. English question</t>
+  </si>
+  <si>
+    <t>25. English question</t>
+  </si>
+  <si>
+    <t>26. English question</t>
+  </si>
+  <si>
+    <t>27. English question</t>
+  </si>
+  <si>
+    <t>28. English question</t>
+  </si>
+  <si>
+    <t>29. English question</t>
+  </si>
+  <si>
+    <t>30. English question</t>
+  </si>
+  <si>
+    <t>31. English question</t>
+  </si>
+  <si>
+    <t>32. English question</t>
+  </si>
+  <si>
+    <t>33. English question</t>
+  </si>
+  <si>
+    <t>34. English question</t>
+  </si>
+  <si>
+    <t>35. English question</t>
+  </si>
+  <si>
+    <t>36. English question</t>
+  </si>
+  <si>
+    <t>37. English question</t>
+  </si>
+  <si>
+    <t>38. English question</t>
+  </si>
+  <si>
+    <t>39. English question</t>
+  </si>
+  <si>
+    <t>40. English question</t>
+  </si>
+  <si>
+    <t>41. English question</t>
+  </si>
+  <si>
+    <t>42. English question</t>
+  </si>
+  <si>
+    <t>43. English question</t>
+  </si>
+  <si>
+    <t>44. English question</t>
+  </si>
+  <si>
+    <t>45. English question</t>
+  </si>
+  <si>
+    <t>46. English question</t>
+  </si>
+  <si>
+    <t>47. English question</t>
+  </si>
+  <si>
+    <t>48. English question</t>
+  </si>
+  <si>
+    <t>49. English question</t>
+  </si>
+  <si>
+    <t>50. English question</t>
+  </si>
+  <si>
+    <t>51. English question</t>
+  </si>
+  <si>
+    <t>52. English question</t>
+  </si>
+  <si>
+    <t>53. English question</t>
+  </si>
+  <si>
+    <t>54. English question</t>
+  </si>
+  <si>
+    <t>55. English question</t>
+  </si>
+  <si>
+    <t>56. English question</t>
+  </si>
+  <si>
+    <t>57. English question</t>
+  </si>
+  <si>
+    <t>58. English question</t>
+  </si>
+  <si>
+    <t>59. English question</t>
+  </si>
+  <si>
+    <t>60. English question</t>
+  </si>
+  <si>
+    <t>61. English question</t>
+  </si>
+  <si>
+    <t>62. English question</t>
+  </si>
+  <si>
+    <t>63. English question</t>
+  </si>
+  <si>
+    <t>64. English question</t>
+  </si>
+  <si>
+    <t>65. English question</t>
+  </si>
+  <si>
+    <t>66. English question</t>
+  </si>
+  <si>
+    <t>67. English question</t>
+  </si>
+  <si>
+    <t>68. English question</t>
+  </si>
+  <si>
+    <t>69. English question</t>
+  </si>
+  <si>
+    <t>70. English question</t>
+  </si>
+  <si>
+    <t>71. English question</t>
+  </si>
+  <si>
+    <t>72. English question</t>
+  </si>
+  <si>
+    <t>73. English question</t>
+  </si>
+  <si>
+    <t>74. English question</t>
+  </si>
+  <si>
+    <t>75. English question</t>
+  </si>
+  <si>
+    <t>76. English question</t>
+  </si>
+  <si>
+    <t>77. English question</t>
+  </si>
+  <si>
+    <t>78. English question</t>
+  </si>
+  <si>
+    <t>79. English question</t>
+  </si>
+  <si>
+    <t>80. English question</t>
+  </si>
+  <si>
+    <t>81. English question</t>
+  </si>
+  <si>
+    <t>82. English question</t>
+  </si>
+  <si>
+    <t>83. English question</t>
+  </si>
+  <si>
+    <t>84. English question</t>
+  </si>
+  <si>
+    <t>85. English question</t>
+  </si>
+  <si>
+    <t>86. English question</t>
+  </si>
+  <si>
+    <t>87. English question</t>
+  </si>
+  <si>
+    <t>88. English question</t>
+  </si>
+  <si>
+    <t>89. English question</t>
+  </si>
+  <si>
+    <t>90. English question</t>
+  </si>
+  <si>
+    <t>91. English question</t>
+  </si>
+  <si>
+    <t>92. English question</t>
+  </si>
+  <si>
+    <t>93. English question</t>
+  </si>
+  <si>
+    <t>94. English question</t>
+  </si>
+  <si>
+    <t>95. English question</t>
+  </si>
+  <si>
+    <t>96. English question</t>
+  </si>
+  <si>
+    <t>97. English question</t>
+  </si>
+  <si>
+    <t>98. English question</t>
+  </si>
+  <si>
+    <t>99. English question</t>
+  </si>
+  <si>
+    <t>100. English question</t>
+  </si>
+  <si>
+    <t>101. English question</t>
+  </si>
+  <si>
+    <t>102. English question</t>
+  </si>
+  <si>
+    <t>103. English question</t>
+  </si>
+  <si>
+    <t>104. English question</t>
+  </si>
+  <si>
+    <t>105. English question</t>
+  </si>
+  <si>
+    <t>106. English question</t>
+  </si>
+  <si>
+    <t>107. English question</t>
+  </si>
+  <si>
+    <t>108. English question</t>
+  </si>
+  <si>
+    <t>109. English question</t>
+  </si>
+  <si>
+    <t>110. English question</t>
+  </si>
+  <si>
+    <t>111. English question</t>
+  </si>
+  <si>
+    <t>112. English question</t>
+  </si>
+  <si>
+    <t>113. English question</t>
+  </si>
+  <si>
+    <t>114. English question</t>
+  </si>
+  <si>
+    <t>115. English question</t>
+  </si>
+  <si>
+    <t>116. English question</t>
+  </si>
+  <si>
+    <t>117. English question</t>
+  </si>
+  <si>
+    <t>118. English question</t>
+  </si>
+  <si>
+    <t>119. English question</t>
+  </si>
+  <si>
+    <t>120. English question</t>
+  </si>
+  <si>
+    <t>121. English question</t>
+  </si>
+  <si>
+    <t>122. English question</t>
+  </si>
+  <si>
+    <t>123. English question</t>
+  </si>
+  <si>
+    <t>124. English question</t>
+  </si>
+  <si>
+    <t>125. English question</t>
+  </si>
+  <si>
+    <t>126. English question</t>
+  </si>
+  <si>
+    <t>127. English question</t>
+  </si>
+  <si>
+    <t>128. English question</t>
+  </si>
+  <si>
+    <t>129. English question</t>
+  </si>
+  <si>
+    <t>130. English question</t>
+  </si>
+  <si>
+    <t>131. English question</t>
+  </si>
+  <si>
+    <t>132. English question</t>
+  </si>
+  <si>
+    <t>133. English question</t>
+  </si>
+  <si>
+    <t>134. English question</t>
+  </si>
+  <si>
+    <t>135. English question</t>
+  </si>
+  <si>
+    <t>136. English question</t>
+  </si>
+  <si>
+    <t>137. English question</t>
+  </si>
+  <si>
+    <t>138. English question</t>
+  </si>
+  <si>
+    <t>139. English question</t>
+  </si>
+  <si>
+    <t>140. English question</t>
+  </si>
+  <si>
+    <t>141. English question</t>
+  </si>
+  <si>
+    <t>142. English question</t>
+  </si>
+  <si>
+    <t>143. English question</t>
+  </si>
+  <si>
+    <t>144. English question</t>
+  </si>
+  <si>
+    <t>145. English question</t>
+  </si>
+  <si>
+    <t>146. English question</t>
+  </si>
+  <si>
+    <t>147. English question</t>
+  </si>
+  <si>
+    <t>148. English question</t>
+  </si>
+  <si>
+    <t>149. English question</t>
+  </si>
+  <si>
+    <t>150. English question</t>
+  </si>
+  <si>
+    <t>151. English question</t>
+  </si>
+  <si>
+    <t>152. English question</t>
+  </si>
+  <si>
+    <t>153. English question</t>
+  </si>
+  <si>
+    <t>154. English question</t>
+  </si>
+  <si>
+    <t>155. English question</t>
+  </si>
+  <si>
+    <t>156. English question</t>
+  </si>
+  <si>
+    <t>157. English question</t>
+  </si>
+  <si>
+    <t>158. English question</t>
+  </si>
+  <si>
+    <t>159. English question</t>
+  </si>
+  <si>
+    <t>160. English question</t>
+  </si>
+  <si>
+    <t>21. Spanish question</t>
+  </si>
+  <si>
+    <t>22. Spanish question</t>
+  </si>
+  <si>
+    <t>23. Spanish question</t>
+  </si>
+  <si>
+    <t>24. Spanish question</t>
+  </si>
+  <si>
+    <t>25. Spanish question</t>
+  </si>
+  <si>
+    <t>26. Spanish question</t>
+  </si>
+  <si>
+    <t>27. Spanish question</t>
+  </si>
+  <si>
+    <t>28. Spanish question</t>
+  </si>
+  <si>
+    <t>29. Spanish question</t>
+  </si>
+  <si>
+    <t>30. Spanish question</t>
+  </si>
+  <si>
+    <t>31. Spanish question</t>
+  </si>
+  <si>
+    <t>32. Spanish question</t>
+  </si>
+  <si>
+    <t>33. Spanish question</t>
+  </si>
+  <si>
+    <t>34. Spanish question</t>
+  </si>
+  <si>
+    <t>35. Spanish question</t>
+  </si>
+  <si>
+    <t>36. Spanish question</t>
+  </si>
+  <si>
+    <t>37. Spanish question</t>
+  </si>
+  <si>
+    <t>38. Spanish question</t>
+  </si>
+  <si>
+    <t>39. Spanish question</t>
+  </si>
+  <si>
+    <t>40. Spanish question</t>
+  </si>
+  <si>
+    <t>41. Spanish question</t>
+  </si>
+  <si>
+    <t>42. Spanish question</t>
+  </si>
+  <si>
+    <t>43. Spanish question</t>
+  </si>
+  <si>
+    <t>44. Spanish question</t>
+  </si>
+  <si>
+    <t>45. Spanish question</t>
+  </si>
+  <si>
+    <t>46. Spanish question</t>
+  </si>
+  <si>
+    <t>47. Spanish question</t>
+  </si>
+  <si>
+    <t>48. Spanish question</t>
+  </si>
+  <si>
+    <t>49. Spanish question</t>
+  </si>
+  <si>
+    <t>50. Spanish question</t>
+  </si>
+  <si>
+    <t>51. Spanish question</t>
+  </si>
+  <si>
+    <t>52. Spanish question</t>
+  </si>
+  <si>
+    <t>53. Spanish question</t>
+  </si>
+  <si>
+    <t>54. Spanish question</t>
+  </si>
+  <si>
+    <t>55. Spanish question</t>
+  </si>
+  <si>
+    <t>56. Spanish question</t>
+  </si>
+  <si>
+    <t>57. Spanish question</t>
+  </si>
+  <si>
+    <t>58. Spanish question</t>
+  </si>
+  <si>
+    <t>59. Spanish question</t>
+  </si>
+  <si>
+    <t>60. Spanish question</t>
+  </si>
+  <si>
+    <t>61. Spanish question</t>
+  </si>
+  <si>
+    <t>62. Spanish question</t>
+  </si>
+  <si>
+    <t>63. Spanish question</t>
+  </si>
+  <si>
+    <t>64. Spanish question</t>
+  </si>
+  <si>
+    <t>65. Spanish question</t>
+  </si>
+  <si>
+    <t>66. Spanish question</t>
+  </si>
+  <si>
+    <t>67. Spanish question</t>
+  </si>
+  <si>
+    <t>68. Spanish question</t>
+  </si>
+  <si>
+    <t>69. Spanish question</t>
+  </si>
+  <si>
+    <t>70. Spanish question</t>
+  </si>
+  <si>
+    <t>71. Spanish question</t>
+  </si>
+  <si>
+    <t>72. Spanish question</t>
+  </si>
+  <si>
+    <t>73. Spanish question</t>
+  </si>
+  <si>
+    <t>74. Spanish question</t>
+  </si>
+  <si>
+    <t>75. Spanish question</t>
+  </si>
+  <si>
+    <t>76. Spanish question</t>
+  </si>
+  <si>
+    <t>77. Spanish question</t>
+  </si>
+  <si>
+    <t>78. Spanish question</t>
+  </si>
+  <si>
+    <t>79. Spanish question</t>
+  </si>
+  <si>
+    <t>80. Spanish question</t>
+  </si>
+  <si>
+    <t>81. Spanish question</t>
+  </si>
+  <si>
+    <t>82. Spanish question</t>
+  </si>
+  <si>
+    <t>83. Spanish question</t>
+  </si>
+  <si>
+    <t>84. Spanish question</t>
+  </si>
+  <si>
+    <t>85. Spanish question</t>
+  </si>
+  <si>
+    <t>86. Spanish question</t>
+  </si>
+  <si>
+    <t>87. Spanish question</t>
+  </si>
+  <si>
+    <t>88. Spanish question</t>
+  </si>
+  <si>
+    <t>89. Spanish question</t>
+  </si>
+  <si>
+    <t>90. Spanish question</t>
+  </si>
+  <si>
+    <t>91. Spanish question</t>
+  </si>
+  <si>
+    <t>92. Spanish question</t>
+  </si>
+  <si>
+    <t>93. Spanish question</t>
+  </si>
+  <si>
+    <t>94. Spanish question</t>
+  </si>
+  <si>
+    <t>95. Spanish question</t>
+  </si>
+  <si>
+    <t>96. Spanish question</t>
+  </si>
+  <si>
+    <t>97. Spanish question</t>
+  </si>
+  <si>
+    <t>98. Spanish question</t>
+  </si>
+  <si>
+    <t>99. Spanish question</t>
+  </si>
+  <si>
+    <t>100. Spanish question</t>
+  </si>
+  <si>
+    <t>101. Spanish question</t>
+  </si>
+  <si>
+    <t>102. Spanish question</t>
+  </si>
+  <si>
+    <t>103. Spanish question</t>
+  </si>
+  <si>
+    <t>104. Spanish question</t>
+  </si>
+  <si>
+    <t>105. Spanish question</t>
+  </si>
+  <si>
+    <t>106. Spanish question</t>
+  </si>
+  <si>
+    <t>107. Spanish question</t>
+  </si>
+  <si>
+    <t>108. Spanish question</t>
+  </si>
+  <si>
+    <t>109. Spanish question</t>
+  </si>
+  <si>
+    <t>110. Spanish question</t>
+  </si>
+  <si>
+    <t>111. Spanish question</t>
+  </si>
+  <si>
+    <t>112. Spanish question</t>
+  </si>
+  <si>
+    <t>113. Spanish question</t>
+  </si>
+  <si>
+    <t>114. Spanish question</t>
+  </si>
+  <si>
+    <t>115. Spanish question</t>
+  </si>
+  <si>
+    <t>116. Spanish question</t>
+  </si>
+  <si>
+    <t>117. Spanish question</t>
+  </si>
+  <si>
+    <t>118. Spanish question</t>
+  </si>
+  <si>
+    <t>119. Spanish question</t>
+  </si>
+  <si>
+    <t>120. Spanish question</t>
+  </si>
+  <si>
+    <t>121. Spanish question</t>
+  </si>
+  <si>
+    <t>122. Spanish question</t>
+  </si>
+  <si>
+    <t>123. Spanish question</t>
+  </si>
+  <si>
+    <t>124. Spanish question</t>
+  </si>
+  <si>
+    <t>125. Spanish question</t>
+  </si>
+  <si>
+    <t>126. Spanish question</t>
+  </si>
+  <si>
+    <t>127. Spanish question</t>
+  </si>
+  <si>
+    <t>128. Spanish question</t>
+  </si>
+  <si>
+    <t>129. Spanish question</t>
+  </si>
+  <si>
+    <t>130. Spanish question</t>
+  </si>
+  <si>
+    <t>131. Spanish question</t>
+  </si>
+  <si>
+    <t>132. Spanish question</t>
+  </si>
+  <si>
+    <t>133. Spanish question</t>
+  </si>
+  <si>
+    <t>134. Spanish question</t>
+  </si>
+  <si>
+    <t>135. Spanish question</t>
+  </si>
+  <si>
+    <t>136. Spanish question</t>
+  </si>
+  <si>
+    <t>137. Spanish question</t>
+  </si>
+  <si>
+    <t>138. Spanish question</t>
+  </si>
+  <si>
+    <t>139. Spanish question</t>
+  </si>
+  <si>
+    <t>140. Spanish question</t>
+  </si>
+  <si>
+    <t>141. Spanish question</t>
+  </si>
+  <si>
+    <t>142. Spanish question</t>
+  </si>
+  <si>
+    <t>143. Spanish question</t>
+  </si>
+  <si>
+    <t>144. Spanish question</t>
+  </si>
+  <si>
+    <t>145. Spanish question</t>
+  </si>
+  <si>
+    <t>146. Spanish question</t>
+  </si>
+  <si>
+    <t>147. Spanish question</t>
+  </si>
+  <si>
+    <t>148. Spanish question</t>
+  </si>
+  <si>
+    <t>149. Spanish question</t>
+  </si>
+  <si>
+    <t>150. Spanish question</t>
+  </si>
+  <si>
+    <t>151. Spanish question</t>
+  </si>
+  <si>
+    <t>152. Spanish question</t>
+  </si>
+  <si>
+    <t>153. Spanish question</t>
+  </si>
+  <si>
+    <t>154. Spanish question</t>
+  </si>
+  <si>
+    <t>155. Spanish question</t>
+  </si>
+  <si>
+    <t>156. Spanish question</t>
+  </si>
+  <si>
+    <t>157. Spanish question</t>
+  </si>
+  <si>
+    <t>158. Spanish question</t>
+  </si>
+  <si>
+    <t>159. Spanish question</t>
+  </si>
+  <si>
+    <t>160. Spanish question</t>
   </si>
 </sst>
 </file>
@@ -3863,15 +4703,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36A3347-166D-4930-B9BE-A2A96E4C6F8D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H522"/>
+  <dimension ref="A1:H802"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="A522" sqref="A522"/>
+    <sheetView tabSelected="1" topLeftCell="A766" workbookViewId="0">
+      <selection activeCell="F663" sqref="F663:F802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="92.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -17443,6 +18284,7286 @@
         <v>689</v>
       </c>
       <c r="H522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B523" t="s">
+        <v>419</v>
+      </c>
+      <c r="C523" t="s">
+        <v>420</v>
+      </c>
+      <c r="D523" t="s">
+        <v>421</v>
+      </c>
+      <c r="E523" t="s">
+        <v>86</v>
+      </c>
+      <c r="F523" t="s">
+        <v>168</v>
+      </c>
+      <c r="G523" t="s">
+        <v>408</v>
+      </c>
+      <c r="H523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B524" t="s">
+        <v>422</v>
+      </c>
+      <c r="C524" t="s">
+        <v>423</v>
+      </c>
+      <c r="D524" t="s">
+        <v>424</v>
+      </c>
+      <c r="E524" t="s">
+        <v>86</v>
+      </c>
+      <c r="F524" t="s">
+        <v>168</v>
+      </c>
+      <c r="G524" t="s">
+        <v>408</v>
+      </c>
+      <c r="H524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B525" t="s">
+        <v>425</v>
+      </c>
+      <c r="C525" t="s">
+        <v>426</v>
+      </c>
+      <c r="D525" t="s">
+        <v>427</v>
+      </c>
+      <c r="E525" t="s">
+        <v>86</v>
+      </c>
+      <c r="F525" t="s">
+        <v>168</v>
+      </c>
+      <c r="G525" t="s">
+        <v>408</v>
+      </c>
+      <c r="H525">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B526" t="s">
+        <v>428</v>
+      </c>
+      <c r="C526" t="s">
+        <v>429</v>
+      </c>
+      <c r="D526" t="s">
+        <v>430</v>
+      </c>
+      <c r="E526" t="s">
+        <v>86</v>
+      </c>
+      <c r="F526" t="s">
+        <v>168</v>
+      </c>
+      <c r="G526" t="s">
+        <v>408</v>
+      </c>
+      <c r="H526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B527" t="s">
+        <v>431</v>
+      </c>
+      <c r="C527" t="s">
+        <v>432</v>
+      </c>
+      <c r="D527" t="s">
+        <v>433</v>
+      </c>
+      <c r="E527" t="s">
+        <v>86</v>
+      </c>
+      <c r="F527" t="s">
+        <v>168</v>
+      </c>
+      <c r="G527" t="s">
+        <v>408</v>
+      </c>
+      <c r="H527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B528" t="s">
+        <v>434</v>
+      </c>
+      <c r="C528" t="s">
+        <v>435</v>
+      </c>
+      <c r="D528" t="s">
+        <v>436</v>
+      </c>
+      <c r="E528" t="s">
+        <v>86</v>
+      </c>
+      <c r="F528" t="s">
+        <v>168</v>
+      </c>
+      <c r="G528" t="s">
+        <v>408</v>
+      </c>
+      <c r="H528">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B529" t="s">
+        <v>437</v>
+      </c>
+      <c r="C529" t="s">
+        <v>438</v>
+      </c>
+      <c r="D529" t="s">
+        <v>439</v>
+      </c>
+      <c r="E529" t="s">
+        <v>86</v>
+      </c>
+      <c r="F529" t="s">
+        <v>168</v>
+      </c>
+      <c r="G529" t="s">
+        <v>408</v>
+      </c>
+      <c r="H529">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B530" t="s">
+        <v>440</v>
+      </c>
+      <c r="C530" t="s">
+        <v>441</v>
+      </c>
+      <c r="D530" t="s">
+        <v>442</v>
+      </c>
+      <c r="E530" t="s">
+        <v>86</v>
+      </c>
+      <c r="F530" t="s">
+        <v>168</v>
+      </c>
+      <c r="G530" t="s">
+        <v>408</v>
+      </c>
+      <c r="H530">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B531" t="s">
+        <v>443</v>
+      </c>
+      <c r="C531" t="s">
+        <v>444</v>
+      </c>
+      <c r="D531" t="s">
+        <v>445</v>
+      </c>
+      <c r="E531" t="s">
+        <v>86</v>
+      </c>
+      <c r="F531" t="s">
+        <v>168</v>
+      </c>
+      <c r="G531" t="s">
+        <v>408</v>
+      </c>
+      <c r="H531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B532" t="s">
+        <v>446</v>
+      </c>
+      <c r="C532" t="s">
+        <v>447</v>
+      </c>
+      <c r="D532" t="s">
+        <v>448</v>
+      </c>
+      <c r="E532" t="s">
+        <v>86</v>
+      </c>
+      <c r="F532" t="s">
+        <v>168</v>
+      </c>
+      <c r="G532" t="s">
+        <v>408</v>
+      </c>
+      <c r="H532">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B533" t="s">
+        <v>449</v>
+      </c>
+      <c r="C533" t="s">
+        <v>450</v>
+      </c>
+      <c r="D533" t="s">
+        <v>451</v>
+      </c>
+      <c r="E533" t="s">
+        <v>86</v>
+      </c>
+      <c r="F533" t="s">
+        <v>168</v>
+      </c>
+      <c r="G533" t="s">
+        <v>408</v>
+      </c>
+      <c r="H533">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B534" t="s">
+        <v>452</v>
+      </c>
+      <c r="C534" t="s">
+        <v>453</v>
+      </c>
+      <c r="D534" t="s">
+        <v>454</v>
+      </c>
+      <c r="E534" t="s">
+        <v>86</v>
+      </c>
+      <c r="F534" t="s">
+        <v>168</v>
+      </c>
+      <c r="G534" t="s">
+        <v>408</v>
+      </c>
+      <c r="H534">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B535" t="s">
+        <v>455</v>
+      </c>
+      <c r="C535" t="s">
+        <v>456</v>
+      </c>
+      <c r="D535" t="s">
+        <v>457</v>
+      </c>
+      <c r="E535" t="s">
+        <v>86</v>
+      </c>
+      <c r="F535" t="s">
+        <v>168</v>
+      </c>
+      <c r="G535" t="s">
+        <v>408</v>
+      </c>
+      <c r="H535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B536" t="s">
+        <v>458</v>
+      </c>
+      <c r="C536" t="s">
+        <v>459</v>
+      </c>
+      <c r="D536" t="s">
+        <v>460</v>
+      </c>
+      <c r="E536" t="s">
+        <v>86</v>
+      </c>
+      <c r="F536" t="s">
+        <v>168</v>
+      </c>
+      <c r="G536" t="s">
+        <v>408</v>
+      </c>
+      <c r="H536">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B537" t="s">
+        <v>461</v>
+      </c>
+      <c r="C537" t="s">
+        <v>462</v>
+      </c>
+      <c r="D537" t="s">
+        <v>463</v>
+      </c>
+      <c r="E537" t="s">
+        <v>86</v>
+      </c>
+      <c r="F537" t="s">
+        <v>168</v>
+      </c>
+      <c r="G537" t="s">
+        <v>408</v>
+      </c>
+      <c r="H537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B538" t="s">
+        <v>464</v>
+      </c>
+      <c r="C538" t="s">
+        <v>465</v>
+      </c>
+      <c r="D538" t="s">
+        <v>466</v>
+      </c>
+      <c r="E538" t="s">
+        <v>86</v>
+      </c>
+      <c r="F538" t="s">
+        <v>168</v>
+      </c>
+      <c r="G538" t="s">
+        <v>408</v>
+      </c>
+      <c r="H538">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B539" t="s">
+        <v>467</v>
+      </c>
+      <c r="C539" t="s">
+        <v>468</v>
+      </c>
+      <c r="D539" t="s">
+        <v>469</v>
+      </c>
+      <c r="E539" t="s">
+        <v>86</v>
+      </c>
+      <c r="F539" t="s">
+        <v>168</v>
+      </c>
+      <c r="G539" t="s">
+        <v>408</v>
+      </c>
+      <c r="H539">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B540" t="s">
+        <v>470</v>
+      </c>
+      <c r="C540" t="s">
+        <v>471</v>
+      </c>
+      <c r="D540" t="s">
+        <v>472</v>
+      </c>
+      <c r="E540" t="s">
+        <v>86</v>
+      </c>
+      <c r="F540" t="s">
+        <v>168</v>
+      </c>
+      <c r="G540" t="s">
+        <v>408</v>
+      </c>
+      <c r="H540">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B541" t="s">
+        <v>473</v>
+      </c>
+      <c r="C541" t="s">
+        <v>474</v>
+      </c>
+      <c r="D541" t="s">
+        <v>475</v>
+      </c>
+      <c r="E541" t="s">
+        <v>86</v>
+      </c>
+      <c r="F541" t="s">
+        <v>168</v>
+      </c>
+      <c r="G541" t="s">
+        <v>408</v>
+      </c>
+      <c r="H541">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B542" t="s">
+        <v>476</v>
+      </c>
+      <c r="C542" t="s">
+        <v>477</v>
+      </c>
+      <c r="D542" t="s">
+        <v>478</v>
+      </c>
+      <c r="E542" t="s">
+        <v>86</v>
+      </c>
+      <c r="F542" t="s">
+        <v>168</v>
+      </c>
+      <c r="G542" t="s">
+        <v>408</v>
+      </c>
+      <c r="H542">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B543" t="s">
+        <v>479</v>
+      </c>
+      <c r="C543" t="s">
+        <v>444</v>
+      </c>
+      <c r="D543" t="s">
+        <v>445</v>
+      </c>
+      <c r="E543" t="s">
+        <v>86</v>
+      </c>
+      <c r="F543" t="s">
+        <v>168</v>
+      </c>
+      <c r="G543" t="s">
+        <v>480</v>
+      </c>
+      <c r="H543">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B544" t="s">
+        <v>481</v>
+      </c>
+      <c r="C544" t="s">
+        <v>482</v>
+      </c>
+      <c r="D544" t="s">
+        <v>483</v>
+      </c>
+      <c r="E544" t="s">
+        <v>86</v>
+      </c>
+      <c r="F544" t="s">
+        <v>168</v>
+      </c>
+      <c r="G544" t="s">
+        <v>480</v>
+      </c>
+      <c r="H544">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B545" t="s">
+        <v>484</v>
+      </c>
+      <c r="C545" t="s">
+        <v>485</v>
+      </c>
+      <c r="D545" t="s">
+        <v>486</v>
+      </c>
+      <c r="E545" t="s">
+        <v>86</v>
+      </c>
+      <c r="F545" t="s">
+        <v>168</v>
+      </c>
+      <c r="G545" t="s">
+        <v>480</v>
+      </c>
+      <c r="H545">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B546" t="s">
+        <v>487</v>
+      </c>
+      <c r="C546" t="s">
+        <v>488</v>
+      </c>
+      <c r="D546" t="s">
+        <v>489</v>
+      </c>
+      <c r="E546" t="s">
+        <v>86</v>
+      </c>
+      <c r="F546" t="s">
+        <v>168</v>
+      </c>
+      <c r="G546" t="s">
+        <v>480</v>
+      </c>
+      <c r="H546">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B547" t="s">
+        <v>490</v>
+      </c>
+      <c r="C547" t="s">
+        <v>491</v>
+      </c>
+      <c r="D547" t="s">
+        <v>492</v>
+      </c>
+      <c r="E547" t="s">
+        <v>86</v>
+      </c>
+      <c r="F547" t="s">
+        <v>168</v>
+      </c>
+      <c r="G547" t="s">
+        <v>480</v>
+      </c>
+      <c r="H547">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B548" t="s">
+        <v>493</v>
+      </c>
+      <c r="C548" t="s">
+        <v>494</v>
+      </c>
+      <c r="D548" t="s">
+        <v>495</v>
+      </c>
+      <c r="E548" t="s">
+        <v>86</v>
+      </c>
+      <c r="F548" t="s">
+        <v>168</v>
+      </c>
+      <c r="G548" t="s">
+        <v>480</v>
+      </c>
+      <c r="H548">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B549" t="s">
+        <v>496</v>
+      </c>
+      <c r="C549" t="s">
+        <v>497</v>
+      </c>
+      <c r="D549" t="s">
+        <v>498</v>
+      </c>
+      <c r="E549" t="s">
+        <v>86</v>
+      </c>
+      <c r="F549" t="s">
+        <v>168</v>
+      </c>
+      <c r="G549" t="s">
+        <v>480</v>
+      </c>
+      <c r="H549">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B550" t="s">
+        <v>499</v>
+      </c>
+      <c r="C550" t="s">
+        <v>441</v>
+      </c>
+      <c r="D550" t="s">
+        <v>442</v>
+      </c>
+      <c r="E550" t="s">
+        <v>86</v>
+      </c>
+      <c r="F550" t="s">
+        <v>168</v>
+      </c>
+      <c r="G550" t="s">
+        <v>480</v>
+      </c>
+      <c r="H550">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B551" t="s">
+        <v>500</v>
+      </c>
+      <c r="C551" t="s">
+        <v>501</v>
+      </c>
+      <c r="D551" t="s">
+        <v>502</v>
+      </c>
+      <c r="E551" t="s">
+        <v>86</v>
+      </c>
+      <c r="F551" t="s">
+        <v>168</v>
+      </c>
+      <c r="G551" t="s">
+        <v>480</v>
+      </c>
+      <c r="H551">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B552" t="s">
+        <v>503</v>
+      </c>
+      <c r="C552" t="s">
+        <v>504</v>
+      </c>
+      <c r="D552" t="s">
+        <v>505</v>
+      </c>
+      <c r="E552" t="s">
+        <v>86</v>
+      </c>
+      <c r="F552" t="s">
+        <v>168</v>
+      </c>
+      <c r="G552" t="s">
+        <v>480</v>
+      </c>
+      <c r="H552">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B553" t="s">
+        <v>506</v>
+      </c>
+      <c r="C553" t="s">
+        <v>450</v>
+      </c>
+      <c r="D553" t="s">
+        <v>451</v>
+      </c>
+      <c r="E553" t="s">
+        <v>86</v>
+      </c>
+      <c r="F553" t="s">
+        <v>168</v>
+      </c>
+      <c r="G553" t="s">
+        <v>480</v>
+      </c>
+      <c r="H553">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B554" t="s">
+        <v>507</v>
+      </c>
+      <c r="C554" t="s">
+        <v>508</v>
+      </c>
+      <c r="D554" t="s">
+        <v>509</v>
+      </c>
+      <c r="E554" t="s">
+        <v>86</v>
+      </c>
+      <c r="F554" t="s">
+        <v>168</v>
+      </c>
+      <c r="G554" t="s">
+        <v>480</v>
+      </c>
+      <c r="H554">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B555" t="s">
+        <v>510</v>
+      </c>
+      <c r="C555" t="s">
+        <v>511</v>
+      </c>
+      <c r="D555" t="s">
+        <v>512</v>
+      </c>
+      <c r="E555" t="s">
+        <v>86</v>
+      </c>
+      <c r="F555" t="s">
+        <v>168</v>
+      </c>
+      <c r="G555" t="s">
+        <v>480</v>
+      </c>
+      <c r="H555">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B556" t="s">
+        <v>513</v>
+      </c>
+      <c r="C556" t="s">
+        <v>459</v>
+      </c>
+      <c r="D556" t="s">
+        <v>460</v>
+      </c>
+      <c r="E556" t="s">
+        <v>86</v>
+      </c>
+      <c r="F556" t="s">
+        <v>168</v>
+      </c>
+      <c r="G556" t="s">
+        <v>480</v>
+      </c>
+      <c r="H556">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B557" t="s">
+        <v>514</v>
+      </c>
+      <c r="C557" t="s">
+        <v>515</v>
+      </c>
+      <c r="D557" t="s">
+        <v>516</v>
+      </c>
+      <c r="E557" t="s">
+        <v>86</v>
+      </c>
+      <c r="F557" t="s">
+        <v>168</v>
+      </c>
+      <c r="G557" t="s">
+        <v>480</v>
+      </c>
+      <c r="H557">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B558" t="s">
+        <v>517</v>
+      </c>
+      <c r="C558" t="s">
+        <v>518</v>
+      </c>
+      <c r="D558" t="s">
+        <v>519</v>
+      </c>
+      <c r="E558" t="s">
+        <v>86</v>
+      </c>
+      <c r="F558" t="s">
+        <v>168</v>
+      </c>
+      <c r="G558" t="s">
+        <v>480</v>
+      </c>
+      <c r="H558">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B559" t="s">
+        <v>520</v>
+      </c>
+      <c r="C559" t="s">
+        <v>491</v>
+      </c>
+      <c r="D559" t="s">
+        <v>492</v>
+      </c>
+      <c r="E559" t="s">
+        <v>86</v>
+      </c>
+      <c r="F559" t="s">
+        <v>168</v>
+      </c>
+      <c r="G559" t="s">
+        <v>480</v>
+      </c>
+      <c r="H559">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B560" t="s">
+        <v>521</v>
+      </c>
+      <c r="C560" t="s">
+        <v>522</v>
+      </c>
+      <c r="D560" t="s">
+        <v>523</v>
+      </c>
+      <c r="E560" t="s">
+        <v>86</v>
+      </c>
+      <c r="F560" t="s">
+        <v>168</v>
+      </c>
+      <c r="G560" t="s">
+        <v>480</v>
+      </c>
+      <c r="H560">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B561" t="s">
+        <v>524</v>
+      </c>
+      <c r="C561" t="s">
+        <v>525</v>
+      </c>
+      <c r="D561" t="s">
+        <v>526</v>
+      </c>
+      <c r="E561" t="s">
+        <v>86</v>
+      </c>
+      <c r="F561" t="s">
+        <v>168</v>
+      </c>
+      <c r="G561" t="s">
+        <v>480</v>
+      </c>
+      <c r="H561">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B562" t="s">
+        <v>527</v>
+      </c>
+      <c r="C562" t="s">
+        <v>528</v>
+      </c>
+      <c r="D562" t="s">
+        <v>529</v>
+      </c>
+      <c r="E562" t="s">
+        <v>86</v>
+      </c>
+      <c r="F562" t="s">
+        <v>168</v>
+      </c>
+      <c r="G562" t="s">
+        <v>480</v>
+      </c>
+      <c r="H562">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B563" t="s">
+        <v>530</v>
+      </c>
+      <c r="C563" t="s">
+        <v>420</v>
+      </c>
+      <c r="D563" t="s">
+        <v>531</v>
+      </c>
+      <c r="E563" t="s">
+        <v>86</v>
+      </c>
+      <c r="F563" t="s">
+        <v>168</v>
+      </c>
+      <c r="G563" t="s">
+        <v>532</v>
+      </c>
+      <c r="H563">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B564" t="s">
+        <v>533</v>
+      </c>
+      <c r="C564" t="s">
+        <v>423</v>
+      </c>
+      <c r="D564" t="s">
+        <v>534</v>
+      </c>
+      <c r="E564" t="s">
+        <v>86</v>
+      </c>
+      <c r="F564" t="s">
+        <v>168</v>
+      </c>
+      <c r="G564" t="s">
+        <v>532</v>
+      </c>
+      <c r="H564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B565" t="s">
+        <v>535</v>
+      </c>
+      <c r="C565" t="s">
+        <v>536</v>
+      </c>
+      <c r="D565" t="s">
+        <v>537</v>
+      </c>
+      <c r="E565" t="s">
+        <v>86</v>
+      </c>
+      <c r="F565" t="s">
+        <v>168</v>
+      </c>
+      <c r="G565" t="s">
+        <v>532</v>
+      </c>
+      <c r="H565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B566" t="s">
+        <v>538</v>
+      </c>
+      <c r="C566" t="s">
+        <v>539</v>
+      </c>
+      <c r="D566" t="s">
+        <v>540</v>
+      </c>
+      <c r="E566" t="s">
+        <v>86</v>
+      </c>
+      <c r="F566" t="s">
+        <v>168</v>
+      </c>
+      <c r="G566" t="s">
+        <v>532</v>
+      </c>
+      <c r="H566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B567" t="s">
+        <v>541</v>
+      </c>
+      <c r="C567" t="s">
+        <v>542</v>
+      </c>
+      <c r="D567" t="s">
+        <v>543</v>
+      </c>
+      <c r="E567" t="s">
+        <v>86</v>
+      </c>
+      <c r="F567" t="s">
+        <v>168</v>
+      </c>
+      <c r="G567" t="s">
+        <v>532</v>
+      </c>
+      <c r="H567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B568" t="s">
+        <v>544</v>
+      </c>
+      <c r="C568" t="s">
+        <v>545</v>
+      </c>
+      <c r="D568" t="s">
+        <v>546</v>
+      </c>
+      <c r="E568" t="s">
+        <v>86</v>
+      </c>
+      <c r="F568" t="s">
+        <v>168</v>
+      </c>
+      <c r="G568" t="s">
+        <v>532</v>
+      </c>
+      <c r="H568">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B569" t="s">
+        <v>547</v>
+      </c>
+      <c r="C569" t="s">
+        <v>548</v>
+      </c>
+      <c r="D569" t="s">
+        <v>549</v>
+      </c>
+      <c r="E569" t="s">
+        <v>86</v>
+      </c>
+      <c r="F569" t="s">
+        <v>168</v>
+      </c>
+      <c r="G569" t="s">
+        <v>532</v>
+      </c>
+      <c r="H569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B570" t="s">
+        <v>550</v>
+      </c>
+      <c r="C570" t="s">
+        <v>551</v>
+      </c>
+      <c r="D570" t="s">
+        <v>552</v>
+      </c>
+      <c r="E570" t="s">
+        <v>86</v>
+      </c>
+      <c r="F570" t="s">
+        <v>168</v>
+      </c>
+      <c r="G570" t="s">
+        <v>532</v>
+      </c>
+      <c r="H570">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B571" t="s">
+        <v>553</v>
+      </c>
+      <c r="C571" t="s">
+        <v>554</v>
+      </c>
+      <c r="D571" t="s">
+        <v>555</v>
+      </c>
+      <c r="E571" t="s">
+        <v>86</v>
+      </c>
+      <c r="F571" t="s">
+        <v>168</v>
+      </c>
+      <c r="G571" t="s">
+        <v>532</v>
+      </c>
+      <c r="H571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B572" t="s">
+        <v>556</v>
+      </c>
+      <c r="C572" t="s">
+        <v>557</v>
+      </c>
+      <c r="D572" t="s">
+        <v>558</v>
+      </c>
+      <c r="E572" t="s">
+        <v>86</v>
+      </c>
+      <c r="F572" t="s">
+        <v>168</v>
+      </c>
+      <c r="G572" t="s">
+        <v>532</v>
+      </c>
+      <c r="H572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B573" t="s">
+        <v>559</v>
+      </c>
+      <c r="C573" t="s">
+        <v>560</v>
+      </c>
+      <c r="D573" t="s">
+        <v>561</v>
+      </c>
+      <c r="E573" t="s">
+        <v>86</v>
+      </c>
+      <c r="F573" t="s">
+        <v>168</v>
+      </c>
+      <c r="G573" t="s">
+        <v>532</v>
+      </c>
+      <c r="H573">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B574" t="s">
+        <v>562</v>
+      </c>
+      <c r="C574" t="s">
+        <v>563</v>
+      </c>
+      <c r="D574" t="s">
+        <v>564</v>
+      </c>
+      <c r="E574" t="s">
+        <v>86</v>
+      </c>
+      <c r="F574" t="s">
+        <v>168</v>
+      </c>
+      <c r="G574" t="s">
+        <v>532</v>
+      </c>
+      <c r="H574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B575" t="s">
+        <v>565</v>
+      </c>
+      <c r="C575" t="s">
+        <v>566</v>
+      </c>
+      <c r="D575" t="s">
+        <v>567</v>
+      </c>
+      <c r="E575" t="s">
+        <v>86</v>
+      </c>
+      <c r="F575" t="s">
+        <v>168</v>
+      </c>
+      <c r="G575" t="s">
+        <v>532</v>
+      </c>
+      <c r="H575">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B576" t="s">
+        <v>568</v>
+      </c>
+      <c r="C576" t="s">
+        <v>468</v>
+      </c>
+      <c r="D576" t="s">
+        <v>569</v>
+      </c>
+      <c r="E576" t="s">
+        <v>86</v>
+      </c>
+      <c r="F576" t="s">
+        <v>168</v>
+      </c>
+      <c r="G576" t="s">
+        <v>532</v>
+      </c>
+      <c r="H576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B577" t="s">
+        <v>570</v>
+      </c>
+      <c r="C577" t="s">
+        <v>571</v>
+      </c>
+      <c r="D577" t="s">
+        <v>572</v>
+      </c>
+      <c r="E577" t="s">
+        <v>86</v>
+      </c>
+      <c r="F577" t="s">
+        <v>168</v>
+      </c>
+      <c r="G577" t="s">
+        <v>532</v>
+      </c>
+      <c r="H577">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B578" t="s">
+        <v>573</v>
+      </c>
+      <c r="C578" t="s">
+        <v>459</v>
+      </c>
+      <c r="D578" t="s">
+        <v>574</v>
+      </c>
+      <c r="E578" t="s">
+        <v>86</v>
+      </c>
+      <c r="F578" t="s">
+        <v>168</v>
+      </c>
+      <c r="G578" t="s">
+        <v>532</v>
+      </c>
+      <c r="H578">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B579" t="s">
+        <v>575</v>
+      </c>
+      <c r="C579" t="s">
+        <v>576</v>
+      </c>
+      <c r="D579" t="s">
+        <v>577</v>
+      </c>
+      <c r="E579" t="s">
+        <v>86</v>
+      </c>
+      <c r="F579" t="s">
+        <v>168</v>
+      </c>
+      <c r="G579" t="s">
+        <v>532</v>
+      </c>
+      <c r="H579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B580" t="s">
+        <v>578</v>
+      </c>
+      <c r="C580" t="s">
+        <v>579</v>
+      </c>
+      <c r="D580" t="s">
+        <v>580</v>
+      </c>
+      <c r="E580" t="s">
+        <v>86</v>
+      </c>
+      <c r="F580" t="s">
+        <v>168</v>
+      </c>
+      <c r="G580" t="s">
+        <v>532</v>
+      </c>
+      <c r="H580">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B581" t="s">
+        <v>581</v>
+      </c>
+      <c r="C581" t="s">
+        <v>582</v>
+      </c>
+      <c r="D581" t="s">
+        <v>583</v>
+      </c>
+      <c r="E581" t="s">
+        <v>86</v>
+      </c>
+      <c r="F581" t="s">
+        <v>168</v>
+      </c>
+      <c r="G581" t="s">
+        <v>532</v>
+      </c>
+      <c r="H581">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B582" t="s">
+        <v>584</v>
+      </c>
+      <c r="C582" t="s">
+        <v>585</v>
+      </c>
+      <c r="D582" t="s">
+        <v>586</v>
+      </c>
+      <c r="E582" t="s">
+        <v>86</v>
+      </c>
+      <c r="F582" t="s">
+        <v>168</v>
+      </c>
+      <c r="G582" t="s">
+        <v>532</v>
+      </c>
+      <c r="H582">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B583" t="s">
+        <v>587</v>
+      </c>
+      <c r="C583" t="s">
+        <v>420</v>
+      </c>
+      <c r="D583" t="s">
+        <v>421</v>
+      </c>
+      <c r="E583" t="s">
+        <v>86</v>
+      </c>
+      <c r="F583" t="s">
+        <v>168</v>
+      </c>
+      <c r="G583" t="s">
+        <v>588</v>
+      </c>
+      <c r="H583">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B584" t="s">
+        <v>589</v>
+      </c>
+      <c r="C584" t="s">
+        <v>423</v>
+      </c>
+      <c r="D584" t="s">
+        <v>424</v>
+      </c>
+      <c r="E584" t="s">
+        <v>86</v>
+      </c>
+      <c r="F584" t="s">
+        <v>168</v>
+      </c>
+      <c r="G584" t="s">
+        <v>588</v>
+      </c>
+      <c r="H584">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B585" t="s">
+        <v>590</v>
+      </c>
+      <c r="C585" t="s">
+        <v>536</v>
+      </c>
+      <c r="D585" t="s">
+        <v>591</v>
+      </c>
+      <c r="E585" t="s">
+        <v>86</v>
+      </c>
+      <c r="F585" t="s">
+        <v>168</v>
+      </c>
+      <c r="G585" t="s">
+        <v>588</v>
+      </c>
+      <c r="H585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B586" t="s">
+        <v>592</v>
+      </c>
+      <c r="C586" t="s">
+        <v>539</v>
+      </c>
+      <c r="D586" t="s">
+        <v>593</v>
+      </c>
+      <c r="E586" t="s">
+        <v>86</v>
+      </c>
+      <c r="F586" t="s">
+        <v>168</v>
+      </c>
+      <c r="G586" t="s">
+        <v>588</v>
+      </c>
+      <c r="H586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B587" t="s">
+        <v>594</v>
+      </c>
+      <c r="C587" t="s">
+        <v>542</v>
+      </c>
+      <c r="D587" t="s">
+        <v>595</v>
+      </c>
+      <c r="E587" t="s">
+        <v>86</v>
+      </c>
+      <c r="F587" t="s">
+        <v>168</v>
+      </c>
+      <c r="G587" t="s">
+        <v>588</v>
+      </c>
+      <c r="H587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B588" t="s">
+        <v>596</v>
+      </c>
+      <c r="C588" t="s">
+        <v>545</v>
+      </c>
+      <c r="D588" t="s">
+        <v>597</v>
+      </c>
+      <c r="E588" t="s">
+        <v>86</v>
+      </c>
+      <c r="F588" t="s">
+        <v>168</v>
+      </c>
+      <c r="G588" t="s">
+        <v>588</v>
+      </c>
+      <c r="H588">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B589" t="s">
+        <v>598</v>
+      </c>
+      <c r="C589" t="s">
+        <v>548</v>
+      </c>
+      <c r="D589" t="s">
+        <v>599</v>
+      </c>
+      <c r="E589" t="s">
+        <v>86</v>
+      </c>
+      <c r="F589" t="s">
+        <v>168</v>
+      </c>
+      <c r="G589" t="s">
+        <v>588</v>
+      </c>
+      <c r="H589">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B590" t="s">
+        <v>600</v>
+      </c>
+      <c r="C590" t="s">
+        <v>551</v>
+      </c>
+      <c r="D590" t="s">
+        <v>601</v>
+      </c>
+      <c r="E590" t="s">
+        <v>86</v>
+      </c>
+      <c r="F590" t="s">
+        <v>168</v>
+      </c>
+      <c r="G590" t="s">
+        <v>588</v>
+      </c>
+      <c r="H590">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B591" t="s">
+        <v>602</v>
+      </c>
+      <c r="C591" t="s">
+        <v>554</v>
+      </c>
+      <c r="D591" t="s">
+        <v>603</v>
+      </c>
+      <c r="E591" t="s">
+        <v>86</v>
+      </c>
+      <c r="F591" t="s">
+        <v>168</v>
+      </c>
+      <c r="G591" t="s">
+        <v>588</v>
+      </c>
+      <c r="H591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B592" t="s">
+        <v>604</v>
+      </c>
+      <c r="C592" t="s">
+        <v>557</v>
+      </c>
+      <c r="D592" t="s">
+        <v>605</v>
+      </c>
+      <c r="E592" t="s">
+        <v>86</v>
+      </c>
+      <c r="F592" t="s">
+        <v>168</v>
+      </c>
+      <c r="G592" t="s">
+        <v>588</v>
+      </c>
+      <c r="H592">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B593" t="s">
+        <v>606</v>
+      </c>
+      <c r="C593" t="s">
+        <v>560</v>
+      </c>
+      <c r="D593" t="s">
+        <v>607</v>
+      </c>
+      <c r="E593" t="s">
+        <v>86</v>
+      </c>
+      <c r="F593" t="s">
+        <v>168</v>
+      </c>
+      <c r="G593" t="s">
+        <v>588</v>
+      </c>
+      <c r="H593">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B594" t="s">
+        <v>608</v>
+      </c>
+      <c r="C594" t="s">
+        <v>563</v>
+      </c>
+      <c r="D594" t="s">
+        <v>609</v>
+      </c>
+      <c r="E594" t="s">
+        <v>86</v>
+      </c>
+      <c r="F594" t="s">
+        <v>168</v>
+      </c>
+      <c r="G594" t="s">
+        <v>588</v>
+      </c>
+      <c r="H594">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B595" t="s">
+        <v>610</v>
+      </c>
+      <c r="C595" t="s">
+        <v>566</v>
+      </c>
+      <c r="D595" t="s">
+        <v>611</v>
+      </c>
+      <c r="E595" t="s">
+        <v>86</v>
+      </c>
+      <c r="F595" t="s">
+        <v>168</v>
+      </c>
+      <c r="G595" t="s">
+        <v>588</v>
+      </c>
+      <c r="H595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B596" t="s">
+        <v>612</v>
+      </c>
+      <c r="C596" t="s">
+        <v>468</v>
+      </c>
+      <c r="D596" t="s">
+        <v>469</v>
+      </c>
+      <c r="E596" t="s">
+        <v>86</v>
+      </c>
+      <c r="F596" t="s">
+        <v>168</v>
+      </c>
+      <c r="G596" t="s">
+        <v>588</v>
+      </c>
+      <c r="H596">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B597" t="s">
+        <v>613</v>
+      </c>
+      <c r="C597" t="s">
+        <v>571</v>
+      </c>
+      <c r="D597" t="s">
+        <v>614</v>
+      </c>
+      <c r="E597" t="s">
+        <v>86</v>
+      </c>
+      <c r="F597" t="s">
+        <v>168</v>
+      </c>
+      <c r="G597" t="s">
+        <v>588</v>
+      </c>
+      <c r="H597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B598" t="s">
+        <v>615</v>
+      </c>
+      <c r="C598" t="s">
+        <v>459</v>
+      </c>
+      <c r="D598" t="s">
+        <v>460</v>
+      </c>
+      <c r="E598" t="s">
+        <v>86</v>
+      </c>
+      <c r="F598" t="s">
+        <v>168</v>
+      </c>
+      <c r="G598" t="s">
+        <v>588</v>
+      </c>
+      <c r="H598">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B599" t="s">
+        <v>616</v>
+      </c>
+      <c r="C599" t="s">
+        <v>576</v>
+      </c>
+      <c r="D599" t="s">
+        <v>617</v>
+      </c>
+      <c r="E599" t="s">
+        <v>86</v>
+      </c>
+      <c r="F599" t="s">
+        <v>168</v>
+      </c>
+      <c r="G599" t="s">
+        <v>588</v>
+      </c>
+      <c r="H599">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B600" t="s">
+        <v>618</v>
+      </c>
+      <c r="C600" t="s">
+        <v>579</v>
+      </c>
+      <c r="D600" t="s">
+        <v>619</v>
+      </c>
+      <c r="E600" t="s">
+        <v>86</v>
+      </c>
+      <c r="F600" t="s">
+        <v>168</v>
+      </c>
+      <c r="G600" t="s">
+        <v>588</v>
+      </c>
+      <c r="H600">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B601" t="s">
+        <v>620</v>
+      </c>
+      <c r="C601" t="s">
+        <v>582</v>
+      </c>
+      <c r="D601" t="s">
+        <v>621</v>
+      </c>
+      <c r="E601" t="s">
+        <v>86</v>
+      </c>
+      <c r="F601" t="s">
+        <v>168</v>
+      </c>
+      <c r="G601" t="s">
+        <v>588</v>
+      </c>
+      <c r="H601">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B602" t="s">
+        <v>622</v>
+      </c>
+      <c r="C602" t="s">
+        <v>585</v>
+      </c>
+      <c r="D602" t="s">
+        <v>623</v>
+      </c>
+      <c r="E602" t="s">
+        <v>86</v>
+      </c>
+      <c r="F602" t="s">
+        <v>168</v>
+      </c>
+      <c r="G602" t="s">
+        <v>588</v>
+      </c>
+      <c r="H602">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B603" t="s">
+        <v>624</v>
+      </c>
+      <c r="C603" t="s">
+        <v>420</v>
+      </c>
+      <c r="D603" t="s">
+        <v>421</v>
+      </c>
+      <c r="E603" t="s">
+        <v>86</v>
+      </c>
+      <c r="F603" t="s">
+        <v>168</v>
+      </c>
+      <c r="G603" t="s">
+        <v>625</v>
+      </c>
+      <c r="H603">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B604" t="s">
+        <v>626</v>
+      </c>
+      <c r="C604" t="s">
+        <v>423</v>
+      </c>
+      <c r="D604" t="s">
+        <v>424</v>
+      </c>
+      <c r="E604" t="s">
+        <v>86</v>
+      </c>
+      <c r="F604" t="s">
+        <v>168</v>
+      </c>
+      <c r="G604" t="s">
+        <v>625</v>
+      </c>
+      <c r="H604">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B605" t="s">
+        <v>627</v>
+      </c>
+      <c r="C605" t="s">
+        <v>536</v>
+      </c>
+      <c r="D605" t="s">
+        <v>591</v>
+      </c>
+      <c r="E605" t="s">
+        <v>86</v>
+      </c>
+      <c r="F605" t="s">
+        <v>168</v>
+      </c>
+      <c r="G605" t="s">
+        <v>625</v>
+      </c>
+      <c r="H605">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B606" t="s">
+        <v>628</v>
+      </c>
+      <c r="C606" t="s">
+        <v>539</v>
+      </c>
+      <c r="D606" t="s">
+        <v>593</v>
+      </c>
+      <c r="E606" t="s">
+        <v>86</v>
+      </c>
+      <c r="F606" t="s">
+        <v>168</v>
+      </c>
+      <c r="G606" t="s">
+        <v>625</v>
+      </c>
+      <c r="H606">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B607" t="s">
+        <v>629</v>
+      </c>
+      <c r="C607" t="s">
+        <v>542</v>
+      </c>
+      <c r="D607" t="s">
+        <v>595</v>
+      </c>
+      <c r="E607" t="s">
+        <v>86</v>
+      </c>
+      <c r="F607" t="s">
+        <v>168</v>
+      </c>
+      <c r="G607" t="s">
+        <v>625</v>
+      </c>
+      <c r="H607">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B608" t="s">
+        <v>630</v>
+      </c>
+      <c r="C608" t="s">
+        <v>545</v>
+      </c>
+      <c r="D608" t="s">
+        <v>597</v>
+      </c>
+      <c r="E608" t="s">
+        <v>86</v>
+      </c>
+      <c r="F608" t="s">
+        <v>168</v>
+      </c>
+      <c r="G608" t="s">
+        <v>625</v>
+      </c>
+      <c r="H608">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B609" t="s">
+        <v>631</v>
+      </c>
+      <c r="C609" t="s">
+        <v>548</v>
+      </c>
+      <c r="D609" t="s">
+        <v>599</v>
+      </c>
+      <c r="E609" t="s">
+        <v>86</v>
+      </c>
+      <c r="F609" t="s">
+        <v>168</v>
+      </c>
+      <c r="G609" t="s">
+        <v>625</v>
+      </c>
+      <c r="H609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B610" t="s">
+        <v>632</v>
+      </c>
+      <c r="C610" t="s">
+        <v>551</v>
+      </c>
+      <c r="D610" t="s">
+        <v>601</v>
+      </c>
+      <c r="E610" t="s">
+        <v>86</v>
+      </c>
+      <c r="F610" t="s">
+        <v>168</v>
+      </c>
+      <c r="G610" t="s">
+        <v>625</v>
+      </c>
+      <c r="H610">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B611" t="s">
+        <v>633</v>
+      </c>
+      <c r="C611" t="s">
+        <v>554</v>
+      </c>
+      <c r="D611" t="s">
+        <v>603</v>
+      </c>
+      <c r="E611" t="s">
+        <v>86</v>
+      </c>
+      <c r="F611" t="s">
+        <v>168</v>
+      </c>
+      <c r="G611" t="s">
+        <v>625</v>
+      </c>
+      <c r="H611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B612" t="s">
+        <v>634</v>
+      </c>
+      <c r="C612" t="s">
+        <v>557</v>
+      </c>
+      <c r="D612" t="s">
+        <v>605</v>
+      </c>
+      <c r="E612" t="s">
+        <v>86</v>
+      </c>
+      <c r="F612" t="s">
+        <v>168</v>
+      </c>
+      <c r="G612" t="s">
+        <v>625</v>
+      </c>
+      <c r="H612">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B613" t="s">
+        <v>635</v>
+      </c>
+      <c r="C613" t="s">
+        <v>560</v>
+      </c>
+      <c r="D613" t="s">
+        <v>607</v>
+      </c>
+      <c r="E613" t="s">
+        <v>86</v>
+      </c>
+      <c r="F613" t="s">
+        <v>168</v>
+      </c>
+      <c r="G613" t="s">
+        <v>625</v>
+      </c>
+      <c r="H613">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B614" t="s">
+        <v>636</v>
+      </c>
+      <c r="C614" t="s">
+        <v>563</v>
+      </c>
+      <c r="D614" t="s">
+        <v>609</v>
+      </c>
+      <c r="E614" t="s">
+        <v>86</v>
+      </c>
+      <c r="F614" t="s">
+        <v>168</v>
+      </c>
+      <c r="G614" t="s">
+        <v>625</v>
+      </c>
+      <c r="H614">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B615" t="s">
+        <v>637</v>
+      </c>
+      <c r="C615" t="s">
+        <v>566</v>
+      </c>
+      <c r="D615" t="s">
+        <v>611</v>
+      </c>
+      <c r="E615" t="s">
+        <v>86</v>
+      </c>
+      <c r="F615" t="s">
+        <v>168</v>
+      </c>
+      <c r="G615" t="s">
+        <v>625</v>
+      </c>
+      <c r="H615">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B616" t="s">
+        <v>638</v>
+      </c>
+      <c r="C616" t="s">
+        <v>468</v>
+      </c>
+      <c r="D616" t="s">
+        <v>469</v>
+      </c>
+      <c r="E616" t="s">
+        <v>86</v>
+      </c>
+      <c r="F616" t="s">
+        <v>168</v>
+      </c>
+      <c r="G616" t="s">
+        <v>625</v>
+      </c>
+      <c r="H616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B617" t="s">
+        <v>639</v>
+      </c>
+      <c r="C617" t="s">
+        <v>571</v>
+      </c>
+      <c r="D617" t="s">
+        <v>614</v>
+      </c>
+      <c r="E617" t="s">
+        <v>86</v>
+      </c>
+      <c r="F617" t="s">
+        <v>168</v>
+      </c>
+      <c r="G617" t="s">
+        <v>625</v>
+      </c>
+      <c r="H617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B618" t="s">
+        <v>640</v>
+      </c>
+      <c r="C618" t="s">
+        <v>459</v>
+      </c>
+      <c r="D618" t="s">
+        <v>460</v>
+      </c>
+      <c r="E618" t="s">
+        <v>86</v>
+      </c>
+      <c r="F618" t="s">
+        <v>168</v>
+      </c>
+      <c r="G618" t="s">
+        <v>625</v>
+      </c>
+      <c r="H618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B619" t="s">
+        <v>641</v>
+      </c>
+      <c r="C619" t="s">
+        <v>576</v>
+      </c>
+      <c r="D619" t="s">
+        <v>617</v>
+      </c>
+      <c r="E619" t="s">
+        <v>86</v>
+      </c>
+      <c r="F619" t="s">
+        <v>168</v>
+      </c>
+      <c r="G619" t="s">
+        <v>625</v>
+      </c>
+      <c r="H619">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B620" t="s">
+        <v>642</v>
+      </c>
+      <c r="C620" t="s">
+        <v>579</v>
+      </c>
+      <c r="D620" t="s">
+        <v>619</v>
+      </c>
+      <c r="E620" t="s">
+        <v>86</v>
+      </c>
+      <c r="F620" t="s">
+        <v>168</v>
+      </c>
+      <c r="G620" t="s">
+        <v>625</v>
+      </c>
+      <c r="H620">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B621" t="s">
+        <v>643</v>
+      </c>
+      <c r="C621" t="s">
+        <v>582</v>
+      </c>
+      <c r="D621" t="s">
+        <v>621</v>
+      </c>
+      <c r="E621" t="s">
+        <v>86</v>
+      </c>
+      <c r="F621" t="s">
+        <v>168</v>
+      </c>
+      <c r="G621" t="s">
+        <v>625</v>
+      </c>
+      <c r="H621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B622" t="s">
+        <v>644</v>
+      </c>
+      <c r="C622" t="s">
+        <v>585</v>
+      </c>
+      <c r="D622" t="s">
+        <v>623</v>
+      </c>
+      <c r="E622" t="s">
+        <v>86</v>
+      </c>
+      <c r="F622" t="s">
+        <v>168</v>
+      </c>
+      <c r="G622" t="s">
+        <v>625</v>
+      </c>
+      <c r="H622">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B623" t="s">
+        <v>645</v>
+      </c>
+      <c r="C623" t="s">
+        <v>646</v>
+      </c>
+      <c r="D623" t="s">
+        <v>647</v>
+      </c>
+      <c r="E623" t="s">
+        <v>86</v>
+      </c>
+      <c r="F623" t="s">
+        <v>168</v>
+      </c>
+      <c r="G623" t="s">
+        <v>648</v>
+      </c>
+      <c r="H623">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B624" t="s">
+        <v>481</v>
+      </c>
+      <c r="C624" t="s">
+        <v>649</v>
+      </c>
+      <c r="D624" t="s">
+        <v>650</v>
+      </c>
+      <c r="E624" t="s">
+        <v>86</v>
+      </c>
+      <c r="F624" t="s">
+        <v>168</v>
+      </c>
+      <c r="G624" t="s">
+        <v>648</v>
+      </c>
+      <c r="H624">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B625" t="s">
+        <v>651</v>
+      </c>
+      <c r="C625" t="s">
+        <v>536</v>
+      </c>
+      <c r="D625" t="s">
+        <v>652</v>
+      </c>
+      <c r="E625" t="s">
+        <v>86</v>
+      </c>
+      <c r="F625" t="s">
+        <v>168</v>
+      </c>
+      <c r="G625" t="s">
+        <v>648</v>
+      </c>
+      <c r="H625">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B626" t="s">
+        <v>653</v>
+      </c>
+      <c r="C626" t="s">
+        <v>654</v>
+      </c>
+      <c r="D626" t="s">
+        <v>655</v>
+      </c>
+      <c r="E626" t="s">
+        <v>86</v>
+      </c>
+      <c r="F626" t="s">
+        <v>168</v>
+      </c>
+      <c r="G626" t="s">
+        <v>648</v>
+      </c>
+      <c r="H626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B627" t="s">
+        <v>656</v>
+      </c>
+      <c r="C627" t="s">
+        <v>542</v>
+      </c>
+      <c r="D627" t="s">
+        <v>543</v>
+      </c>
+      <c r="E627" t="s">
+        <v>86</v>
+      </c>
+      <c r="F627" t="s">
+        <v>168</v>
+      </c>
+      <c r="G627" t="s">
+        <v>648</v>
+      </c>
+      <c r="H627">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B628" t="s">
+        <v>657</v>
+      </c>
+      <c r="C628" t="s">
+        <v>658</v>
+      </c>
+      <c r="D628" t="s">
+        <v>659</v>
+      </c>
+      <c r="E628" t="s">
+        <v>86</v>
+      </c>
+      <c r="F628" t="s">
+        <v>168</v>
+      </c>
+      <c r="G628" t="s">
+        <v>648</v>
+      </c>
+      <c r="H628">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B629" t="s">
+        <v>660</v>
+      </c>
+      <c r="C629" t="s">
+        <v>661</v>
+      </c>
+      <c r="D629" t="s">
+        <v>549</v>
+      </c>
+      <c r="E629" t="s">
+        <v>86</v>
+      </c>
+      <c r="F629" t="s">
+        <v>168</v>
+      </c>
+      <c r="G629" t="s">
+        <v>648</v>
+      </c>
+      <c r="H629">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B630" t="s">
+        <v>662</v>
+      </c>
+      <c r="C630" t="s">
+        <v>663</v>
+      </c>
+      <c r="D630" t="s">
+        <v>664</v>
+      </c>
+      <c r="E630" t="s">
+        <v>86</v>
+      </c>
+      <c r="F630" t="s">
+        <v>168</v>
+      </c>
+      <c r="G630" t="s">
+        <v>648</v>
+      </c>
+      <c r="H630">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B631" t="s">
+        <v>665</v>
+      </c>
+      <c r="C631" t="s">
+        <v>554</v>
+      </c>
+      <c r="D631" t="s">
+        <v>555</v>
+      </c>
+      <c r="E631" t="s">
+        <v>86</v>
+      </c>
+      <c r="F631" t="s">
+        <v>168</v>
+      </c>
+      <c r="G631" t="s">
+        <v>648</v>
+      </c>
+      <c r="H631">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B632" t="s">
+        <v>666</v>
+      </c>
+      <c r="C632" t="s">
+        <v>557</v>
+      </c>
+      <c r="D632" t="s">
+        <v>558</v>
+      </c>
+      <c r="E632" t="s">
+        <v>86</v>
+      </c>
+      <c r="F632" t="s">
+        <v>168</v>
+      </c>
+      <c r="G632" t="s">
+        <v>648</v>
+      </c>
+      <c r="H632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B633" t="s">
+        <v>667</v>
+      </c>
+      <c r="C633" t="s">
+        <v>668</v>
+      </c>
+      <c r="D633" t="s">
+        <v>669</v>
+      </c>
+      <c r="E633" t="s">
+        <v>86</v>
+      </c>
+      <c r="F633" t="s">
+        <v>168</v>
+      </c>
+      <c r="G633" t="s">
+        <v>648</v>
+      </c>
+      <c r="H633">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B634" t="s">
+        <v>670</v>
+      </c>
+      <c r="C634" t="s">
+        <v>563</v>
+      </c>
+      <c r="D634" t="s">
+        <v>671</v>
+      </c>
+      <c r="E634" t="s">
+        <v>86</v>
+      </c>
+      <c r="F634" t="s">
+        <v>168</v>
+      </c>
+      <c r="G634" t="s">
+        <v>648</v>
+      </c>
+      <c r="H634">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B635" t="s">
+        <v>672</v>
+      </c>
+      <c r="C635" t="s">
+        <v>485</v>
+      </c>
+      <c r="D635" t="s">
+        <v>673</v>
+      </c>
+      <c r="E635" t="s">
+        <v>86</v>
+      </c>
+      <c r="F635" t="s">
+        <v>168</v>
+      </c>
+      <c r="G635" t="s">
+        <v>648</v>
+      </c>
+      <c r="H635">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B636" t="s">
+        <v>674</v>
+      </c>
+      <c r="C636" t="s">
+        <v>435</v>
+      </c>
+      <c r="D636" t="s">
+        <v>569</v>
+      </c>
+      <c r="E636" t="s">
+        <v>86</v>
+      </c>
+      <c r="F636" t="s">
+        <v>168</v>
+      </c>
+      <c r="G636" t="s">
+        <v>648</v>
+      </c>
+      <c r="H636">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B637" t="s">
+        <v>479</v>
+      </c>
+      <c r="C637" t="s">
+        <v>444</v>
+      </c>
+      <c r="D637" t="s">
+        <v>675</v>
+      </c>
+      <c r="E637" t="s">
+        <v>86</v>
+      </c>
+      <c r="F637" t="s">
+        <v>168</v>
+      </c>
+      <c r="G637" t="s">
+        <v>648</v>
+      </c>
+      <c r="H637">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B638" t="s">
+        <v>676</v>
+      </c>
+      <c r="C638" t="s">
+        <v>677</v>
+      </c>
+      <c r="D638" t="s">
+        <v>678</v>
+      </c>
+      <c r="E638" t="s">
+        <v>86</v>
+      </c>
+      <c r="F638" t="s">
+        <v>168</v>
+      </c>
+      <c r="G638" t="s">
+        <v>648</v>
+      </c>
+      <c r="H638">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B639" t="s">
+        <v>679</v>
+      </c>
+      <c r="C639" t="s">
+        <v>576</v>
+      </c>
+      <c r="D639" t="s">
+        <v>577</v>
+      </c>
+      <c r="E639" t="s">
+        <v>86</v>
+      </c>
+      <c r="F639" t="s">
+        <v>168</v>
+      </c>
+      <c r="G639" t="s">
+        <v>648</v>
+      </c>
+      <c r="H639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B640" t="s">
+        <v>680</v>
+      </c>
+      <c r="C640" t="s">
+        <v>579</v>
+      </c>
+      <c r="D640" t="s">
+        <v>681</v>
+      </c>
+      <c r="E640" t="s">
+        <v>86</v>
+      </c>
+      <c r="F640" t="s">
+        <v>168</v>
+      </c>
+      <c r="G640" t="s">
+        <v>648</v>
+      </c>
+      <c r="H640">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B641" t="s">
+        <v>682</v>
+      </c>
+      <c r="C641" t="s">
+        <v>582</v>
+      </c>
+      <c r="D641" t="s">
+        <v>583</v>
+      </c>
+      <c r="E641" t="s">
+        <v>86</v>
+      </c>
+      <c r="F641" t="s">
+        <v>168</v>
+      </c>
+      <c r="G641" t="s">
+        <v>648</v>
+      </c>
+      <c r="H641">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B642" t="s">
+        <v>683</v>
+      </c>
+      <c r="C642" t="s">
+        <v>684</v>
+      </c>
+      <c r="D642" t="s">
+        <v>685</v>
+      </c>
+      <c r="E642" t="s">
+        <v>86</v>
+      </c>
+      <c r="F642" t="s">
+        <v>168</v>
+      </c>
+      <c r="G642" t="s">
+        <v>648</v>
+      </c>
+      <c r="H642">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B643" t="s">
+        <v>686</v>
+      </c>
+      <c r="C643" t="s">
+        <v>687</v>
+      </c>
+      <c r="D643" t="s">
+        <v>688</v>
+      </c>
+      <c r="E643" t="s">
+        <v>86</v>
+      </c>
+      <c r="F643" t="s">
+        <v>168</v>
+      </c>
+      <c r="G643" t="s">
+        <v>689</v>
+      </c>
+      <c r="H643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B644" t="s">
+        <v>690</v>
+      </c>
+      <c r="C644" t="s">
+        <v>691</v>
+      </c>
+      <c r="D644" t="s">
+        <v>692</v>
+      </c>
+      <c r="E644" t="s">
+        <v>86</v>
+      </c>
+      <c r="F644" t="s">
+        <v>168</v>
+      </c>
+      <c r="G644" t="s">
+        <v>689</v>
+      </c>
+      <c r="H644">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B645" t="s">
+        <v>693</v>
+      </c>
+      <c r="C645" t="s">
+        <v>694</v>
+      </c>
+      <c r="D645" t="s">
+        <v>695</v>
+      </c>
+      <c r="E645" t="s">
+        <v>86</v>
+      </c>
+      <c r="F645" t="s">
+        <v>168</v>
+      </c>
+      <c r="G645" t="s">
+        <v>689</v>
+      </c>
+      <c r="H645">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B646" t="s">
+        <v>696</v>
+      </c>
+      <c r="C646" t="s">
+        <v>697</v>
+      </c>
+      <c r="D646" t="s">
+        <v>698</v>
+      </c>
+      <c r="E646" t="s">
+        <v>86</v>
+      </c>
+      <c r="F646" t="s">
+        <v>168</v>
+      </c>
+      <c r="G646" t="s">
+        <v>689</v>
+      </c>
+      <c r="H646">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B647" t="s">
+        <v>699</v>
+      </c>
+      <c r="C647" t="s">
+        <v>435</v>
+      </c>
+      <c r="D647" t="s">
+        <v>700</v>
+      </c>
+      <c r="E647" t="s">
+        <v>86</v>
+      </c>
+      <c r="F647" t="s">
+        <v>168</v>
+      </c>
+      <c r="G647" t="s">
+        <v>689</v>
+      </c>
+      <c r="H647">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B648" t="s">
+        <v>701</v>
+      </c>
+      <c r="C648" t="s">
+        <v>702</v>
+      </c>
+      <c r="D648" t="s">
+        <v>703</v>
+      </c>
+      <c r="E648" t="s">
+        <v>86</v>
+      </c>
+      <c r="F648" t="s">
+        <v>168</v>
+      </c>
+      <c r="G648" t="s">
+        <v>689</v>
+      </c>
+      <c r="H648">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B649" t="s">
+        <v>704</v>
+      </c>
+      <c r="C649" t="s">
+        <v>661</v>
+      </c>
+      <c r="D649" t="s">
+        <v>705</v>
+      </c>
+      <c r="E649" t="s">
+        <v>86</v>
+      </c>
+      <c r="F649" t="s">
+        <v>168</v>
+      </c>
+      <c r="G649" t="s">
+        <v>689</v>
+      </c>
+      <c r="H649">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B650" t="s">
+        <v>706</v>
+      </c>
+      <c r="C650" t="s">
+        <v>663</v>
+      </c>
+      <c r="D650" t="s">
+        <v>707</v>
+      </c>
+      <c r="E650" t="s">
+        <v>86</v>
+      </c>
+      <c r="F650" t="s">
+        <v>168</v>
+      </c>
+      <c r="G650" t="s">
+        <v>689</v>
+      </c>
+      <c r="H650">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B651" t="s">
+        <v>708</v>
+      </c>
+      <c r="C651" t="s">
+        <v>709</v>
+      </c>
+      <c r="D651" t="s">
+        <v>710</v>
+      </c>
+      <c r="E651" t="s">
+        <v>86</v>
+      </c>
+      <c r="F651" t="s">
+        <v>168</v>
+      </c>
+      <c r="G651" t="s">
+        <v>689</v>
+      </c>
+      <c r="H651">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B652" t="s">
+        <v>711</v>
+      </c>
+      <c r="C652" t="s">
+        <v>557</v>
+      </c>
+      <c r="D652" t="s">
+        <v>712</v>
+      </c>
+      <c r="E652" t="s">
+        <v>86</v>
+      </c>
+      <c r="F652" t="s">
+        <v>168</v>
+      </c>
+      <c r="G652" t="s">
+        <v>689</v>
+      </c>
+      <c r="H652">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B653" t="s">
+        <v>713</v>
+      </c>
+      <c r="C653" t="s">
+        <v>714</v>
+      </c>
+      <c r="D653" t="s">
+        <v>715</v>
+      </c>
+      <c r="E653" t="s">
+        <v>86</v>
+      </c>
+      <c r="F653" t="s">
+        <v>168</v>
+      </c>
+      <c r="G653" t="s">
+        <v>689</v>
+      </c>
+      <c r="H653">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B654" t="s">
+        <v>716</v>
+      </c>
+      <c r="C654" t="s">
+        <v>563</v>
+      </c>
+      <c r="D654" t="s">
+        <v>717</v>
+      </c>
+      <c r="E654" t="s">
+        <v>86</v>
+      </c>
+      <c r="F654" t="s">
+        <v>168</v>
+      </c>
+      <c r="G654" t="s">
+        <v>689</v>
+      </c>
+      <c r="H654">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B655" t="s">
+        <v>718</v>
+      </c>
+      <c r="C655" t="s">
+        <v>719</v>
+      </c>
+      <c r="D655" t="s">
+        <v>720</v>
+      </c>
+      <c r="E655" t="s">
+        <v>86</v>
+      </c>
+      <c r="F655" t="s">
+        <v>168</v>
+      </c>
+      <c r="G655" t="s">
+        <v>689</v>
+      </c>
+      <c r="H655">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B656" t="s">
+        <v>721</v>
+      </c>
+      <c r="C656" t="s">
+        <v>528</v>
+      </c>
+      <c r="D656" t="s">
+        <v>722</v>
+      </c>
+      <c r="E656" t="s">
+        <v>86</v>
+      </c>
+      <c r="F656" t="s">
+        <v>168</v>
+      </c>
+      <c r="G656" t="s">
+        <v>689</v>
+      </c>
+      <c r="H656">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B657" t="s">
+        <v>723</v>
+      </c>
+      <c r="C657" t="s">
+        <v>459</v>
+      </c>
+      <c r="D657" t="s">
+        <v>724</v>
+      </c>
+      <c r="E657" t="s">
+        <v>86</v>
+      </c>
+      <c r="F657" t="s">
+        <v>168</v>
+      </c>
+      <c r="G657" t="s">
+        <v>689</v>
+      </c>
+      <c r="H657">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B658" t="s">
+        <v>725</v>
+      </c>
+      <c r="C658" t="s">
+        <v>726</v>
+      </c>
+      <c r="D658" t="s">
+        <v>727</v>
+      </c>
+      <c r="E658" t="s">
+        <v>86</v>
+      </c>
+      <c r="F658" t="s">
+        <v>168</v>
+      </c>
+      <c r="G658" t="s">
+        <v>689</v>
+      </c>
+      <c r="H658">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B659" t="s">
+        <v>728</v>
+      </c>
+      <c r="C659" t="s">
+        <v>444</v>
+      </c>
+      <c r="D659" t="s">
+        <v>729</v>
+      </c>
+      <c r="E659" t="s">
+        <v>86</v>
+      </c>
+      <c r="F659" t="s">
+        <v>168</v>
+      </c>
+      <c r="G659" t="s">
+        <v>689</v>
+      </c>
+      <c r="H659">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B660" t="s">
+        <v>716</v>
+      </c>
+      <c r="C660" t="s">
+        <v>563</v>
+      </c>
+      <c r="D660" t="s">
+        <v>717</v>
+      </c>
+      <c r="E660" t="s">
+        <v>86</v>
+      </c>
+      <c r="F660" t="s">
+        <v>168</v>
+      </c>
+      <c r="G660" t="s">
+        <v>689</v>
+      </c>
+      <c r="H660">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B661" t="s">
+        <v>730</v>
+      </c>
+      <c r="C661" t="s">
+        <v>731</v>
+      </c>
+      <c r="D661" t="s">
+        <v>732</v>
+      </c>
+      <c r="E661" t="s">
+        <v>86</v>
+      </c>
+      <c r="F661" t="s">
+        <v>168</v>
+      </c>
+      <c r="G661" t="s">
+        <v>689</v>
+      </c>
+      <c r="H661">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B662" t="s">
+        <v>733</v>
+      </c>
+      <c r="C662" t="s">
+        <v>734</v>
+      </c>
+      <c r="D662" t="s">
+        <v>735</v>
+      </c>
+      <c r="E662" t="s">
+        <v>86</v>
+      </c>
+      <c r="F662" t="s">
+        <v>168</v>
+      </c>
+      <c r="G662" t="s">
+        <v>689</v>
+      </c>
+      <c r="H662">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B663" t="s">
+        <v>419</v>
+      </c>
+      <c r="C663" t="s">
+        <v>420</v>
+      </c>
+      <c r="D663" t="s">
+        <v>421</v>
+      </c>
+      <c r="E663" t="s">
+        <v>86</v>
+      </c>
+      <c r="F663" t="s">
+        <v>167</v>
+      </c>
+      <c r="G663" t="s">
+        <v>408</v>
+      </c>
+      <c r="H663">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B664" t="s">
+        <v>422</v>
+      </c>
+      <c r="C664" t="s">
+        <v>423</v>
+      </c>
+      <c r="D664" t="s">
+        <v>424</v>
+      </c>
+      <c r="E664" t="s">
+        <v>86</v>
+      </c>
+      <c r="F664" t="s">
+        <v>167</v>
+      </c>
+      <c r="G664" t="s">
+        <v>408</v>
+      </c>
+      <c r="H664">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B665" t="s">
+        <v>425</v>
+      </c>
+      <c r="C665" t="s">
+        <v>426</v>
+      </c>
+      <c r="D665" t="s">
+        <v>427</v>
+      </c>
+      <c r="E665" t="s">
+        <v>86</v>
+      </c>
+      <c r="F665" t="s">
+        <v>167</v>
+      </c>
+      <c r="G665" t="s">
+        <v>408</v>
+      </c>
+      <c r="H665">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B666" t="s">
+        <v>428</v>
+      </c>
+      <c r="C666" t="s">
+        <v>429</v>
+      </c>
+      <c r="D666" t="s">
+        <v>430</v>
+      </c>
+      <c r="E666" t="s">
+        <v>86</v>
+      </c>
+      <c r="F666" t="s">
+        <v>167</v>
+      </c>
+      <c r="G666" t="s">
+        <v>408</v>
+      </c>
+      <c r="H666">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B667" t="s">
+        <v>431</v>
+      </c>
+      <c r="C667" t="s">
+        <v>432</v>
+      </c>
+      <c r="D667" t="s">
+        <v>433</v>
+      </c>
+      <c r="E667" t="s">
+        <v>86</v>
+      </c>
+      <c r="F667" t="s">
+        <v>167</v>
+      </c>
+      <c r="G667" t="s">
+        <v>408</v>
+      </c>
+      <c r="H667">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B668" t="s">
+        <v>434</v>
+      </c>
+      <c r="C668" t="s">
+        <v>435</v>
+      </c>
+      <c r="D668" t="s">
+        <v>436</v>
+      </c>
+      <c r="E668" t="s">
+        <v>86</v>
+      </c>
+      <c r="F668" t="s">
+        <v>167</v>
+      </c>
+      <c r="G668" t="s">
+        <v>408</v>
+      </c>
+      <c r="H668">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B669" t="s">
+        <v>437</v>
+      </c>
+      <c r="C669" t="s">
+        <v>438</v>
+      </c>
+      <c r="D669" t="s">
+        <v>439</v>
+      </c>
+      <c r="E669" t="s">
+        <v>86</v>
+      </c>
+      <c r="F669" t="s">
+        <v>167</v>
+      </c>
+      <c r="G669" t="s">
+        <v>408</v>
+      </c>
+      <c r="H669">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B670" t="s">
+        <v>440</v>
+      </c>
+      <c r="C670" t="s">
+        <v>441</v>
+      </c>
+      <c r="D670" t="s">
+        <v>442</v>
+      </c>
+      <c r="E670" t="s">
+        <v>86</v>
+      </c>
+      <c r="F670" t="s">
+        <v>167</v>
+      </c>
+      <c r="G670" t="s">
+        <v>408</v>
+      </c>
+      <c r="H670">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B671" t="s">
+        <v>443</v>
+      </c>
+      <c r="C671" t="s">
+        <v>444</v>
+      </c>
+      <c r="D671" t="s">
+        <v>445</v>
+      </c>
+      <c r="E671" t="s">
+        <v>86</v>
+      </c>
+      <c r="F671" t="s">
+        <v>167</v>
+      </c>
+      <c r="G671" t="s">
+        <v>408</v>
+      </c>
+      <c r="H671">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B672" t="s">
+        <v>446</v>
+      </c>
+      <c r="C672" t="s">
+        <v>447</v>
+      </c>
+      <c r="D672" t="s">
+        <v>448</v>
+      </c>
+      <c r="E672" t="s">
+        <v>86</v>
+      </c>
+      <c r="F672" t="s">
+        <v>167</v>
+      </c>
+      <c r="G672" t="s">
+        <v>408</v>
+      </c>
+      <c r="H672">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B673" t="s">
+        <v>449</v>
+      </c>
+      <c r="C673" t="s">
+        <v>450</v>
+      </c>
+      <c r="D673" t="s">
+        <v>451</v>
+      </c>
+      <c r="E673" t="s">
+        <v>86</v>
+      </c>
+      <c r="F673" t="s">
+        <v>167</v>
+      </c>
+      <c r="G673" t="s">
+        <v>408</v>
+      </c>
+      <c r="H673">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B674" t="s">
+        <v>452</v>
+      </c>
+      <c r="C674" t="s">
+        <v>453</v>
+      </c>
+      <c r="D674" t="s">
+        <v>454</v>
+      </c>
+      <c r="E674" t="s">
+        <v>86</v>
+      </c>
+      <c r="F674" t="s">
+        <v>167</v>
+      </c>
+      <c r="G674" t="s">
+        <v>408</v>
+      </c>
+      <c r="H674">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B675" t="s">
+        <v>455</v>
+      </c>
+      <c r="C675" t="s">
+        <v>456</v>
+      </c>
+      <c r="D675" t="s">
+        <v>457</v>
+      </c>
+      <c r="E675" t="s">
+        <v>86</v>
+      </c>
+      <c r="F675" t="s">
+        <v>167</v>
+      </c>
+      <c r="G675" t="s">
+        <v>408</v>
+      </c>
+      <c r="H675">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B676" t="s">
+        <v>458</v>
+      </c>
+      <c r="C676" t="s">
+        <v>459</v>
+      </c>
+      <c r="D676" t="s">
+        <v>460</v>
+      </c>
+      <c r="E676" t="s">
+        <v>86</v>
+      </c>
+      <c r="F676" t="s">
+        <v>167</v>
+      </c>
+      <c r="G676" t="s">
+        <v>408</v>
+      </c>
+      <c r="H676">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B677" t="s">
+        <v>461</v>
+      </c>
+      <c r="C677" t="s">
+        <v>462</v>
+      </c>
+      <c r="D677" t="s">
+        <v>463</v>
+      </c>
+      <c r="E677" t="s">
+        <v>86</v>
+      </c>
+      <c r="F677" t="s">
+        <v>167</v>
+      </c>
+      <c r="G677" t="s">
+        <v>408</v>
+      </c>
+      <c r="H677">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B678" t="s">
+        <v>464</v>
+      </c>
+      <c r="C678" t="s">
+        <v>465</v>
+      </c>
+      <c r="D678" t="s">
+        <v>466</v>
+      </c>
+      <c r="E678" t="s">
+        <v>86</v>
+      </c>
+      <c r="F678" t="s">
+        <v>167</v>
+      </c>
+      <c r="G678" t="s">
+        <v>408</v>
+      </c>
+      <c r="H678">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B679" t="s">
+        <v>467</v>
+      </c>
+      <c r="C679" t="s">
+        <v>468</v>
+      </c>
+      <c r="D679" t="s">
+        <v>469</v>
+      </c>
+      <c r="E679" t="s">
+        <v>86</v>
+      </c>
+      <c r="F679" t="s">
+        <v>167</v>
+      </c>
+      <c r="G679" t="s">
+        <v>408</v>
+      </c>
+      <c r="H679">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B680" t="s">
+        <v>470</v>
+      </c>
+      <c r="C680" t="s">
+        <v>471</v>
+      </c>
+      <c r="D680" t="s">
+        <v>472</v>
+      </c>
+      <c r="E680" t="s">
+        <v>86</v>
+      </c>
+      <c r="F680" t="s">
+        <v>167</v>
+      </c>
+      <c r="G680" t="s">
+        <v>408</v>
+      </c>
+      <c r="H680">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B681" t="s">
+        <v>473</v>
+      </c>
+      <c r="C681" t="s">
+        <v>474</v>
+      </c>
+      <c r="D681" t="s">
+        <v>475</v>
+      </c>
+      <c r="E681" t="s">
+        <v>86</v>
+      </c>
+      <c r="F681" t="s">
+        <v>167</v>
+      </c>
+      <c r="G681" t="s">
+        <v>408</v>
+      </c>
+      <c r="H681">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B682" t="s">
+        <v>476</v>
+      </c>
+      <c r="C682" t="s">
+        <v>477</v>
+      </c>
+      <c r="D682" t="s">
+        <v>478</v>
+      </c>
+      <c r="E682" t="s">
+        <v>86</v>
+      </c>
+      <c r="F682" t="s">
+        <v>167</v>
+      </c>
+      <c r="G682" t="s">
+        <v>408</v>
+      </c>
+      <c r="H682">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B683" t="s">
+        <v>479</v>
+      </c>
+      <c r="C683" t="s">
+        <v>444</v>
+      </c>
+      <c r="D683" t="s">
+        <v>445</v>
+      </c>
+      <c r="E683" t="s">
+        <v>86</v>
+      </c>
+      <c r="F683" t="s">
+        <v>167</v>
+      </c>
+      <c r="G683" t="s">
+        <v>480</v>
+      </c>
+      <c r="H683">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B684" t="s">
+        <v>481</v>
+      </c>
+      <c r="C684" t="s">
+        <v>482</v>
+      </c>
+      <c r="D684" t="s">
+        <v>483</v>
+      </c>
+      <c r="E684" t="s">
+        <v>86</v>
+      </c>
+      <c r="F684" t="s">
+        <v>167</v>
+      </c>
+      <c r="G684" t="s">
+        <v>480</v>
+      </c>
+      <c r="H684">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B685" t="s">
+        <v>484</v>
+      </c>
+      <c r="C685" t="s">
+        <v>485</v>
+      </c>
+      <c r="D685" t="s">
+        <v>486</v>
+      </c>
+      <c r="E685" t="s">
+        <v>86</v>
+      </c>
+      <c r="F685" t="s">
+        <v>167</v>
+      </c>
+      <c r="G685" t="s">
+        <v>480</v>
+      </c>
+      <c r="H685">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B686" t="s">
+        <v>487</v>
+      </c>
+      <c r="C686" t="s">
+        <v>488</v>
+      </c>
+      <c r="D686" t="s">
+        <v>489</v>
+      </c>
+      <c r="E686" t="s">
+        <v>86</v>
+      </c>
+      <c r="F686" t="s">
+        <v>167</v>
+      </c>
+      <c r="G686" t="s">
+        <v>480</v>
+      </c>
+      <c r="H686">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B687" t="s">
+        <v>490</v>
+      </c>
+      <c r="C687" t="s">
+        <v>491</v>
+      </c>
+      <c r="D687" t="s">
+        <v>492</v>
+      </c>
+      <c r="E687" t="s">
+        <v>86</v>
+      </c>
+      <c r="F687" t="s">
+        <v>167</v>
+      </c>
+      <c r="G687" t="s">
+        <v>480</v>
+      </c>
+      <c r="H687">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B688" t="s">
+        <v>493</v>
+      </c>
+      <c r="C688" t="s">
+        <v>494</v>
+      </c>
+      <c r="D688" t="s">
+        <v>495</v>
+      </c>
+      <c r="E688" t="s">
+        <v>86</v>
+      </c>
+      <c r="F688" t="s">
+        <v>167</v>
+      </c>
+      <c r="G688" t="s">
+        <v>480</v>
+      </c>
+      <c r="H688">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B689" t="s">
+        <v>496</v>
+      </c>
+      <c r="C689" t="s">
+        <v>497</v>
+      </c>
+      <c r="D689" t="s">
+        <v>498</v>
+      </c>
+      <c r="E689" t="s">
+        <v>86</v>
+      </c>
+      <c r="F689" t="s">
+        <v>167</v>
+      </c>
+      <c r="G689" t="s">
+        <v>480</v>
+      </c>
+      <c r="H689">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B690" t="s">
+        <v>499</v>
+      </c>
+      <c r="C690" t="s">
+        <v>441</v>
+      </c>
+      <c r="D690" t="s">
+        <v>442</v>
+      </c>
+      <c r="E690" t="s">
+        <v>86</v>
+      </c>
+      <c r="F690" t="s">
+        <v>167</v>
+      </c>
+      <c r="G690" t="s">
+        <v>480</v>
+      </c>
+      <c r="H690">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B691" t="s">
+        <v>500</v>
+      </c>
+      <c r="C691" t="s">
+        <v>501</v>
+      </c>
+      <c r="D691" t="s">
+        <v>502</v>
+      </c>
+      <c r="E691" t="s">
+        <v>86</v>
+      </c>
+      <c r="F691" t="s">
+        <v>167</v>
+      </c>
+      <c r="G691" t="s">
+        <v>480</v>
+      </c>
+      <c r="H691">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B692" t="s">
+        <v>503</v>
+      </c>
+      <c r="C692" t="s">
+        <v>504</v>
+      </c>
+      <c r="D692" t="s">
+        <v>505</v>
+      </c>
+      <c r="E692" t="s">
+        <v>86</v>
+      </c>
+      <c r="F692" t="s">
+        <v>167</v>
+      </c>
+      <c r="G692" t="s">
+        <v>480</v>
+      </c>
+      <c r="H692">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B693" t="s">
+        <v>506</v>
+      </c>
+      <c r="C693" t="s">
+        <v>450</v>
+      </c>
+      <c r="D693" t="s">
+        <v>451</v>
+      </c>
+      <c r="E693" t="s">
+        <v>86</v>
+      </c>
+      <c r="F693" t="s">
+        <v>167</v>
+      </c>
+      <c r="G693" t="s">
+        <v>480</v>
+      </c>
+      <c r="H693">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B694" t="s">
+        <v>507</v>
+      </c>
+      <c r="C694" t="s">
+        <v>508</v>
+      </c>
+      <c r="D694" t="s">
+        <v>509</v>
+      </c>
+      <c r="E694" t="s">
+        <v>86</v>
+      </c>
+      <c r="F694" t="s">
+        <v>167</v>
+      </c>
+      <c r="G694" t="s">
+        <v>480</v>
+      </c>
+      <c r="H694">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B695" t="s">
+        <v>510</v>
+      </c>
+      <c r="C695" t="s">
+        <v>511</v>
+      </c>
+      <c r="D695" t="s">
+        <v>512</v>
+      </c>
+      <c r="E695" t="s">
+        <v>86</v>
+      </c>
+      <c r="F695" t="s">
+        <v>167</v>
+      </c>
+      <c r="G695" t="s">
+        <v>480</v>
+      </c>
+      <c r="H695">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B696" t="s">
+        <v>513</v>
+      </c>
+      <c r="C696" t="s">
+        <v>459</v>
+      </c>
+      <c r="D696" t="s">
+        <v>460</v>
+      </c>
+      <c r="E696" t="s">
+        <v>86</v>
+      </c>
+      <c r="F696" t="s">
+        <v>167</v>
+      </c>
+      <c r="G696" t="s">
+        <v>480</v>
+      </c>
+      <c r="H696">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B697" t="s">
+        <v>514</v>
+      </c>
+      <c r="C697" t="s">
+        <v>515</v>
+      </c>
+      <c r="D697" t="s">
+        <v>516</v>
+      </c>
+      <c r="E697" t="s">
+        <v>86</v>
+      </c>
+      <c r="F697" t="s">
+        <v>167</v>
+      </c>
+      <c r="G697" t="s">
+        <v>480</v>
+      </c>
+      <c r="H697">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B698" t="s">
+        <v>517</v>
+      </c>
+      <c r="C698" t="s">
+        <v>518</v>
+      </c>
+      <c r="D698" t="s">
+        <v>519</v>
+      </c>
+      <c r="E698" t="s">
+        <v>86</v>
+      </c>
+      <c r="F698" t="s">
+        <v>167</v>
+      </c>
+      <c r="G698" t="s">
+        <v>480</v>
+      </c>
+      <c r="H698">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B699" t="s">
+        <v>520</v>
+      </c>
+      <c r="C699" t="s">
+        <v>491</v>
+      </c>
+      <c r="D699" t="s">
+        <v>492</v>
+      </c>
+      <c r="E699" t="s">
+        <v>86</v>
+      </c>
+      <c r="F699" t="s">
+        <v>167</v>
+      </c>
+      <c r="G699" t="s">
+        <v>480</v>
+      </c>
+      <c r="H699">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B700" t="s">
+        <v>521</v>
+      </c>
+      <c r="C700" t="s">
+        <v>522</v>
+      </c>
+      <c r="D700" t="s">
+        <v>523</v>
+      </c>
+      <c r="E700" t="s">
+        <v>86</v>
+      </c>
+      <c r="F700" t="s">
+        <v>167</v>
+      </c>
+      <c r="G700" t="s">
+        <v>480</v>
+      </c>
+      <c r="H700">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B701" t="s">
+        <v>524</v>
+      </c>
+      <c r="C701" t="s">
+        <v>525</v>
+      </c>
+      <c r="D701" t="s">
+        <v>526</v>
+      </c>
+      <c r="E701" t="s">
+        <v>86</v>
+      </c>
+      <c r="F701" t="s">
+        <v>167</v>
+      </c>
+      <c r="G701" t="s">
+        <v>480</v>
+      </c>
+      <c r="H701">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B702" t="s">
+        <v>527</v>
+      </c>
+      <c r="C702" t="s">
+        <v>528</v>
+      </c>
+      <c r="D702" t="s">
+        <v>529</v>
+      </c>
+      <c r="E702" t="s">
+        <v>86</v>
+      </c>
+      <c r="F702" t="s">
+        <v>167</v>
+      </c>
+      <c r="G702" t="s">
+        <v>480</v>
+      </c>
+      <c r="H702">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B703" t="s">
+        <v>530</v>
+      </c>
+      <c r="C703" t="s">
+        <v>420</v>
+      </c>
+      <c r="D703" t="s">
+        <v>531</v>
+      </c>
+      <c r="E703" t="s">
+        <v>86</v>
+      </c>
+      <c r="F703" t="s">
+        <v>167</v>
+      </c>
+      <c r="G703" t="s">
+        <v>532</v>
+      </c>
+      <c r="H703">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B704" t="s">
+        <v>533</v>
+      </c>
+      <c r="C704" t="s">
+        <v>423</v>
+      </c>
+      <c r="D704" t="s">
+        <v>534</v>
+      </c>
+      <c r="E704" t="s">
+        <v>86</v>
+      </c>
+      <c r="F704" t="s">
+        <v>167</v>
+      </c>
+      <c r="G704" t="s">
+        <v>532</v>
+      </c>
+      <c r="H704">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B705" t="s">
+        <v>535</v>
+      </c>
+      <c r="C705" t="s">
+        <v>536</v>
+      </c>
+      <c r="D705" t="s">
+        <v>537</v>
+      </c>
+      <c r="E705" t="s">
+        <v>86</v>
+      </c>
+      <c r="F705" t="s">
+        <v>167</v>
+      </c>
+      <c r="G705" t="s">
+        <v>532</v>
+      </c>
+      <c r="H705">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B706" t="s">
+        <v>538</v>
+      </c>
+      <c r="C706" t="s">
+        <v>539</v>
+      </c>
+      <c r="D706" t="s">
+        <v>540</v>
+      </c>
+      <c r="E706" t="s">
+        <v>86</v>
+      </c>
+      <c r="F706" t="s">
+        <v>167</v>
+      </c>
+      <c r="G706" t="s">
+        <v>532</v>
+      </c>
+      <c r="H706">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B707" t="s">
+        <v>541</v>
+      </c>
+      <c r="C707" t="s">
+        <v>542</v>
+      </c>
+      <c r="D707" t="s">
+        <v>543</v>
+      </c>
+      <c r="E707" t="s">
+        <v>86</v>
+      </c>
+      <c r="F707" t="s">
+        <v>167</v>
+      </c>
+      <c r="G707" t="s">
+        <v>532</v>
+      </c>
+      <c r="H707">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B708" t="s">
+        <v>544</v>
+      </c>
+      <c r="C708" t="s">
+        <v>545</v>
+      </c>
+      <c r="D708" t="s">
+        <v>546</v>
+      </c>
+      <c r="E708" t="s">
+        <v>86</v>
+      </c>
+      <c r="F708" t="s">
+        <v>167</v>
+      </c>
+      <c r="G708" t="s">
+        <v>532</v>
+      </c>
+      <c r="H708">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B709" t="s">
+        <v>547</v>
+      </c>
+      <c r="C709" t="s">
+        <v>548</v>
+      </c>
+      <c r="D709" t="s">
+        <v>549</v>
+      </c>
+      <c r="E709" t="s">
+        <v>86</v>
+      </c>
+      <c r="F709" t="s">
+        <v>167</v>
+      </c>
+      <c r="G709" t="s">
+        <v>532</v>
+      </c>
+      <c r="H709">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B710" t="s">
+        <v>550</v>
+      </c>
+      <c r="C710" t="s">
+        <v>551</v>
+      </c>
+      <c r="D710" t="s">
+        <v>552</v>
+      </c>
+      <c r="E710" t="s">
+        <v>86</v>
+      </c>
+      <c r="F710" t="s">
+        <v>167</v>
+      </c>
+      <c r="G710" t="s">
+        <v>532</v>
+      </c>
+      <c r="H710">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B711" t="s">
+        <v>553</v>
+      </c>
+      <c r="C711" t="s">
+        <v>554</v>
+      </c>
+      <c r="D711" t="s">
+        <v>555</v>
+      </c>
+      <c r="E711" t="s">
+        <v>86</v>
+      </c>
+      <c r="F711" t="s">
+        <v>167</v>
+      </c>
+      <c r="G711" t="s">
+        <v>532</v>
+      </c>
+      <c r="H711">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B712" t="s">
+        <v>556</v>
+      </c>
+      <c r="C712" t="s">
+        <v>557</v>
+      </c>
+      <c r="D712" t="s">
+        <v>558</v>
+      </c>
+      <c r="E712" t="s">
+        <v>86</v>
+      </c>
+      <c r="F712" t="s">
+        <v>167</v>
+      </c>
+      <c r="G712" t="s">
+        <v>532</v>
+      </c>
+      <c r="H712">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B713" t="s">
+        <v>559</v>
+      </c>
+      <c r="C713" t="s">
+        <v>560</v>
+      </c>
+      <c r="D713" t="s">
+        <v>561</v>
+      </c>
+      <c r="E713" t="s">
+        <v>86</v>
+      </c>
+      <c r="F713" t="s">
+        <v>167</v>
+      </c>
+      <c r="G713" t="s">
+        <v>532</v>
+      </c>
+      <c r="H713">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B714" t="s">
+        <v>562</v>
+      </c>
+      <c r="C714" t="s">
+        <v>563</v>
+      </c>
+      <c r="D714" t="s">
+        <v>564</v>
+      </c>
+      <c r="E714" t="s">
+        <v>86</v>
+      </c>
+      <c r="F714" t="s">
+        <v>167</v>
+      </c>
+      <c r="G714" t="s">
+        <v>532</v>
+      </c>
+      <c r="H714">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B715" t="s">
+        <v>565</v>
+      </c>
+      <c r="C715" t="s">
+        <v>566</v>
+      </c>
+      <c r="D715" t="s">
+        <v>567</v>
+      </c>
+      <c r="E715" t="s">
+        <v>86</v>
+      </c>
+      <c r="F715" t="s">
+        <v>167</v>
+      </c>
+      <c r="G715" t="s">
+        <v>532</v>
+      </c>
+      <c r="H715">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B716" t="s">
+        <v>568</v>
+      </c>
+      <c r="C716" t="s">
+        <v>468</v>
+      </c>
+      <c r="D716" t="s">
+        <v>569</v>
+      </c>
+      <c r="E716" t="s">
+        <v>86</v>
+      </c>
+      <c r="F716" t="s">
+        <v>167</v>
+      </c>
+      <c r="G716" t="s">
+        <v>532</v>
+      </c>
+      <c r="H716">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B717" t="s">
+        <v>570</v>
+      </c>
+      <c r="C717" t="s">
+        <v>571</v>
+      </c>
+      <c r="D717" t="s">
+        <v>572</v>
+      </c>
+      <c r="E717" t="s">
+        <v>86</v>
+      </c>
+      <c r="F717" t="s">
+        <v>167</v>
+      </c>
+      <c r="G717" t="s">
+        <v>532</v>
+      </c>
+      <c r="H717">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B718" t="s">
+        <v>573</v>
+      </c>
+      <c r="C718" t="s">
+        <v>459</v>
+      </c>
+      <c r="D718" t="s">
+        <v>574</v>
+      </c>
+      <c r="E718" t="s">
+        <v>86</v>
+      </c>
+      <c r="F718" t="s">
+        <v>167</v>
+      </c>
+      <c r="G718" t="s">
+        <v>532</v>
+      </c>
+      <c r="H718">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B719" t="s">
+        <v>575</v>
+      </c>
+      <c r="C719" t="s">
+        <v>576</v>
+      </c>
+      <c r="D719" t="s">
+        <v>577</v>
+      </c>
+      <c r="E719" t="s">
+        <v>86</v>
+      </c>
+      <c r="F719" t="s">
+        <v>167</v>
+      </c>
+      <c r="G719" t="s">
+        <v>532</v>
+      </c>
+      <c r="H719">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B720" t="s">
+        <v>578</v>
+      </c>
+      <c r="C720" t="s">
+        <v>579</v>
+      </c>
+      <c r="D720" t="s">
+        <v>580</v>
+      </c>
+      <c r="E720" t="s">
+        <v>86</v>
+      </c>
+      <c r="F720" t="s">
+        <v>167</v>
+      </c>
+      <c r="G720" t="s">
+        <v>532</v>
+      </c>
+      <c r="H720">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B721" t="s">
+        <v>581</v>
+      </c>
+      <c r="C721" t="s">
+        <v>582</v>
+      </c>
+      <c r="D721" t="s">
+        <v>583</v>
+      </c>
+      <c r="E721" t="s">
+        <v>86</v>
+      </c>
+      <c r="F721" t="s">
+        <v>167</v>
+      </c>
+      <c r="G721" t="s">
+        <v>532</v>
+      </c>
+      <c r="H721">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B722" t="s">
+        <v>584</v>
+      </c>
+      <c r="C722" t="s">
+        <v>585</v>
+      </c>
+      <c r="D722" t="s">
+        <v>586</v>
+      </c>
+      <c r="E722" t="s">
+        <v>86</v>
+      </c>
+      <c r="F722" t="s">
+        <v>167</v>
+      </c>
+      <c r="G722" t="s">
+        <v>532</v>
+      </c>
+      <c r="H722">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B723" t="s">
+        <v>587</v>
+      </c>
+      <c r="C723" t="s">
+        <v>420</v>
+      </c>
+      <c r="D723" t="s">
+        <v>421</v>
+      </c>
+      <c r="E723" t="s">
+        <v>86</v>
+      </c>
+      <c r="F723" t="s">
+        <v>167</v>
+      </c>
+      <c r="G723" t="s">
+        <v>588</v>
+      </c>
+      <c r="H723">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B724" t="s">
+        <v>589</v>
+      </c>
+      <c r="C724" t="s">
+        <v>423</v>
+      </c>
+      <c r="D724" t="s">
+        <v>424</v>
+      </c>
+      <c r="E724" t="s">
+        <v>86</v>
+      </c>
+      <c r="F724" t="s">
+        <v>167</v>
+      </c>
+      <c r="G724" t="s">
+        <v>588</v>
+      </c>
+      <c r="H724">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B725" t="s">
+        <v>590</v>
+      </c>
+      <c r="C725" t="s">
+        <v>536</v>
+      </c>
+      <c r="D725" t="s">
+        <v>591</v>
+      </c>
+      <c r="E725" t="s">
+        <v>86</v>
+      </c>
+      <c r="F725" t="s">
+        <v>167</v>
+      </c>
+      <c r="G725" t="s">
+        <v>588</v>
+      </c>
+      <c r="H725">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B726" t="s">
+        <v>592</v>
+      </c>
+      <c r="C726" t="s">
+        <v>539</v>
+      </c>
+      <c r="D726" t="s">
+        <v>593</v>
+      </c>
+      <c r="E726" t="s">
+        <v>86</v>
+      </c>
+      <c r="F726" t="s">
+        <v>167</v>
+      </c>
+      <c r="G726" t="s">
+        <v>588</v>
+      </c>
+      <c r="H726">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B727" t="s">
+        <v>594</v>
+      </c>
+      <c r="C727" t="s">
+        <v>542</v>
+      </c>
+      <c r="D727" t="s">
+        <v>595</v>
+      </c>
+      <c r="E727" t="s">
+        <v>86</v>
+      </c>
+      <c r="F727" t="s">
+        <v>167</v>
+      </c>
+      <c r="G727" t="s">
+        <v>588</v>
+      </c>
+      <c r="H727">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B728" t="s">
+        <v>596</v>
+      </c>
+      <c r="C728" t="s">
+        <v>545</v>
+      </c>
+      <c r="D728" t="s">
+        <v>597</v>
+      </c>
+      <c r="E728" t="s">
+        <v>86</v>
+      </c>
+      <c r="F728" t="s">
+        <v>167</v>
+      </c>
+      <c r="G728" t="s">
+        <v>588</v>
+      </c>
+      <c r="H728">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B729" t="s">
+        <v>598</v>
+      </c>
+      <c r="C729" t="s">
+        <v>548</v>
+      </c>
+      <c r="D729" t="s">
+        <v>599</v>
+      </c>
+      <c r="E729" t="s">
+        <v>86</v>
+      </c>
+      <c r="F729" t="s">
+        <v>167</v>
+      </c>
+      <c r="G729" t="s">
+        <v>588</v>
+      </c>
+      <c r="H729">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B730" t="s">
+        <v>600</v>
+      </c>
+      <c r="C730" t="s">
+        <v>551</v>
+      </c>
+      <c r="D730" t="s">
+        <v>601</v>
+      </c>
+      <c r="E730" t="s">
+        <v>86</v>
+      </c>
+      <c r="F730" t="s">
+        <v>167</v>
+      </c>
+      <c r="G730" t="s">
+        <v>588</v>
+      </c>
+      <c r="H730">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B731" t="s">
+        <v>602</v>
+      </c>
+      <c r="C731" t="s">
+        <v>554</v>
+      </c>
+      <c r="D731" t="s">
+        <v>603</v>
+      </c>
+      <c r="E731" t="s">
+        <v>86</v>
+      </c>
+      <c r="F731" t="s">
+        <v>167</v>
+      </c>
+      <c r="G731" t="s">
+        <v>588</v>
+      </c>
+      <c r="H731">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B732" t="s">
+        <v>604</v>
+      </c>
+      <c r="C732" t="s">
+        <v>557</v>
+      </c>
+      <c r="D732" t="s">
+        <v>605</v>
+      </c>
+      <c r="E732" t="s">
+        <v>86</v>
+      </c>
+      <c r="F732" t="s">
+        <v>167</v>
+      </c>
+      <c r="G732" t="s">
+        <v>588</v>
+      </c>
+      <c r="H732">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B733" t="s">
+        <v>606</v>
+      </c>
+      <c r="C733" t="s">
+        <v>560</v>
+      </c>
+      <c r="D733" t="s">
+        <v>607</v>
+      </c>
+      <c r="E733" t="s">
+        <v>86</v>
+      </c>
+      <c r="F733" t="s">
+        <v>167</v>
+      </c>
+      <c r="G733" t="s">
+        <v>588</v>
+      </c>
+      <c r="H733">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B734" t="s">
+        <v>608</v>
+      </c>
+      <c r="C734" t="s">
+        <v>563</v>
+      </c>
+      <c r="D734" t="s">
+        <v>609</v>
+      </c>
+      <c r="E734" t="s">
+        <v>86</v>
+      </c>
+      <c r="F734" t="s">
+        <v>167</v>
+      </c>
+      <c r="G734" t="s">
+        <v>588</v>
+      </c>
+      <c r="H734">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B735" t="s">
+        <v>610</v>
+      </c>
+      <c r="C735" t="s">
+        <v>566</v>
+      </c>
+      <c r="D735" t="s">
+        <v>611</v>
+      </c>
+      <c r="E735" t="s">
+        <v>86</v>
+      </c>
+      <c r="F735" t="s">
+        <v>167</v>
+      </c>
+      <c r="G735" t="s">
+        <v>588</v>
+      </c>
+      <c r="H735">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B736" t="s">
+        <v>612</v>
+      </c>
+      <c r="C736" t="s">
+        <v>468</v>
+      </c>
+      <c r="D736" t="s">
+        <v>469</v>
+      </c>
+      <c r="E736" t="s">
+        <v>86</v>
+      </c>
+      <c r="F736" t="s">
+        <v>167</v>
+      </c>
+      <c r="G736" t="s">
+        <v>588</v>
+      </c>
+      <c r="H736">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B737" t="s">
+        <v>613</v>
+      </c>
+      <c r="C737" t="s">
+        <v>571</v>
+      </c>
+      <c r="D737" t="s">
+        <v>614</v>
+      </c>
+      <c r="E737" t="s">
+        <v>86</v>
+      </c>
+      <c r="F737" t="s">
+        <v>167</v>
+      </c>
+      <c r="G737" t="s">
+        <v>588</v>
+      </c>
+      <c r="H737">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B738" t="s">
+        <v>615</v>
+      </c>
+      <c r="C738" t="s">
+        <v>459</v>
+      </c>
+      <c r="D738" t="s">
+        <v>460</v>
+      </c>
+      <c r="E738" t="s">
+        <v>86</v>
+      </c>
+      <c r="F738" t="s">
+        <v>167</v>
+      </c>
+      <c r="G738" t="s">
+        <v>588</v>
+      </c>
+      <c r="H738">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B739" t="s">
+        <v>616</v>
+      </c>
+      <c r="C739" t="s">
+        <v>576</v>
+      </c>
+      <c r="D739" t="s">
+        <v>617</v>
+      </c>
+      <c r="E739" t="s">
+        <v>86</v>
+      </c>
+      <c r="F739" t="s">
+        <v>167</v>
+      </c>
+      <c r="G739" t="s">
+        <v>588</v>
+      </c>
+      <c r="H739">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B740" t="s">
+        <v>618</v>
+      </c>
+      <c r="C740" t="s">
+        <v>579</v>
+      </c>
+      <c r="D740" t="s">
+        <v>619</v>
+      </c>
+      <c r="E740" t="s">
+        <v>86</v>
+      </c>
+      <c r="F740" t="s">
+        <v>167</v>
+      </c>
+      <c r="G740" t="s">
+        <v>588</v>
+      </c>
+      <c r="H740">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B741" t="s">
+        <v>620</v>
+      </c>
+      <c r="C741" t="s">
+        <v>582</v>
+      </c>
+      <c r="D741" t="s">
+        <v>621</v>
+      </c>
+      <c r="E741" t="s">
+        <v>86</v>
+      </c>
+      <c r="F741" t="s">
+        <v>167</v>
+      </c>
+      <c r="G741" t="s">
+        <v>588</v>
+      </c>
+      <c r="H741">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B742" t="s">
+        <v>622</v>
+      </c>
+      <c r="C742" t="s">
+        <v>585</v>
+      </c>
+      <c r="D742" t="s">
+        <v>623</v>
+      </c>
+      <c r="E742" t="s">
+        <v>86</v>
+      </c>
+      <c r="F742" t="s">
+        <v>167</v>
+      </c>
+      <c r="G742" t="s">
+        <v>588</v>
+      </c>
+      <c r="H742">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B743" t="s">
+        <v>624</v>
+      </c>
+      <c r="C743" t="s">
+        <v>420</v>
+      </c>
+      <c r="D743" t="s">
+        <v>421</v>
+      </c>
+      <c r="E743" t="s">
+        <v>86</v>
+      </c>
+      <c r="F743" t="s">
+        <v>167</v>
+      </c>
+      <c r="G743" t="s">
+        <v>625</v>
+      </c>
+      <c r="H743">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B744" t="s">
+        <v>626</v>
+      </c>
+      <c r="C744" t="s">
+        <v>423</v>
+      </c>
+      <c r="D744" t="s">
+        <v>424</v>
+      </c>
+      <c r="E744" t="s">
+        <v>86</v>
+      </c>
+      <c r="F744" t="s">
+        <v>167</v>
+      </c>
+      <c r="G744" t="s">
+        <v>625</v>
+      </c>
+      <c r="H744">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B745" t="s">
+        <v>627</v>
+      </c>
+      <c r="C745" t="s">
+        <v>536</v>
+      </c>
+      <c r="D745" t="s">
+        <v>591</v>
+      </c>
+      <c r="E745" t="s">
+        <v>86</v>
+      </c>
+      <c r="F745" t="s">
+        <v>167</v>
+      </c>
+      <c r="G745" t="s">
+        <v>625</v>
+      </c>
+      <c r="H745">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B746" t="s">
+        <v>628</v>
+      </c>
+      <c r="C746" t="s">
+        <v>539</v>
+      </c>
+      <c r="D746" t="s">
+        <v>593</v>
+      </c>
+      <c r="E746" t="s">
+        <v>86</v>
+      </c>
+      <c r="F746" t="s">
+        <v>167</v>
+      </c>
+      <c r="G746" t="s">
+        <v>625</v>
+      </c>
+      <c r="H746">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B747" t="s">
+        <v>629</v>
+      </c>
+      <c r="C747" t="s">
+        <v>542</v>
+      </c>
+      <c r="D747" t="s">
+        <v>595</v>
+      </c>
+      <c r="E747" t="s">
+        <v>86</v>
+      </c>
+      <c r="F747" t="s">
+        <v>167</v>
+      </c>
+      <c r="G747" t="s">
+        <v>625</v>
+      </c>
+      <c r="H747">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B748" t="s">
+        <v>630</v>
+      </c>
+      <c r="C748" t="s">
+        <v>545</v>
+      </c>
+      <c r="D748" t="s">
+        <v>597</v>
+      </c>
+      <c r="E748" t="s">
+        <v>86</v>
+      </c>
+      <c r="F748" t="s">
+        <v>167</v>
+      </c>
+      <c r="G748" t="s">
+        <v>625</v>
+      </c>
+      <c r="H748">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B749" t="s">
+        <v>631</v>
+      </c>
+      <c r="C749" t="s">
+        <v>548</v>
+      </c>
+      <c r="D749" t="s">
+        <v>599</v>
+      </c>
+      <c r="E749" t="s">
+        <v>86</v>
+      </c>
+      <c r="F749" t="s">
+        <v>167</v>
+      </c>
+      <c r="G749" t="s">
+        <v>625</v>
+      </c>
+      <c r="H749">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B750" t="s">
+        <v>632</v>
+      </c>
+      <c r="C750" t="s">
+        <v>551</v>
+      </c>
+      <c r="D750" t="s">
+        <v>601</v>
+      </c>
+      <c r="E750" t="s">
+        <v>86</v>
+      </c>
+      <c r="F750" t="s">
+        <v>167</v>
+      </c>
+      <c r="G750" t="s">
+        <v>625</v>
+      </c>
+      <c r="H750">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B751" t="s">
+        <v>633</v>
+      </c>
+      <c r="C751" t="s">
+        <v>554</v>
+      </c>
+      <c r="D751" t="s">
+        <v>603</v>
+      </c>
+      <c r="E751" t="s">
+        <v>86</v>
+      </c>
+      <c r="F751" t="s">
+        <v>167</v>
+      </c>
+      <c r="G751" t="s">
+        <v>625</v>
+      </c>
+      <c r="H751">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B752" t="s">
+        <v>634</v>
+      </c>
+      <c r="C752" t="s">
+        <v>557</v>
+      </c>
+      <c r="D752" t="s">
+        <v>605</v>
+      </c>
+      <c r="E752" t="s">
+        <v>86</v>
+      </c>
+      <c r="F752" t="s">
+        <v>167</v>
+      </c>
+      <c r="G752" t="s">
+        <v>625</v>
+      </c>
+      <c r="H752">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B753" t="s">
+        <v>635</v>
+      </c>
+      <c r="C753" t="s">
+        <v>560</v>
+      </c>
+      <c r="D753" t="s">
+        <v>607</v>
+      </c>
+      <c r="E753" t="s">
+        <v>86</v>
+      </c>
+      <c r="F753" t="s">
+        <v>167</v>
+      </c>
+      <c r="G753" t="s">
+        <v>625</v>
+      </c>
+      <c r="H753">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B754" t="s">
+        <v>636</v>
+      </c>
+      <c r="C754" t="s">
+        <v>563</v>
+      </c>
+      <c r="D754" t="s">
+        <v>609</v>
+      </c>
+      <c r="E754" t="s">
+        <v>86</v>
+      </c>
+      <c r="F754" t="s">
+        <v>167</v>
+      </c>
+      <c r="G754" t="s">
+        <v>625</v>
+      </c>
+      <c r="H754">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B755" t="s">
+        <v>637</v>
+      </c>
+      <c r="C755" t="s">
+        <v>566</v>
+      </c>
+      <c r="D755" t="s">
+        <v>611</v>
+      </c>
+      <c r="E755" t="s">
+        <v>86</v>
+      </c>
+      <c r="F755" t="s">
+        <v>167</v>
+      </c>
+      <c r="G755" t="s">
+        <v>625</v>
+      </c>
+      <c r="H755">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B756" t="s">
+        <v>638</v>
+      </c>
+      <c r="C756" t="s">
+        <v>468</v>
+      </c>
+      <c r="D756" t="s">
+        <v>469</v>
+      </c>
+      <c r="E756" t="s">
+        <v>86</v>
+      </c>
+      <c r="F756" t="s">
+        <v>167</v>
+      </c>
+      <c r="G756" t="s">
+        <v>625</v>
+      </c>
+      <c r="H756">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B757" t="s">
+        <v>639</v>
+      </c>
+      <c r="C757" t="s">
+        <v>571</v>
+      </c>
+      <c r="D757" t="s">
+        <v>614</v>
+      </c>
+      <c r="E757" t="s">
+        <v>86</v>
+      </c>
+      <c r="F757" t="s">
+        <v>167</v>
+      </c>
+      <c r="G757" t="s">
+        <v>625</v>
+      </c>
+      <c r="H757">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B758" t="s">
+        <v>640</v>
+      </c>
+      <c r="C758" t="s">
+        <v>459</v>
+      </c>
+      <c r="D758" t="s">
+        <v>460</v>
+      </c>
+      <c r="E758" t="s">
+        <v>86</v>
+      </c>
+      <c r="F758" t="s">
+        <v>167</v>
+      </c>
+      <c r="G758" t="s">
+        <v>625</v>
+      </c>
+      <c r="H758">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B759" t="s">
+        <v>641</v>
+      </c>
+      <c r="C759" t="s">
+        <v>576</v>
+      </c>
+      <c r="D759" t="s">
+        <v>617</v>
+      </c>
+      <c r="E759" t="s">
+        <v>86</v>
+      </c>
+      <c r="F759" t="s">
+        <v>167</v>
+      </c>
+      <c r="G759" t="s">
+        <v>625</v>
+      </c>
+      <c r="H759">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B760" t="s">
+        <v>642</v>
+      </c>
+      <c r="C760" t="s">
+        <v>579</v>
+      </c>
+      <c r="D760" t="s">
+        <v>619</v>
+      </c>
+      <c r="E760" t="s">
+        <v>86</v>
+      </c>
+      <c r="F760" t="s">
+        <v>167</v>
+      </c>
+      <c r="G760" t="s">
+        <v>625</v>
+      </c>
+      <c r="H760">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B761" t="s">
+        <v>643</v>
+      </c>
+      <c r="C761" t="s">
+        <v>582</v>
+      </c>
+      <c r="D761" t="s">
+        <v>621</v>
+      </c>
+      <c r="E761" t="s">
+        <v>86</v>
+      </c>
+      <c r="F761" t="s">
+        <v>167</v>
+      </c>
+      <c r="G761" t="s">
+        <v>625</v>
+      </c>
+      <c r="H761">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B762" t="s">
+        <v>644</v>
+      </c>
+      <c r="C762" t="s">
+        <v>585</v>
+      </c>
+      <c r="D762" t="s">
+        <v>623</v>
+      </c>
+      <c r="E762" t="s">
+        <v>86</v>
+      </c>
+      <c r="F762" t="s">
+        <v>167</v>
+      </c>
+      <c r="G762" t="s">
+        <v>625</v>
+      </c>
+      <c r="H762">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B763" t="s">
+        <v>645</v>
+      </c>
+      <c r="C763" t="s">
+        <v>646</v>
+      </c>
+      <c r="D763" t="s">
+        <v>647</v>
+      </c>
+      <c r="E763" t="s">
+        <v>86</v>
+      </c>
+      <c r="F763" t="s">
+        <v>167</v>
+      </c>
+      <c r="G763" t="s">
+        <v>648</v>
+      </c>
+      <c r="H763">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B764" t="s">
+        <v>481</v>
+      </c>
+      <c r="C764" t="s">
+        <v>649</v>
+      </c>
+      <c r="D764" t="s">
+        <v>650</v>
+      </c>
+      <c r="E764" t="s">
+        <v>86</v>
+      </c>
+      <c r="F764" t="s">
+        <v>167</v>
+      </c>
+      <c r="G764" t="s">
+        <v>648</v>
+      </c>
+      <c r="H764">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B765" t="s">
+        <v>651</v>
+      </c>
+      <c r="C765" t="s">
+        <v>536</v>
+      </c>
+      <c r="D765" t="s">
+        <v>652</v>
+      </c>
+      <c r="E765" t="s">
+        <v>86</v>
+      </c>
+      <c r="F765" t="s">
+        <v>167</v>
+      </c>
+      <c r="G765" t="s">
+        <v>648</v>
+      </c>
+      <c r="H765">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B766" t="s">
+        <v>653</v>
+      </c>
+      <c r="C766" t="s">
+        <v>654</v>
+      </c>
+      <c r="D766" t="s">
+        <v>655</v>
+      </c>
+      <c r="E766" t="s">
+        <v>86</v>
+      </c>
+      <c r="F766" t="s">
+        <v>167</v>
+      </c>
+      <c r="G766" t="s">
+        <v>648</v>
+      </c>
+      <c r="H766">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B767" t="s">
+        <v>656</v>
+      </c>
+      <c r="C767" t="s">
+        <v>542</v>
+      </c>
+      <c r="D767" t="s">
+        <v>543</v>
+      </c>
+      <c r="E767" t="s">
+        <v>86</v>
+      </c>
+      <c r="F767" t="s">
+        <v>167</v>
+      </c>
+      <c r="G767" t="s">
+        <v>648</v>
+      </c>
+      <c r="H767">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B768" t="s">
+        <v>657</v>
+      </c>
+      <c r="C768" t="s">
+        <v>658</v>
+      </c>
+      <c r="D768" t="s">
+        <v>659</v>
+      </c>
+      <c r="E768" t="s">
+        <v>86</v>
+      </c>
+      <c r="F768" t="s">
+        <v>167</v>
+      </c>
+      <c r="G768" t="s">
+        <v>648</v>
+      </c>
+      <c r="H768">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B769" t="s">
+        <v>660</v>
+      </c>
+      <c r="C769" t="s">
+        <v>661</v>
+      </c>
+      <c r="D769" t="s">
+        <v>549</v>
+      </c>
+      <c r="E769" t="s">
+        <v>86</v>
+      </c>
+      <c r="F769" t="s">
+        <v>167</v>
+      </c>
+      <c r="G769" t="s">
+        <v>648</v>
+      </c>
+      <c r="H769">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B770" t="s">
+        <v>662</v>
+      </c>
+      <c r="C770" t="s">
+        <v>663</v>
+      </c>
+      <c r="D770" t="s">
+        <v>664</v>
+      </c>
+      <c r="E770" t="s">
+        <v>86</v>
+      </c>
+      <c r="F770" t="s">
+        <v>167</v>
+      </c>
+      <c r="G770" t="s">
+        <v>648</v>
+      </c>
+      <c r="H770">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B771" t="s">
+        <v>665</v>
+      </c>
+      <c r="C771" t="s">
+        <v>554</v>
+      </c>
+      <c r="D771" t="s">
+        <v>555</v>
+      </c>
+      <c r="E771" t="s">
+        <v>86</v>
+      </c>
+      <c r="F771" t="s">
+        <v>167</v>
+      </c>
+      <c r="G771" t="s">
+        <v>648</v>
+      </c>
+      <c r="H771">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B772" t="s">
+        <v>666</v>
+      </c>
+      <c r="C772" t="s">
+        <v>557</v>
+      </c>
+      <c r="D772" t="s">
+        <v>558</v>
+      </c>
+      <c r="E772" t="s">
+        <v>86</v>
+      </c>
+      <c r="F772" t="s">
+        <v>167</v>
+      </c>
+      <c r="G772" t="s">
+        <v>648</v>
+      </c>
+      <c r="H772">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B773" t="s">
+        <v>667</v>
+      </c>
+      <c r="C773" t="s">
+        <v>668</v>
+      </c>
+      <c r="D773" t="s">
+        <v>669</v>
+      </c>
+      <c r="E773" t="s">
+        <v>86</v>
+      </c>
+      <c r="F773" t="s">
+        <v>167</v>
+      </c>
+      <c r="G773" t="s">
+        <v>648</v>
+      </c>
+      <c r="H773">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B774" t="s">
+        <v>670</v>
+      </c>
+      <c r="C774" t="s">
+        <v>563</v>
+      </c>
+      <c r="D774" t="s">
+        <v>671</v>
+      </c>
+      <c r="E774" t="s">
+        <v>86</v>
+      </c>
+      <c r="F774" t="s">
+        <v>167</v>
+      </c>
+      <c r="G774" t="s">
+        <v>648</v>
+      </c>
+      <c r="H774">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B775" t="s">
+        <v>672</v>
+      </c>
+      <c r="C775" t="s">
+        <v>485</v>
+      </c>
+      <c r="D775" t="s">
+        <v>673</v>
+      </c>
+      <c r="E775" t="s">
+        <v>86</v>
+      </c>
+      <c r="F775" t="s">
+        <v>167</v>
+      </c>
+      <c r="G775" t="s">
+        <v>648</v>
+      </c>
+      <c r="H775">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B776" t="s">
+        <v>674</v>
+      </c>
+      <c r="C776" t="s">
+        <v>435</v>
+      </c>
+      <c r="D776" t="s">
+        <v>569</v>
+      </c>
+      <c r="E776" t="s">
+        <v>86</v>
+      </c>
+      <c r="F776" t="s">
+        <v>167</v>
+      </c>
+      <c r="G776" t="s">
+        <v>648</v>
+      </c>
+      <c r="H776">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B777" t="s">
+        <v>479</v>
+      </c>
+      <c r="C777" t="s">
+        <v>444</v>
+      </c>
+      <c r="D777" t="s">
+        <v>675</v>
+      </c>
+      <c r="E777" t="s">
+        <v>86</v>
+      </c>
+      <c r="F777" t="s">
+        <v>167</v>
+      </c>
+      <c r="G777" t="s">
+        <v>648</v>
+      </c>
+      <c r="H777">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B778" t="s">
+        <v>676</v>
+      </c>
+      <c r="C778" t="s">
+        <v>677</v>
+      </c>
+      <c r="D778" t="s">
+        <v>678</v>
+      </c>
+      <c r="E778" t="s">
+        <v>86</v>
+      </c>
+      <c r="F778" t="s">
+        <v>167</v>
+      </c>
+      <c r="G778" t="s">
+        <v>648</v>
+      </c>
+      <c r="H778">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B779" t="s">
+        <v>679</v>
+      </c>
+      <c r="C779" t="s">
+        <v>576</v>
+      </c>
+      <c r="D779" t="s">
+        <v>577</v>
+      </c>
+      <c r="E779" t="s">
+        <v>86</v>
+      </c>
+      <c r="F779" t="s">
+        <v>167</v>
+      </c>
+      <c r="G779" t="s">
+        <v>648</v>
+      </c>
+      <c r="H779">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B780" t="s">
+        <v>680</v>
+      </c>
+      <c r="C780" t="s">
+        <v>579</v>
+      </c>
+      <c r="D780" t="s">
+        <v>681</v>
+      </c>
+      <c r="E780" t="s">
+        <v>86</v>
+      </c>
+      <c r="F780" t="s">
+        <v>167</v>
+      </c>
+      <c r="G780" t="s">
+        <v>648</v>
+      </c>
+      <c r="H780">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B781" t="s">
+        <v>682</v>
+      </c>
+      <c r="C781" t="s">
+        <v>582</v>
+      </c>
+      <c r="D781" t="s">
+        <v>583</v>
+      </c>
+      <c r="E781" t="s">
+        <v>86</v>
+      </c>
+      <c r="F781" t="s">
+        <v>167</v>
+      </c>
+      <c r="G781" t="s">
+        <v>648</v>
+      </c>
+      <c r="H781">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B782" t="s">
+        <v>683</v>
+      </c>
+      <c r="C782" t="s">
+        <v>684</v>
+      </c>
+      <c r="D782" t="s">
+        <v>685</v>
+      </c>
+      <c r="E782" t="s">
+        <v>86</v>
+      </c>
+      <c r="F782" t="s">
+        <v>167</v>
+      </c>
+      <c r="G782" t="s">
+        <v>648</v>
+      </c>
+      <c r="H782">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B783" t="s">
+        <v>686</v>
+      </c>
+      <c r="C783" t="s">
+        <v>687</v>
+      </c>
+      <c r="D783" t="s">
+        <v>688</v>
+      </c>
+      <c r="E783" t="s">
+        <v>86</v>
+      </c>
+      <c r="F783" t="s">
+        <v>167</v>
+      </c>
+      <c r="G783" t="s">
+        <v>689</v>
+      </c>
+      <c r="H783">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B784" t="s">
+        <v>690</v>
+      </c>
+      <c r="C784" t="s">
+        <v>691</v>
+      </c>
+      <c r="D784" t="s">
+        <v>692</v>
+      </c>
+      <c r="E784" t="s">
+        <v>86</v>
+      </c>
+      <c r="F784" t="s">
+        <v>167</v>
+      </c>
+      <c r="G784" t="s">
+        <v>689</v>
+      </c>
+      <c r="H784">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B785" t="s">
+        <v>693</v>
+      </c>
+      <c r="C785" t="s">
+        <v>694</v>
+      </c>
+      <c r="D785" t="s">
+        <v>695</v>
+      </c>
+      <c r="E785" t="s">
+        <v>86</v>
+      </c>
+      <c r="F785" t="s">
+        <v>167</v>
+      </c>
+      <c r="G785" t="s">
+        <v>689</v>
+      </c>
+      <c r="H785">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B786" t="s">
+        <v>696</v>
+      </c>
+      <c r="C786" t="s">
+        <v>697</v>
+      </c>
+      <c r="D786" t="s">
+        <v>698</v>
+      </c>
+      <c r="E786" t="s">
+        <v>86</v>
+      </c>
+      <c r="F786" t="s">
+        <v>167</v>
+      </c>
+      <c r="G786" t="s">
+        <v>689</v>
+      </c>
+      <c r="H786">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B787" t="s">
+        <v>699</v>
+      </c>
+      <c r="C787" t="s">
+        <v>435</v>
+      </c>
+      <c r="D787" t="s">
+        <v>700</v>
+      </c>
+      <c r="E787" t="s">
+        <v>86</v>
+      </c>
+      <c r="F787" t="s">
+        <v>167</v>
+      </c>
+      <c r="G787" t="s">
+        <v>689</v>
+      </c>
+      <c r="H787">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B788" t="s">
+        <v>701</v>
+      </c>
+      <c r="C788" t="s">
+        <v>702</v>
+      </c>
+      <c r="D788" t="s">
+        <v>703</v>
+      </c>
+      <c r="E788" t="s">
+        <v>86</v>
+      </c>
+      <c r="F788" t="s">
+        <v>167</v>
+      </c>
+      <c r="G788" t="s">
+        <v>689</v>
+      </c>
+      <c r="H788">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B789" t="s">
+        <v>704</v>
+      </c>
+      <c r="C789" t="s">
+        <v>661</v>
+      </c>
+      <c r="D789" t="s">
+        <v>705</v>
+      </c>
+      <c r="E789" t="s">
+        <v>86</v>
+      </c>
+      <c r="F789" t="s">
+        <v>167</v>
+      </c>
+      <c r="G789" t="s">
+        <v>689</v>
+      </c>
+      <c r="H789">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B790" t="s">
+        <v>706</v>
+      </c>
+      <c r="C790" t="s">
+        <v>663</v>
+      </c>
+      <c r="D790" t="s">
+        <v>707</v>
+      </c>
+      <c r="E790" t="s">
+        <v>86</v>
+      </c>
+      <c r="F790" t="s">
+        <v>167</v>
+      </c>
+      <c r="G790" t="s">
+        <v>689</v>
+      </c>
+      <c r="H790">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B791" t="s">
+        <v>708</v>
+      </c>
+      <c r="C791" t="s">
+        <v>709</v>
+      </c>
+      <c r="D791" t="s">
+        <v>710</v>
+      </c>
+      <c r="E791" t="s">
+        <v>86</v>
+      </c>
+      <c r="F791" t="s">
+        <v>167</v>
+      </c>
+      <c r="G791" t="s">
+        <v>689</v>
+      </c>
+      <c r="H791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B792" t="s">
+        <v>711</v>
+      </c>
+      <c r="C792" t="s">
+        <v>557</v>
+      </c>
+      <c r="D792" t="s">
+        <v>712</v>
+      </c>
+      <c r="E792" t="s">
+        <v>86</v>
+      </c>
+      <c r="F792" t="s">
+        <v>167</v>
+      </c>
+      <c r="G792" t="s">
+        <v>689</v>
+      </c>
+      <c r="H792">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B793" t="s">
+        <v>713</v>
+      </c>
+      <c r="C793" t="s">
+        <v>714</v>
+      </c>
+      <c r="D793" t="s">
+        <v>715</v>
+      </c>
+      <c r="E793" t="s">
+        <v>86</v>
+      </c>
+      <c r="F793" t="s">
+        <v>167</v>
+      </c>
+      <c r="G793" t="s">
+        <v>689</v>
+      </c>
+      <c r="H793">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B794" t="s">
+        <v>716</v>
+      </c>
+      <c r="C794" t="s">
+        <v>563</v>
+      </c>
+      <c r="D794" t="s">
+        <v>717</v>
+      </c>
+      <c r="E794" t="s">
+        <v>86</v>
+      </c>
+      <c r="F794" t="s">
+        <v>167</v>
+      </c>
+      <c r="G794" t="s">
+        <v>689</v>
+      </c>
+      <c r="H794">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B795" t="s">
+        <v>718</v>
+      </c>
+      <c r="C795" t="s">
+        <v>719</v>
+      </c>
+      <c r="D795" t="s">
+        <v>720</v>
+      </c>
+      <c r="E795" t="s">
+        <v>86</v>
+      </c>
+      <c r="F795" t="s">
+        <v>167</v>
+      </c>
+      <c r="G795" t="s">
+        <v>689</v>
+      </c>
+      <c r="H795">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B796" t="s">
+        <v>721</v>
+      </c>
+      <c r="C796" t="s">
+        <v>528</v>
+      </c>
+      <c r="D796" t="s">
+        <v>722</v>
+      </c>
+      <c r="E796" t="s">
+        <v>86</v>
+      </c>
+      <c r="F796" t="s">
+        <v>167</v>
+      </c>
+      <c r="G796" t="s">
+        <v>689</v>
+      </c>
+      <c r="H796">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B797" t="s">
+        <v>723</v>
+      </c>
+      <c r="C797" t="s">
+        <v>459</v>
+      </c>
+      <c r="D797" t="s">
+        <v>724</v>
+      </c>
+      <c r="E797" t="s">
+        <v>86</v>
+      </c>
+      <c r="F797" t="s">
+        <v>167</v>
+      </c>
+      <c r="G797" t="s">
+        <v>689</v>
+      </c>
+      <c r="H797">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B798" t="s">
+        <v>725</v>
+      </c>
+      <c r="C798" t="s">
+        <v>726</v>
+      </c>
+      <c r="D798" t="s">
+        <v>727</v>
+      </c>
+      <c r="E798" t="s">
+        <v>86</v>
+      </c>
+      <c r="F798" t="s">
+        <v>167</v>
+      </c>
+      <c r="G798" t="s">
+        <v>689</v>
+      </c>
+      <c r="H798">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B799" t="s">
+        <v>728</v>
+      </c>
+      <c r="C799" t="s">
+        <v>444</v>
+      </c>
+      <c r="D799" t="s">
+        <v>729</v>
+      </c>
+      <c r="E799" t="s">
+        <v>86</v>
+      </c>
+      <c r="F799" t="s">
+        <v>167</v>
+      </c>
+      <c r="G799" t="s">
+        <v>689</v>
+      </c>
+      <c r="H799">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B800" t="s">
+        <v>716</v>
+      </c>
+      <c r="C800" t="s">
+        <v>563</v>
+      </c>
+      <c r="D800" t="s">
+        <v>717</v>
+      </c>
+      <c r="E800" t="s">
+        <v>86</v>
+      </c>
+      <c r="F800" t="s">
+        <v>167</v>
+      </c>
+      <c r="G800" t="s">
+        <v>689</v>
+      </c>
+      <c r="H800">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B801" t="s">
+        <v>730</v>
+      </c>
+      <c r="C801" t="s">
+        <v>731</v>
+      </c>
+      <c r="D801" t="s">
+        <v>732</v>
+      </c>
+      <c r="E801" t="s">
+        <v>86</v>
+      </c>
+      <c r="F801" t="s">
+        <v>167</v>
+      </c>
+      <c r="G801" t="s">
+        <v>689</v>
+      </c>
+      <c r="H801">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B802" t="s">
+        <v>733</v>
+      </c>
+      <c r="C802" t="s">
+        <v>734</v>
+      </c>
+      <c r="D802" t="s">
+        <v>735</v>
+      </c>
+      <c r="E802" t="s">
+        <v>86</v>
+      </c>
+      <c r="F802" t="s">
+        <v>167</v>
+      </c>
+      <c r="G802" t="s">
+        <v>689</v>
+      </c>
+      <c r="H802">
         <v>2</v>
       </c>
     </row>
